--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1067.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1067.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8091910046234552</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04045955023117276</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04045955023117276</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06473528036987641</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.1009790332912777</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.05097903329127768</v>
+        <v>0.02513417557850348</v>
       </c>
       <c r="B65" t="n">
-        <v>0.009834131084229578</v>
+        <v>0.004848518329501852</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9289,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0</v>
+        <v>0.008000000000000007</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0</v>
+        <v>0.0002374220374220377</v>
       </c>
       <c r="N65" s="171" t="n">
         <v>0</v>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.006778319137199368</v>
+        <v>0.002999999999999996</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0008066228798107553</v>
+        <v>0.0004051013513513507</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.006449915096904492</v>
+        <v>0.02049198887751538</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007403454969625911</v>
+        <v>0.0007589067795729077</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01899999999999999</v>
+        <v>0.02238837483596423</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0008068056263810973</v>
+        <v>0.000759483817774958</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.0322285935805009</v>
+        <v>0.002999999999999996</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007500280297698036</v>
+        <v>0.0004051013513513507</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.01020546095691323</v>
+        <v>0.0100724256997806</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001613245759621511</v>
+        <v>0.001528539924566311</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01269044250495156</v>
+        <v>0.03199999999999997</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001480690993925182</v>
+        <v>0.001309418509418508</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03158171724596873</v>
+        <v>0.04505267774339872</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00152350322273342</v>
+        <v>0.001518967635549916</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.05099999999999999</v>
+        <v>0.0100724256997806</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001363707519400589</v>
+        <v>0.001528539924566311</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01702824059677784</v>
+        <v>0.01485622361628644</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002419868639432266</v>
+        <v>0.002292809886849467</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.019</v>
+        <v>0.04449248413444234</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002565641891891892</v>
+        <v>0.002276720338718723</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.04264962899057062</v>
+        <v>0.06196428210286953</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002285254834100131</v>
+        <v>0.002278451453324874</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.06712938505143662</v>
+        <v>0.01485622361628644</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002250084089309411</v>
+        <v>0.002292809886849467</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.02427573013870366</v>
+        <v>0.01853370644821292</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003278043694743192</v>
+        <v>0.003057079849132623</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.02044364317057658</v>
+        <v>0.04871439264546593</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002961381987850364</v>
+        <v>0.00284765747343991</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04871439264546593</v>
+        <v>0.07229460971242835</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002955116246022548</v>
+        <v>0.003065059559384956</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.07229460971242835</v>
+        <v>0.01853370644821292</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002761588315881495</v>
+        <v>0.003057079849132623</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003278043694743192</v>
+        <v>0.0004051013513513507</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02427573013870366</v>
+        <v>0.002999999999999996</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.02519393196090032</v>
+        <v>0.02190404330728017</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004033114399053777</v>
+        <v>0.003821349811415778</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02215385876733503</v>
+        <v>0.05108850782022334</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003701727484812956</v>
+        <v>0.003794533897864538</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.05210947662310891</v>
+        <v>0.07448114176964959</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003808758056833551</v>
+        <v>0.00379741908887479</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.07795761497531051</v>
+        <v>0.02190404330728017</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003750140148849019</v>
+        <v>0.003821349811415778</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.0300149187156806</v>
+        <v>0.02513417557850348</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004839737278864532</v>
+        <v>0.004848518329501852</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02385750498535541</v>
+        <v>0.05326429416517445</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004442072981775546</v>
+        <v>0.004553440677437446</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.05465466059438515</v>
+        <v>0.07729005301817088</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004570509668200262</v>
+        <v>0.004556902906649748</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.0817815892872103</v>
+        <v>0.02513417557850348</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004500168178618822</v>
+        <v>0.004848518329501852</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.03051907448461348</v>
+        <v>0.0255534167548509</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005646360158675287</v>
+        <v>0.00534988973598209</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02513417557850348</v>
+        <v>0.05518085518539359</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.004848518329501852</v>
+        <v>0.005312347457010353</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.05765852554200693</v>
+        <v>0.08090290946021511</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005332261279566972</v>
+        <v>0.005316386724424705</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.08623425906091625</v>
+        <v>0.0255534167548509</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005250196208388626</v>
+        <v>0.00534988973598209</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.03576764168901962</v>
+        <v>0.02692642998641449</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006452983038486042</v>
+        <v>0.006114159698265245</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02666037676505091</v>
+        <v>0.05683894344783472</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005922763975700729</v>
+        <v>0.006071254236583262</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.06132315707086611</v>
+        <v>0.08442105105069792</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006094012890933681</v>
+        <v>0.006075870542199664</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.08991694820832757</v>
+        <v>0.02692642998641449</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006000224238158429</v>
+        <v>0.006114159698265245</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.03382186275021964</v>
+        <v>0.02787144909594905</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007259605918296798</v>
+        <v>0.006878429660548402</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02827305423308665</v>
+        <v>0.05923931151945178</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006663109472663319</v>
+        <v>0.006830161016156168</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.06415064078585456</v>
+        <v>0.08714581774453545</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006855764502300393</v>
+        <v>0.006835354359974621</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.09363098064134368</v>
+        <v>0.02787144909594905</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006750252267928233</v>
+        <v>0.006878429660548402</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.04074298008953425</v>
+        <v>0.02888873208229749</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.008066228798107554</v>
+        <v>0.007642699622831556</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02937037953637667</v>
+        <v>0.06068271196719877</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007403454969625911</v>
+        <v>0.007589067795729077</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.06584306229186423</v>
+        <v>0.09017854949664339</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007617516113667101</v>
+        <v>0.007594838177749579</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.09687768027186361</v>
+        <v>0.02888873208229749</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007500280297698037</v>
+        <v>0.007642699622831556</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.04259223612828401</v>
+        <v>0.02987853694430291</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008872851677918308</v>
+        <v>0.008406969585114712</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03084951679803659</v>
+        <v>0.06246989735802971</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008143800466588502</v>
+        <v>0.008347974575301986</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.068802507193787</v>
+        <v>0.09192058626193761</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008379267725033812</v>
+        <v>0.008354321995524537</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.1012583710117868</v>
+        <v>0.02987853694430291</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008250308327467841</v>
+        <v>0.008406969585114712</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.05097903329127768</v>
+        <v>0.03044112168080827</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009834131084229578</v>
+        <v>0.009171239547397868</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03190763014118211</v>
+        <v>0.06380162025889854</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008884145963551093</v>
+        <v>0.009106881354874892</v>
       </c>
       <c r="L77" t="n">
-        <v>0.07103106109651472</v>
+        <v>0.09527326799533392</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009141019336400524</v>
+        <v>0.009113805813299496</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1038743767730124</v>
+        <v>0.03044112168080827</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009000336357237643</v>
+        <v>0.009171239547397868</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.04434449315260396</v>
+        <v>0.03187674429065659</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01048609743753982</v>
+        <v>0.009935509509681023</v>
       </c>
       <c r="J78" t="n">
-        <v>0.03324188368892891</v>
+        <v>0.06577863323675934</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009624491460513683</v>
+        <v>0.009865788134447799</v>
       </c>
       <c r="L78" t="n">
-        <v>0.07303080960493932</v>
+        <v>0.0975379346517482</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009902770947767233</v>
+        <v>0.009873289631074455</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1076270214674397</v>
+        <v>0.03187674429065659</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009750364387007448</v>
+        <v>0.009935509509681023</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.05239317870045672</v>
+        <v>0.03228566277269092</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01129272031735057</v>
+        <v>0.01069977947196418</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03414944156439267</v>
+        <v>0.06770168885856598</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01036483695747627</v>
+        <v>0.01062469491402071</v>
       </c>
       <c r="L79" t="n">
-        <v>0.07570383832395275</v>
+        <v>0.09991592618609635</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01066452255913394</v>
+        <v>0.01063277344884941</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1105176290069679</v>
+        <v>0.03228566277269092</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01050039241677725</v>
+        <v>0.01069977947196418</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.04954835214100205</v>
+        <v>0.03366813512575421</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01209934319716133</v>
+        <v>0.01146404943424733</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03572746789068906</v>
+        <v>0.06867153969127249</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01110518245443886</v>
+        <v>0.01138360169359361</v>
       </c>
       <c r="L80" t="n">
-        <v>0.07725223285844673</v>
+        <v>0.1027085825532941</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01142627417050065</v>
+        <v>0.01139225726662437</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1131475233034964</v>
+        <v>0.03366813512575421</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01125042044654706</v>
+        <v>0.01146404943424733</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0567795027982341</v>
+        <v>0.03402441934868951</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01290596607697208</v>
+        <v>0.01222831939653049</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03657312679093375</v>
+        <v>0.07028893830183292</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01184552795140146</v>
+        <v>0.01214250847316652</v>
       </c>
       <c r="L81" t="n">
-        <v>0.07937807881331335</v>
+        <v>0.1043172437082573</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01218802578186736</v>
+        <v>0.01215174108439933</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1159180282689243</v>
+        <v>0.03402441934868951</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01200044847631686</v>
+        <v>0.01222831939653049</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.0630561199961471</v>
+        <v>0.03525477344033982</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01371258895678284</v>
+        <v>0.01299258935881365</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03788358238824241</v>
+        <v>0.07245463725720117</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01258587344836405</v>
+        <v>0.01290141525273943</v>
       </c>
       <c r="L82" t="n">
-        <v>0.08038346179344447</v>
+        <v>0.1066432496059019</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01294977739323407</v>
+        <v>0.01291122490217429</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1179304678151509</v>
+        <v>0.03525477344033982</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01275047650608666</v>
+        <v>0.01299258935881365</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.06334769305873521</v>
+        <v>0.03575945539954818</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0145192118365936</v>
+        <v>0.0137568593210968</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03895599880573072</v>
+        <v>0.07356938912433117</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01332621894532664</v>
+        <v>0.01366032203231234</v>
       </c>
       <c r="L83" t="n">
-        <v>0.08237046740373188</v>
+        <v>0.1100879402011438</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01371152900460079</v>
+        <v>0.01367070871994924</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1203861658540754</v>
+        <v>0.03575945539954818</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01350050453585647</v>
+        <v>0.0137568593210968</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.06362371130999263</v>
+        <v>0.03693872322515755</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01532583471640435</v>
+        <v>0.01452112928337996</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03978754016651437</v>
+        <v>0.07453394647017708</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01406656444228923</v>
+        <v>0.01441922881188525</v>
       </c>
       <c r="L84" t="n">
-        <v>0.08394118124906755</v>
+        <v>0.1118526554488985</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01447328061596749</v>
+        <v>0.0144301925377242</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1223864462975972</v>
+        <v>0.03693872322515755</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01425053256562627</v>
+        <v>0.01452112928337996</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.07185366407391353</v>
+        <v>0.03729283491601097</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01613245759621511</v>
+        <v>0.01528539924566311</v>
       </c>
       <c r="J85" t="n">
-        <v>0.04087537059370902</v>
+        <v>0.07594906186169273</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01480690993925182</v>
+        <v>0.01517813559145815</v>
       </c>
       <c r="L85" t="n">
-        <v>0.08529768893434339</v>
+        <v>0.1135387353040822</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0152350322273342</v>
+        <v>0.01518967635549916</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1253326330576155</v>
+        <v>0.03729283491601097</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01500056059539607</v>
+        <v>0.01528539924566311</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.07600704067449211</v>
+        <v>0.03832204847095144</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01693908047602586</v>
+        <v>0.01604966920794627</v>
       </c>
       <c r="J86" t="n">
-        <v>0.04181665421043036</v>
+        <v>0.07781548786583217</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01554725543621441</v>
+        <v>0.01593704237103106</v>
       </c>
       <c r="L86" t="n">
-        <v>0.08664207606445123</v>
+        <v>0.1159475197216105</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01599678383870091</v>
+        <v>0.01594916017327412</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1269260500460295</v>
+        <v>0.03832204847095144</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01575058862516588</v>
+        <v>0.01604966920794627</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.08005333043572258</v>
+        <v>0.039126621888822</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01774570335583662</v>
+        <v>0.01681393917022942</v>
       </c>
       <c r="J87" t="n">
-        <v>0.04270855513979407</v>
+        <v>0.07843397704954938</v>
       </c>
       <c r="K87" t="n">
-        <v>0.016287600933177</v>
+        <v>0.01669594915060397</v>
       </c>
       <c r="L87" t="n">
-        <v>0.08787642824428307</v>
+        <v>0.1178803486563995</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01675853545006762</v>
+        <v>0.01670864399104907</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1282680211747385</v>
+        <v>0.039126621888822</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01650061665493568</v>
+        <v>0.01681393917022942</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.07596202268159911</v>
+        <v>0.03950681316846565</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01855232623564737</v>
+        <v>0.01757820913251258</v>
       </c>
       <c r="J88" t="n">
-        <v>0.04354823750491579</v>
+        <v>0.07940528197979832</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0170279464301396</v>
+        <v>0.01745485593017688</v>
       </c>
       <c r="L88" t="n">
-        <v>0.08850283107873072</v>
+        <v>0.1192385620633648</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01752028706143434</v>
+        <v>0.01746812780882404</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1300598703556417</v>
+        <v>0.03950681316846565</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01725064468470549</v>
+        <v>0.01757820913251258</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.08670260673611588</v>
+        <v>0.04026288030872538</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01935894911545813</v>
+        <v>0.01834247909479574</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04453286542891123</v>
+        <v>0.08133015522353304</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01776829192710219</v>
+        <v>0.01821376270974978</v>
       </c>
       <c r="L89" t="n">
-        <v>0.08972337017268606</v>
+        <v>0.1200234998974224</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01828203867280105</v>
+        <v>0.01822761162659899</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1315029215006384</v>
+        <v>0.04026288030872538</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01800067271447529</v>
+        <v>0.01834247909479574</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.0902445719232671</v>
+        <v>0.04059508130844419</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02016557199526888</v>
+        <v>0.01910674905707889</v>
       </c>
       <c r="J90" t="n">
-        <v>0.04485960303489607</v>
+        <v>0.08240934934770747</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01850863742406477</v>
+        <v>0.01897266948932269</v>
       </c>
       <c r="L90" t="n">
-        <v>0.09084013113104109</v>
+        <v>0.122136502113488</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01904379028416776</v>
+        <v>0.01898709544437395</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1334984985216279</v>
+        <v>0.04059508130844419</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01875070074424509</v>
+        <v>0.01910674905707889</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.08855740756704694</v>
+        <v>0.04130367416646515</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02097219487507964</v>
+        <v>0.01987101901936205</v>
       </c>
       <c r="J91" t="n">
-        <v>0.04572561444598595</v>
+        <v>0.08354361691927556</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01924898292102737</v>
+        <v>0.0197315762688956</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0915551995586876</v>
+        <v>0.1241789086664775</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01980554189553447</v>
+        <v>0.01974657926214891</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1343479253305093</v>
+        <v>0.04130367416646515</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0195007287740149</v>
+        <v>0.01987101901936205</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.08761060299144957</v>
+        <v>0.04228891688163122</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02177881775489039</v>
+        <v>0.0206352889816452</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04642806378529657</v>
+        <v>0.08433371050519137</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01998932841798996</v>
+        <v>0.02049048304846851</v>
       </c>
       <c r="L92" t="n">
-        <v>0.09207066106051751</v>
+        <v>0.1250520595113069</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02056729350690117</v>
+        <v>0.02050606307992386</v>
       </c>
       <c r="N92" t="n">
-        <v>0.134952525839182</v>
+        <v>0.04228891688163122</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0202507568037847</v>
+        <v>0.0206352889816452</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.09337364752046923</v>
+        <v>0.04275106745278544</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02258544063470115</v>
+        <v>0.02139955894392836</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04686411517594363</v>
+        <v>0.08498038267240884</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02072967391495255</v>
+        <v>0.02124938982804141</v>
       </c>
       <c r="L93" t="n">
-        <v>0.09178860124142277</v>
+        <v>0.1262572946028918</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02132904511826789</v>
+        <v>0.02126554689769882</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1356136239595452</v>
+        <v>0.04275106745278544</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0210007848335545</v>
+        <v>0.02139955894392836</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.08781603047810008</v>
+        <v>0.0429903838787708</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02339206351451191</v>
+        <v>0.02216382890621152</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04723093274104276</v>
+        <v>0.08558438598788204</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02147001941191514</v>
+        <v>0.02200829660761432</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0930111057062952</v>
+        <v>0.1285959538961483</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0220907967296346</v>
+        <v>0.02202503071547378</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1364325436034982</v>
+        <v>0.0429903838787708</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02175081286332431</v>
+        <v>0.02216382890621152</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.09190724118833629</v>
+        <v>0.04360712415843032</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02419868639432266</v>
+        <v>0.02292809886849467</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04792568060370965</v>
+        <v>0.0865464730185648</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02221036490887773</v>
+        <v>0.02276720338718723</v>
       </c>
       <c r="L95" t="n">
-        <v>0.09274026006002672</v>
+        <v>0.129969377345992</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0228525483410013</v>
+        <v>0.02278451453324874</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1373106086829403</v>
+        <v>0.04360712415843032</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02250084089309411</v>
+        <v>0.02292809886849467</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.09861676897517208</v>
+        <v>0.04420154629060701</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02500530927413341</v>
+        <v>0.02369236883077783</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04834552288706</v>
+        <v>0.08736739633141125</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02295071040584032</v>
+        <v>0.02352611016676014</v>
       </c>
       <c r="L96" t="n">
-        <v>0.09297814990750927</v>
+        <v>0.1309789049073388</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02361429995236802</v>
+        <v>0.0235439983510237</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1373491431097706</v>
+        <v>0.04420154629060701</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02325086892286391</v>
+        <v>0.02369236883077783</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.09891410316260163</v>
+        <v>0.04437390827414388</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02581193215394417</v>
+        <v>0.02445663879306098</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04828762371420944</v>
+        <v>0.08834790849337526</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02369105590280291</v>
+        <v>0.02428501694633305</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0938268608536347</v>
+        <v>0.1316258765351047</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02437605156373472</v>
+        <v>0.02430348216879866</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1379494707958883</v>
+        <v>0.04437390827414388</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02400089695263372</v>
+        <v>0.02445663879306098</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.09289646113478084</v>
+        <v>0.04502446810788395</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02661855503375492</v>
+        <v>0.02522090875534413</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04844914720827369</v>
+        <v>0.08918876207141091</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0244314013997655</v>
+        <v>0.02504392372590595</v>
       </c>
       <c r="L98" t="n">
-        <v>0.09348847850329492</v>
+        <v>0.1320116321842053</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02513780317510144</v>
+        <v>0.02506296598657361</v>
       </c>
       <c r="N98" t="n">
-        <v>0.138812915653193</v>
+        <v>0.04502446810788395</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02475092498240352</v>
+        <v>0.02522090875534413</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.09780120884083188</v>
+        <v>0.04565348379067023</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02742517791356568</v>
+        <v>0.02598517871762729</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04852725749236841</v>
+        <v>0.08969070963247214</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0251717468967281</v>
+        <v>0.02580283050547886</v>
       </c>
       <c r="L99" t="n">
-        <v>0.09324347167679037</v>
+        <v>0.1341375118095566</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02589955478646815</v>
+        <v>0.02582244980434857</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1383375469747647</v>
+        <v>0.04565348379067023</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02550095301217332</v>
+        <v>0.02598517871762729</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.09064057000583892</v>
+        <v>0.04576121332134574</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02823180079337644</v>
+        <v>0.02674944867991045</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0487243087178333</v>
+        <v>0.09035450374351287</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02591209239369069</v>
+        <v>0.02656173728505177</v>
       </c>
       <c r="L100" t="n">
-        <v>0.09295219425297316</v>
+        <v>0.1343048553660746</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02666130639783486</v>
+        <v>0.02658193362212353</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1385755720292738</v>
+        <v>0.04576121332134574</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02625098104194313</v>
+        <v>0.02674944867991045</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.09742064941353598</v>
+        <v>0.04644791469875346</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02903842367318719</v>
+        <v>0.02751371864219361</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04836275160376119</v>
+        <v>0.09098089697148726</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02665243789065328</v>
+        <v>0.02732064406462467</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0930266738361093</v>
+        <v>0.1353150028086748</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02742305800920157</v>
+        <v>0.02734141743989849</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1375237245380924</v>
+        <v>0.04644791469875346</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02700100907171293</v>
+        <v>0.02751371864219361</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.09714755184765714</v>
+        <v>0.04651384592173642</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02984504655299795</v>
+        <v>0.02827798860447676</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04834980780492931</v>
+        <v>0.0912706418833491</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02739278338761587</v>
+        <v>0.02807955084419758</v>
       </c>
       <c r="L102" t="n">
-        <v>0.09198078137016835</v>
+        <v>0.1357692940922732</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02818480962056828</v>
+        <v>0.02810090125767345</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1377988956503319</v>
+        <v>0.04651384592173642</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02775103710148273</v>
+        <v>0.02827798860447676</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.09382738209193642</v>
+        <v>0.04715926498913764</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0306516694328087</v>
+        <v>0.02904225856675991</v>
       </c>
       <c r="J103" t="n">
-        <v>0.04819044299834666</v>
+        <v>0.09252449104605251</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02813312888457846</v>
+        <v>0.02883845762377049</v>
       </c>
       <c r="L103" t="n">
-        <v>0.09182838779911995</v>
+        <v>0.1370690691717856</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02894656123193499</v>
+        <v>0.0288603850754484</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1370179765151037</v>
+        <v>0.04715926498913764</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02850106513125254</v>
+        <v>0.02904225856675991</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.09146624493010796</v>
+        <v>0.04748442989980012</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03145829231261946</v>
+        <v>0.02980652852904307</v>
       </c>
       <c r="J104" t="n">
-        <v>0.04828962286102213</v>
+        <v>0.09294319702655141</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02887347438154105</v>
+        <v>0.0295973644033434</v>
       </c>
       <c r="L104" t="n">
-        <v>0.09128336406693363</v>
+        <v>0.138515668002128</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0297083128433017</v>
+        <v>0.02961986889322336</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1358978582815189</v>
+        <v>0.04748442989980012</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02925109316102234</v>
+        <v>0.02980652852904307</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.09307024514590578</v>
+        <v>0.04788959865256687</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03226491519243022</v>
+        <v>0.03057079849132623</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04755231306996473</v>
+        <v>0.09332751239179982</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02961381987850364</v>
+        <v>0.03035627118291631</v>
       </c>
       <c r="L105" t="n">
-        <v>0.090059581117579</v>
+        <v>0.138610430538216</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03047006445466841</v>
+        <v>0.03037935271099832</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1350554320986891</v>
+        <v>0.04788959865256687</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03000112119079215</v>
+        <v>0.03057079849132623</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.08864548752306389</v>
+        <v>0.04767502924628091</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03307153807224097</v>
+        <v>0.03133506845360938</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04748347930218336</v>
+        <v>0.09417818970875169</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03035416537546623</v>
+        <v>0.03111517796248922</v>
       </c>
       <c r="L106" t="n">
-        <v>0.09007090989502572</v>
+        <v>0.1387546967349657</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03123181606603512</v>
+        <v>0.03113883652877328</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1331075891157256</v>
+        <v>0.04767502924628091</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03075114922056195</v>
+        <v>0.03133506845360938</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.08719807684531644</v>
+        <v>0.04844097967978524</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03387816095205172</v>
+        <v>0.03209933841589254</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04748808723468693</v>
+        <v>0.09419598154436101</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03109451087242883</v>
+        <v>0.03187408474206212</v>
       </c>
       <c r="L107" t="n">
-        <v>0.08843122134324324</v>
+        <v>0.1400498065472928</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03199356767740183</v>
+        <v>0.03189832034654824</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1318712204817398</v>
+        <v>0.04844097967978524</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03150117725033175</v>
+        <v>0.03209933841589254</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.09073411789639743</v>
+        <v>0.0481877079519229</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03468478383186248</v>
+        <v>0.03286360837817569</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04667110254448445</v>
+        <v>0.09478164046558177</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03183485636939141</v>
+        <v>0.03263299152163503</v>
       </c>
       <c r="L108" t="n">
-        <v>0.0878543864062013</v>
+        <v>0.1402970999301132</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03275531928876853</v>
+        <v>0.03265780416432319</v>
       </c>
       <c r="N108" t="n">
-        <v>0.131763217345843</v>
+        <v>0.0481877079519229</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03225120528010156</v>
+        <v>0.03286360837817569</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.09225971546004097</v>
+        <v>0.04891547206153686</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03549140671167323</v>
+        <v>0.03362787834045885</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04683749090858483</v>
+        <v>0.094535919039368</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03257520186635401</v>
+        <v>0.03339189830120794</v>
       </c>
       <c r="L109" t="n">
-        <v>0.08725427602786937</v>
+        <v>0.1403979168383425</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03351707090013525</v>
+        <v>0.03341728798209815</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1306004708571465</v>
+        <v>0.04891547206153686</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03300123330987136</v>
+        <v>0.03362787834045885</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.08878097431998105</v>
+        <v>0.04872453000747017</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03629802959148399</v>
+        <v>0.03439214830274201</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04609221800399702</v>
+        <v>0.09475956983267361</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0333155473633166</v>
+        <v>0.03415080508078085</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0862447611522171</v>
+        <v>0.141953597226897</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03427882251150196</v>
+        <v>0.03417677179987311</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1280998721647617</v>
+        <v>0.04872453000747017</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03375126133964117</v>
+        <v>0.03439214830274201</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.09230399925995181</v>
+        <v>0.04911513978856578</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03710465247129474</v>
+        <v>0.03515641826502516</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04564024950772995</v>
+        <v>0.09545334541245268</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03405589286027919</v>
+        <v>0.03490971186035376</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0857397127232141</v>
+        <v>0.1418654810506921</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03504057412286867</v>
+        <v>0.03493625561764807</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1271783124178</v>
+        <v>0.04911513978856578</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03450128936941097</v>
+        <v>0.03515641826502516</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.09283489506368725</v>
+        <v>0.04928755940366679</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0379112753511055</v>
+        <v>0.03592068822730832</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04548655109679259</v>
+        <v>0.09601799834565905</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03479623835724178</v>
+        <v>0.03566861863992666</v>
       </c>
       <c r="L112" t="n">
-        <v>0.08415300168482989</v>
+        <v>0.1416349082646439</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03580232573423538</v>
+        <v>0.03569573943542302</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1257526827653728</v>
+        <v>0.04928755940366679</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03525131739918077</v>
+        <v>0.03592068822730832</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.08937976651492147</v>
+        <v>0.04944204685161616</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03871789823091626</v>
+        <v>0.03668495818959147</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04513608844819383</v>
+        <v>0.0955542811992468</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03553658385420437</v>
+        <v>0.03642752541949957</v>
       </c>
       <c r="L113" t="n">
-        <v>0.08319849898103415</v>
+        <v>0.1427632188236683</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0365640773456021</v>
+        <v>0.03645522325319799</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1248398743565912</v>
+        <v>0.04944204685161616</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03600134542895057</v>
+        <v>0.03668495818959147</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.08394471839738855</v>
+        <v>0.04977886013125689</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03952452111072701</v>
+        <v>0.03744922815187463</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04489382723894267</v>
+        <v>0.09616294654016999</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03627692935116696</v>
+        <v>0.03718643219907248</v>
       </c>
       <c r="L114" t="n">
-        <v>0.08299007555579641</v>
+        <v>0.1431517526826809</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0373258289569688</v>
+        <v>0.03721470707097294</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1235567783405669</v>
+        <v>0.04977886013125689</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03675137345872038</v>
+        <v>0.03744922815187463</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.09153585549482246</v>
+        <v>0.049398257241432</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04033114399053777</v>
+        <v>0.03821349811415778</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04446473314604804</v>
+        <v>0.09664474693538244</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03701727484812955</v>
+        <v>0.03794533897864538</v>
       </c>
       <c r="L115" t="n">
-        <v>0.08224160235308628</v>
+        <v>0.1435018497965977</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03808758056833551</v>
+        <v>0.0379741908887479</v>
       </c>
       <c r="N115" t="n">
-        <v>0.122720285866411</v>
+        <v>0.049398257241432</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03750140148849018</v>
+        <v>0.03821349811415778</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.08315928259095738</v>
+        <v>0.04960049618098453</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04113776687034851</v>
+        <v>0.03897776807644094</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04405377184651887</v>
+        <v>0.09630043495183827</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03775762034509214</v>
+        <v>0.03870424575821829</v>
       </c>
       <c r="L116" t="n">
-        <v>0.08136695031687335</v>
+        <v>0.1428148501203345</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03884933217970222</v>
+        <v>0.03873367470652286</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1208472880832351</v>
+        <v>0.04960049618098453</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03825142951825999</v>
+        <v>0.03897776807644094</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.08782110446952729</v>
+        <v>0.04978583494875746</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04194438975015927</v>
+        <v>0.03974203803872409</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04396590901736409</v>
+        <v>0.09633076315649133</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03849796584205473</v>
+        <v>0.03946315253779119</v>
       </c>
       <c r="L117" t="n">
-        <v>0.08027999039112721</v>
+        <v>0.1440920936088071</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03961108379106893</v>
+        <v>0.03949315852429782</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1199546761401503</v>
+        <v>0.04978583494875746</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03900145754802979</v>
+        <v>0.03974203803872409</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.08352742591426628</v>
+        <v>0.04985453154359382</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04275101262997003</v>
+        <v>0.04050630800100725</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04360611033559268</v>
+        <v>0.09663648411629575</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03923831133901732</v>
+        <v>0.0402220593173641</v>
       </c>
       <c r="L118" t="n">
-        <v>0.08049459351981747</v>
+        <v>0.1432349202169315</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04037283540243564</v>
+        <v>0.04025264234207277</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1194593411862681</v>
+        <v>0.04985453154359382</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0397514855777996</v>
+        <v>0.04050630800100725</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.08328435170890837</v>
+        <v>0.04980684396433661</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04355763550978078</v>
+        <v>0.04127057796329041</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04327934147821356</v>
+        <v>0.09681835039820544</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03997865683597992</v>
+        <v>0.04098096609693701</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07982463064691367</v>
+        <v>0.1441446698996233</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04113458701380235</v>
+        <v>0.04101212615984773</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1178781743706999</v>
+        <v>0.04980684396433661</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04050151360756939</v>
+        <v>0.04127057796329041</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.08609798663718768</v>
+        <v>0.05004303020982882</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04436425838959154</v>
+        <v>0.04203484792557356</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04299056812223567</v>
+        <v>0.09707711456917437</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04071900233294251</v>
+        <v>0.04173987287650992</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07978397271638546</v>
+        <v>0.1433226826117985</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04189633862516906</v>
+        <v>0.04177160997762269</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1172280668425569</v>
+        <v>0.05004303020982882</v>
       </c>
       <c r="O120" t="n">
-        <v>0.0412515416373392</v>
+        <v>0.04203484792557356</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.08597443548283826</v>
+        <v>0.05026835115700695</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0451708812694023</v>
+        <v>0.04279911788785672</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04294475594466796</v>
+        <v>0.09742878529093185</v>
       </c>
       <c r="K121" t="n">
-        <v>0.0414593478299051</v>
+        <v>0.04249877965608283</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07968649067220238</v>
+        <v>0.1445892194248567</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04265809023653577</v>
+        <v>0.04253109379539764</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1161259097509505</v>
+        <v>0.05026835115700695</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04200156966710901</v>
+        <v>0.04279911788785672</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.08491980302959415</v>
+        <v>0.04976826638282961</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04597750414921305</v>
+        <v>0.04356338785013987</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04294687062251938</v>
+        <v>0.09722834684610596</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04219969332686769</v>
+        <v>0.04325768643565574</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07993480733724506</v>
+        <v>0.1439888569442625</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04341984184790248</v>
+        <v>0.04329057761317261</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1168885942449922</v>
+        <v>0.04976826638282961</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04275159769687881</v>
+        <v>0.04356338785013987</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.09195589303048071</v>
+        <v>0.04986520405165594</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04678412702902381</v>
+        <v>0.04432765781242303</v>
       </c>
       <c r="J123" t="n">
-        <v>0.04320187783279886</v>
+        <v>0.09701787490509056</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04294003882383028</v>
+        <v>0.04401659321522864</v>
       </c>
       <c r="L123" t="n">
-        <v>0.07981074054668394</v>
+        <v>0.1440805501257333</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04418159345926919</v>
+        <v>0.04405006143094756</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1160330114737932</v>
+        <v>0.04986520405165594</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04350162572664861</v>
+        <v>0.04432765781242303</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.09011619489338635</v>
+        <v>0.05005778805335931</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04759074990883456</v>
+        <v>0.04509192777470619</v>
       </c>
       <c r="J124" t="n">
-        <v>0.04301255305836978</v>
+        <v>0.09647377480783664</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04368038432079287</v>
+        <v>0.04477549999480155</v>
       </c>
       <c r="L124" t="n">
-        <v>0.08020462482646504</v>
+        <v>0.1443478428113653</v>
       </c>
       <c r="M124" t="n">
-        <v>0.0449433450706359</v>
+        <v>0.04480954524872252</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1158780957891502</v>
+        <v>0.05005778805335931</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04425165375641842</v>
+        <v>0.04509192777470619</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.08538988893889216</v>
+        <v>0.05024607850931471</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04839737278864532</v>
+        <v>0.04585619773698934</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04287359444708551</v>
+        <v>0.09659697155859734</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04442072981775546</v>
+        <v>0.04553440677437446</v>
       </c>
       <c r="L125" t="n">
-        <v>0.08060699649158831</v>
+        <v>0.1440913678749329</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04570509668200261</v>
+        <v>0.04556902906649748</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1158849015795593</v>
+        <v>0.05024607850931471</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04500168178618822</v>
+        <v>0.04585619773698934</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.08376442135146457</v>
+        <v>0.05013013554089717</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04920399566845607</v>
+        <v>0.04662046769927249</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04328119116549545</v>
+        <v>0.09628869130738454</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04516107531471805</v>
+        <v>0.04629331355394737</v>
       </c>
       <c r="L126" t="n">
-        <v>0.08100839185705375</v>
+        <v>0.1430117230388752</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04646684829336932</v>
+        <v>0.04632851288427244</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1171570905130949</v>
+        <v>0.05013013554089717</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04575170981595802</v>
+        <v>0.04662046769927249</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.08422723831556998</v>
+        <v>0.04991001926948169</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05001061854826683</v>
+        <v>0.04738473766155565</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0432317737438913</v>
+        <v>0.09685016020421031</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04590142081168064</v>
+        <v>0.04705222033352028</v>
       </c>
       <c r="L127" t="n">
-        <v>0.08189934723786135</v>
+        <v>0.1438095060256315</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04722859990473603</v>
+        <v>0.04708799670204739</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1177697936686135</v>
+        <v>0.04991001926948169</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04650173784572783</v>
+        <v>0.04738473766155565</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.08476578601567469</v>
+        <v>0.04968578981644327</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05081724142807759</v>
+        <v>0.0481490076238388</v>
       </c>
       <c r="J128" t="n">
-        <v>0.04342177271256467</v>
+        <v>0.09598260439908657</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04664176630864323</v>
+        <v>0.04781112711309318</v>
       </c>
       <c r="L128" t="n">
-        <v>0.08267039894901107</v>
+        <v>0.1437853145576407</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04799035151610274</v>
+        <v>0.04784748051982236</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1180981421249712</v>
+        <v>0.04968578981644327</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04725176587549763</v>
+        <v>0.0481490076238388</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.09436751063624521</v>
+        <v>0.04995750730315691</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05162386430788834</v>
+        <v>0.04891327758612196</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04354761860180723</v>
+        <v>0.09628725004202524</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04738211180560583</v>
+        <v>0.04857003389266609</v>
       </c>
       <c r="L129" t="n">
-        <v>0.08311208330550299</v>
+        <v>0.1431397463573419</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04875210312746945</v>
+        <v>0.04860696433759731</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1194172669610243</v>
+        <v>0.04995750730315691</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04800179390526743</v>
+        <v>0.04891327758612196</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.09401985836174781</v>
+        <v>0.05012523185099768</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0524304871876991</v>
+        <v>0.04967754754840512</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04420574194191063</v>
+        <v>0.09626532328303833</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04812245730256842</v>
+        <v>0.049328940672239</v>
       </c>
       <c r="L130" t="n">
-        <v>0.08401493662233697</v>
+        <v>0.1432733991471742</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04951385473883616</v>
+        <v>0.04936644815537226</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1209022992556292</v>
+        <v>0.05012523185099768</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04875182193503724</v>
+        <v>0.04967754754840512</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.09571027537664895</v>
+        <v>0.04968902358134054</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05323711006750984</v>
+        <v>0.05044181751068827</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04449257326316652</v>
+        <v>0.09561805027213777</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04886280279953101</v>
+        <v>0.05008784745181191</v>
       </c>
       <c r="L131" t="n">
-        <v>0.0847694952145131</v>
+        <v>0.1428868706495767</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05027560635020287</v>
+        <v>0.05012593197314723</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1225283700876422</v>
+        <v>0.04968902358134054</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04950184996480704</v>
+        <v>0.05044181751068827</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.08742620786541494</v>
+        <v>0.04984894261556048</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05404373294732061</v>
+        <v>0.05120608747297143</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04430454309586655</v>
+        <v>0.09524665715933547</v>
       </c>
       <c r="K132" t="n">
-        <v>0.0496031482964936</v>
+        <v>0.05084675423138482</v>
       </c>
       <c r="L132" t="n">
-        <v>0.08576629539703132</v>
+        <v>0.1423807585869885</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05103735796156959</v>
+        <v>0.05088541579092219</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1243706105359196</v>
+        <v>0.04984894261556048</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05025187799457684</v>
+        <v>0.05120608747297143</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0911551020125122</v>
+        <v>0.05000504907503257</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05485035582713136</v>
+        <v>0.05197035743525458</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04483808197030238</v>
+        <v>0.0954523700946435</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05034349379345619</v>
+        <v>0.05160566101095772</v>
       </c>
       <c r="L133" t="n">
-        <v>0.08659587348489167</v>
+        <v>0.1427556606818486</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0517991095729363</v>
+        <v>0.05164489960869714</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1256041516793176</v>
+        <v>0.05000504907503257</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05100190602434665</v>
+        <v>0.05197035743525458</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.0888844040024071</v>
+        <v>0.04955740308113177</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05565697870694212</v>
+        <v>0.05273462739753774</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04528962041676564</v>
+        <v>0.09483641522807376</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05108383929041878</v>
+        <v>0.05236456779053063</v>
       </c>
       <c r="L134" t="n">
-        <v>0.0872487657930941</v>
+        <v>0.1424121746565961</v>
       </c>
       <c r="M134" t="n">
-        <v>0.052560861184303</v>
+        <v>0.0524043834264721</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1273041245966925</v>
+        <v>0.04955740308113177</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05175193405411645</v>
+        <v>0.05273462739753774</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.09760156001956605</v>
+        <v>0.0499060647552331</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05646360158675287</v>
+        <v>0.05349889735982089</v>
       </c>
       <c r="J135" t="n">
-        <v>0.04555558896554801</v>
+        <v>0.09410001870963816</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05182418478738137</v>
+        <v>0.05312347457010354</v>
       </c>
       <c r="L135" t="n">
-        <v>0.08821550863663863</v>
+        <v>0.1419508982336701</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05332261279566972</v>
+        <v>0.05316386724424706</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1285456603669007</v>
+        <v>0.0499060647552331</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05250196208388626</v>
+        <v>0.05349889735982089</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.08929401624845545</v>
+        <v>0.04985109421871158</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05727022446656363</v>
+        <v>0.05426316732210405</v>
       </c>
       <c r="J136" t="n">
-        <v>0.04623241814694111</v>
+        <v>0.09414440668934873</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05256453028434396</v>
+        <v>0.05388238134967644</v>
       </c>
       <c r="L136" t="n">
-        <v>0.08928663833052519</v>
+        <v>0.1414724291355098</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05408436440703643</v>
+        <v>0.05392335106202201</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1301038900687984</v>
+        <v>0.04985109421871158</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05325199011365606</v>
+        <v>0.05426316732210405</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.0929492188735416</v>
+        <v>0.04959255159294222</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05807684734637438</v>
+        <v>0.05502743728438721</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04631653849123663</v>
+        <v>0.0935708053172174</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05330487578130656</v>
+        <v>0.05464128812924934</v>
       </c>
       <c r="L137" t="n">
-        <v>0.09035269118975384</v>
+        <v>0.1421773650845541</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05484611601840314</v>
+        <v>0.05468283487979697</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1328539447812419</v>
+        <v>0.04959255159294222</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05400201814342586</v>
+        <v>0.05502743728438721</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.09355461407929097</v>
+        <v>0.04963049699930003</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05888347022618514</v>
+        <v>0.05579170724667035</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04670438052872616</v>
+        <v>0.09318044074325615</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05404522127826915</v>
+        <v>0.05540019490882226</v>
       </c>
       <c r="L138" t="n">
-        <v>0.09100420352932456</v>
+        <v>0.1416663038032421</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05560786762976984</v>
+        <v>0.05544231869757194</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1335709555830875</v>
+        <v>0.04963049699930003</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05475204617319567</v>
+        <v>0.05579170724667035</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.1010976480501699</v>
+        <v>0.04966499055916002</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05969009310599589</v>
+        <v>0.05655597720895351</v>
       </c>
       <c r="J139" t="n">
-        <v>0.04709237478970141</v>
+        <v>0.09287453911747692</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05478556677523173</v>
+        <v>0.05615910168839516</v>
       </c>
       <c r="L139" t="n">
-        <v>0.09173171166423733</v>
+        <v>0.141439843014013</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05636961924113655</v>
+        <v>0.05620180251534689</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1359300535531914</v>
+        <v>0.04966499055916002</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05550207420296547</v>
+        <v>0.05655597720895351</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.0945657669706447</v>
+        <v>0.04949609239389717</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06049671598580664</v>
+        <v>0.05732024717123668</v>
       </c>
       <c r="J140" t="n">
-        <v>0.047276951804454</v>
+        <v>0.09275432658989163</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05552591227219433</v>
+        <v>0.05691800846796807</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0931257519094921</v>
+        <v>0.1408985804393058</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05713137085250326</v>
+        <v>0.05696128633312185</v>
       </c>
       <c r="N140" t="n">
-        <v>0.13770636977041</v>
+        <v>0.04949609239389717</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05625210223273527</v>
+        <v>0.05732024717123668</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.1019580665825554</v>
+        <v>0.04922386262488654</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0613033388656174</v>
+        <v>0.05808451713351983</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04795454210327559</v>
+        <v>0.09222102931051226</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05626625776915692</v>
+        <v>0.05767691524754098</v>
       </c>
       <c r="L141" t="n">
-        <v>0.09357686058008896</v>
+        <v>0.1406431138015596</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05789312246386998</v>
+        <v>0.05772077015089681</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1389750353135997</v>
+        <v>0.04922386262488654</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05700213026250509</v>
+        <v>0.05808451713351983</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.1022759242413897</v>
+        <v>0.0490483613735031</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06210996174542815</v>
+        <v>0.05884878709580299</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04852157621645783</v>
+        <v>0.09127587342935084</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05700660326611951</v>
+        <v>0.05843582202711389</v>
       </c>
       <c r="L142" t="n">
-        <v>0.09457557399102781</v>
+        <v>0.1391740408232133</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05865487407523669</v>
+        <v>0.05848025396867176</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1405111812616166</v>
+        <v>0.0490483613735031</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05775215829227488</v>
+        <v>0.05884878709580299</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.09860553164113295</v>
+        <v>0.04926964876112187</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06291658462523891</v>
+        <v>0.05961305705808614</v>
       </c>
       <c r="J143" t="n">
-        <v>0.04887448467429238</v>
+        <v>0.09132008509641923</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0577469487630821</v>
+        <v>0.0591947288066868</v>
       </c>
       <c r="L143" t="n">
-        <v>0.09551242845730867</v>
+        <v>0.1394919592267064</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0594166256866034</v>
+        <v>0.05923973778644673</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1418899386933172</v>
+        <v>0.04926964876112187</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05850218632204469</v>
+        <v>0.05961305705808614</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.09993474487966472</v>
+        <v>0.04898778490911787</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06372320750504967</v>
+        <v>0.0603773270203693</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04900969800707089</v>
+        <v>0.09095489046172944</v>
       </c>
       <c r="K144" t="n">
-        <v>0.0584872942600447</v>
+        <v>0.05995363558625971</v>
       </c>
       <c r="L144" t="n">
-        <v>0.09597796029393152</v>
+        <v>0.1393974667344776</v>
       </c>
       <c r="M144" t="n">
-        <v>0.0601783772979701</v>
+        <v>0.05999922160422168</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1421864386875575</v>
+        <v>0.04898778490911787</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05925221435181448</v>
+        <v>0.0603773270203693</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.103263007031506</v>
+        <v>0.0487028299388661</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06452983038486043</v>
+        <v>0.06114159698265245</v>
       </c>
       <c r="J145" t="n">
-        <v>0.04922364674508499</v>
+        <v>0.09008151567529341</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05922763975700729</v>
+        <v>0.06071254236583262</v>
       </c>
       <c r="L145" t="n">
-        <v>0.09686270581589643</v>
+        <v>0.1383911610689661</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06094012890933681</v>
+        <v>0.06075870542199664</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1426758123231941</v>
+        <v>0.0487028299388661</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0600022423815843</v>
+        <v>0.06114159698265245</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0965897611711776</v>
+        <v>0.04911484397174157</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06533645326467118</v>
+        <v>0.06190586694493561</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04971276141862634</v>
+        <v>0.09020118688712311</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05996798525396987</v>
+        <v>0.06147144914540552</v>
       </c>
       <c r="L146" t="n">
-        <v>0.09742878529093185</v>
+        <v>0.137573639952611</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06170188052070352</v>
+        <v>0.06151818923977159</v>
       </c>
       <c r="N146" t="n">
-        <v>0.143633190679083</v>
+        <v>0.04911484397174157</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06075227041135409</v>
+        <v>0.06190586694493561</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.1039144503732006</v>
+        <v>0.0486238871291193</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06614307614448194</v>
+        <v>0.06267013690721876</v>
       </c>
       <c r="J147" t="n">
-        <v>0.04957347255798661</v>
+        <v>0.0894151302472305</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06070833075093246</v>
+        <v>0.06223035592497844</v>
       </c>
       <c r="L147" t="n">
-        <v>0.09776877118487681</v>
+        <v>0.1378455011078514</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06246363213207023</v>
+        <v>0.06227767305754656</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1445892194248567</v>
+        <v>0.0486238871291193</v>
       </c>
       <c r="O147" t="n">
-        <v>0.0615022984411239</v>
+        <v>0.06267013690721876</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.1002365177120958</v>
+        <v>0.04883001953237429</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06694969902429269</v>
+        <v>0.06343440686950191</v>
       </c>
       <c r="J148" t="n">
-        <v>0.05026835115700695</v>
+        <v>0.08932457190562751</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06144867624789505</v>
+        <v>0.06298926270455134</v>
       </c>
       <c r="L148" t="n">
-        <v>0.09817293654011519</v>
+        <v>0.1377073422571264</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06322538374343695</v>
+        <v>0.06303715687532152</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1436627029507776</v>
+        <v>0.04883001953237429</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06225232647089371</v>
+        <v>0.06343440686950191</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.1045554062623843</v>
+        <v>0.04833330130288155</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06775632190410344</v>
+        <v>0.06419867683178508</v>
       </c>
       <c r="J149" t="n">
-        <v>0.05012377201847931</v>
+        <v>0.08843073801232609</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06218902174485765</v>
+        <v>0.06374816948412425</v>
       </c>
       <c r="L149" t="n">
-        <v>0.0989806264369692</v>
+        <v>0.136259761122875</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06398713535480366</v>
+        <v>0.06379664069309647</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1440771840672093</v>
+        <v>0.04833330130288155</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06300235450066351</v>
+        <v>0.06419867683178508</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.09687055909858697</v>
+        <v>0.0482337925620161</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0685629447839142</v>
+        <v>0.06496294679406824</v>
       </c>
       <c r="J150" t="n">
-        <v>0.05074993763970129</v>
+        <v>0.08763485471733826</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06292936724182024</v>
+        <v>0.06450707626369716</v>
       </c>
       <c r="L150" t="n">
-        <v>0.09889060443241179</v>
+        <v>0.1357033554275363</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06474888696617036</v>
+        <v>0.06455612451087142</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1441837501341595</v>
+        <v>0.0482337925620161</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06375238253043332</v>
+        <v>0.06496294679406824</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0991814192952247</v>
+        <v>0.04813155343115294</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06936956766372496</v>
+        <v>0.06572721675635139</v>
       </c>
       <c r="J151" t="n">
-        <v>0.05078014848327245</v>
+        <v>0.08733814817067595</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06366971273878283</v>
+        <v>0.06526598304327007</v>
       </c>
       <c r="L151" t="n">
-        <v>0.09980163408341602</v>
+        <v>0.1361387228935494</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06551063857753707</v>
+        <v>0.06531560832864639</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1452819975312541</v>
+        <v>0.04813155343115294</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06450241056020312</v>
+        <v>0.06572721675635139</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.1044874299268185</v>
+        <v>0.04822664403166707</v>
       </c>
       <c r="G152" t="n">
-        <v>0.07017619054353572</v>
+        <v>0.06649148671863454</v>
       </c>
       <c r="J152" t="n">
-        <v>0.05091332800082195</v>
+        <v>0.08674184452235112</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06441005823574542</v>
+        <v>0.06602488982284296</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1003124789469549</v>
+        <v>0.1348664612433533</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06627239018890378</v>
+        <v>0.06607509214642135</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1456715226381191</v>
+        <v>0.04822664403166707</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06525243858997291</v>
+        <v>0.06649148671863454</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.09878803406788936</v>
+        <v>0.04811912448493352</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07098281342334646</v>
+        <v>0.0672557566809177</v>
       </c>
       <c r="J153" t="n">
-        <v>0.051348399643979</v>
+        <v>0.0863471699223757</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06515040373270801</v>
+        <v>0.06678379660241589</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1005219025800016</v>
+        <v>0.1350871681993873</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06703414180027049</v>
+        <v>0.0668345759641963</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1457519218343804</v>
+        <v>0.04811912448493352</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06600246661974273</v>
+        <v>0.0672557566809177</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.09908267479295807</v>
+        <v>0.04800905491232728</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07178943630315722</v>
+        <v>0.06802002664320085</v>
       </c>
       <c r="J154" t="n">
-        <v>0.05118428686437278</v>
+        <v>0.08575535052076166</v>
       </c>
       <c r="K154" t="n">
-        <v>0.0658907492296706</v>
+        <v>0.06754270338198878</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1009286685395288</v>
+        <v>0.1350014414840903</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06779589341163721</v>
+        <v>0.06759405978197126</v>
       </c>
       <c r="N154" t="n">
-        <v>0.145222791499664</v>
+        <v>0.04800905491232728</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06675249464951252</v>
+        <v>0.06802002664320085</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.1053707951765457</v>
+        <v>0.04779649543522337</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07259605918296798</v>
+        <v>0.06878429660548402</v>
       </c>
       <c r="J155" t="n">
-        <v>0.05191991311363249</v>
+        <v>0.08526761246752099</v>
       </c>
       <c r="K155" t="n">
-        <v>0.0666310947266332</v>
+        <v>0.06830161016156169</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1022315403825099</v>
+        <v>0.1337098788199014</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06855764502300392</v>
+        <v>0.06835354359974621</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1458837280135959</v>
+        <v>0.04779649543522337</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06750252267928233</v>
+        <v>0.06878429660548402</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.1036518382931732</v>
+        <v>0.04768150617499679</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07340268206277874</v>
+        <v>0.06954856656776716</v>
       </c>
       <c r="J156" t="n">
-        <v>0.0521542018433873</v>
+        <v>0.08518518191266555</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06737144022359579</v>
+        <v>0.06906051694113459</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1022292816659177</v>
+        <v>0.1338130779292597</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06931939663437063</v>
+        <v>0.06911302741752118</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1454343277558021</v>
+        <v>0.04768150617499679</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06825255070905213</v>
+        <v>0.06954856656776716</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.0999252472173614</v>
+        <v>0.04786414725302257</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07420930494258948</v>
+        <v>0.07031283653005031</v>
       </c>
       <c r="J157" t="n">
-        <v>0.05218607650526638</v>
+        <v>0.08440928500620745</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06811178572055838</v>
+        <v>0.06981942372070751</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1027206559467252</v>
+        <v>0.1335116365346043</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07008114824573734</v>
+        <v>0.06987251123529614</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1462741871059086</v>
+        <v>0.04786414725302257</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06900257873882194</v>
+        <v>0.07031283653005031</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.1031904650236313</v>
+        <v>0.04764447879067571</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07501592782240024</v>
+        <v>0.07107710649233348</v>
       </c>
       <c r="J158" t="n">
-        <v>0.05211446055089899</v>
+        <v>0.08424114789815851</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06885213121752096</v>
+        <v>0.07057833050028041</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1031044267819055</v>
+        <v>0.1324061523583741</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07084289985710406</v>
+        <v>0.07063199505307109</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1463029024435412</v>
+        <v>0.04764447879067571</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06975260676859174</v>
+        <v>0.07107710649233348</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.1064469347865039</v>
+        <v>0.04762256090933122</v>
       </c>
       <c r="G159" t="n">
-        <v>0.075822550702211</v>
+        <v>0.07184137645461663</v>
       </c>
       <c r="J159" t="n">
-        <v>0.05273827743191427</v>
+        <v>0.0831819967385308</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06959247671448356</v>
+        <v>0.07133723727985332</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1036793577284317</v>
+        <v>0.1313972231230085</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07160465146847077</v>
+        <v>0.07139147887084604</v>
       </c>
       <c r="N159" t="n">
-        <v>0.146120070148326</v>
+        <v>0.04762256090933122</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07050263479836154</v>
+        <v>0.07184137645461663</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.1056940995805001</v>
+        <v>0.0470984537303641</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07662917358202175</v>
+        <v>0.07260564641689977</v>
       </c>
       <c r="J160" t="n">
-        <v>0.05255645059994141</v>
+        <v>0.08263305767733617</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07033282221144614</v>
+        <v>0.07209614405942623</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1039442123432767</v>
+        <v>0.1315854465509464</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07236640307983748</v>
+        <v>0.07215096268862102</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1456252865998889</v>
+        <v>0.0470984537303641</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07125266282813135</v>
+        <v>0.07260564641689977</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.1019314024801408</v>
+        <v>0.04737221737514936</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07743579646183252</v>
+        <v>0.07336991637918294</v>
       </c>
       <c r="J161" t="n">
-        <v>0.0529679035066096</v>
+        <v>0.08249555686458668</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07107316770840874</v>
+        <v>0.07285505083899914</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1041977541834135</v>
+        <v>0.1316360001534985</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07312815469120419</v>
+        <v>0.07291044650639597</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1458181481778559</v>
+        <v>0.04737221737514936</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07200269085790115</v>
+        <v>0.07336991637918294</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.1051582865599469</v>
+        <v>0.04724391196506203</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07824241934164326</v>
+        <v>0.0741341863414661</v>
       </c>
       <c r="J162" t="n">
-        <v>0.05347155960354802</v>
+        <v>0.08256979298964215</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07181351320537133</v>
+        <v>0.07361395761857203</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1050387468058153</v>
+        <v>0.1304087667164427</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07388990630257089</v>
+        <v>0.07366993032417092</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1466982512618531</v>
+        <v>0.04724391196506203</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07275271888767096</v>
+        <v>0.0741341863414661</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.1063741948944396</v>
+        <v>0.04721359762147712</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07904904222145402</v>
+        <v>0.07489845630374925</v>
       </c>
       <c r="J163" t="n">
-        <v>0.05326634234238589</v>
+        <v>0.08144374864854406</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07255385870233393</v>
+        <v>0.07437286439814496</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1059659537674549</v>
+        <v>0.12920787747597</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0746516579139376</v>
+        <v>0.07442941414194588</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1467651922315064</v>
+        <v>0.04721359762147712</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07350274691744076</v>
+        <v>0.07489845630374925</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1065785705581395</v>
+        <v>0.0468813344657696</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07985566510126478</v>
+        <v>0.07566272626603242</v>
       </c>
       <c r="J164" t="n">
-        <v>0.05355117517475239</v>
+        <v>0.08111343853233471</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07329420419929651</v>
+        <v>0.07513177117771785</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1063781386253056</v>
+        <v>0.1293375644031288</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07541340952530431</v>
+        <v>0.07518889795972084</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1463185674664417</v>
+        <v>0.0468813344657696</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07425277494721057</v>
+        <v>0.07566272626603242</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.1047708566255678</v>
+        <v>0.04674718261931451</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08066228798107554</v>
+        <v>0.07642699622831556</v>
       </c>
       <c r="J165" t="n">
-        <v>0.05392498155227664</v>
+        <v>0.08047892846935911</v>
       </c>
       <c r="K165" t="n">
-        <v>0.0740345496962591</v>
+        <v>0.07589067795729076</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1061740649363401</v>
+        <v>0.1279020594689676</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07617516113667103</v>
+        <v>0.0759483817774958</v>
       </c>
       <c r="N165" t="n">
-        <v>0.146957973346285</v>
+        <v>0.04674718261931451</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07500280297698037</v>
+        <v>0.07642699622831556</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.1089504961712453</v>
+        <v>0.04641120220348686</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08146891086088628</v>
+        <v>0.07719126619059873</v>
       </c>
       <c r="J166" t="n">
-        <v>0.05408668492658793</v>
+        <v>0.08024028428796229</v>
       </c>
       <c r="K166" t="n">
-        <v>0.0747748951932217</v>
+        <v>0.07664958473686367</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1063524962575316</v>
+        <v>0.1272055946445349</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07693691274803774</v>
+        <v>0.07670786559527076</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1469830062506623</v>
+        <v>0.04641120220348686</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07575283100675016</v>
+        <v>0.07719126619059873</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.106116932269693</v>
+        <v>0.04667345333966166</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08227553374069703</v>
+        <v>0.07795553615288188</v>
       </c>
       <c r="J167" t="n">
-        <v>0.05433520874931541</v>
+        <v>0.07969757181648929</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07551524069018428</v>
+        <v>0.07740849151643658</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1072121961458531</v>
+        <v>0.1257524019008791</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07769866435940444</v>
+        <v>0.07746734941304571</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1468932625591995</v>
+        <v>0.04667345333966166</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07650285903651997</v>
+        <v>0.07795553615288188</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.09926960799543177</v>
+        <v>0.04632920796309242</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0830821566205078</v>
+        <v>0.07871980611516503</v>
       </c>
       <c r="J168" t="n">
-        <v>0.05406947647208826</v>
+        <v>0.07985085688328508</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07625558618714688</v>
+        <v>0.07816739829600949</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1072519281582777</v>
+        <v>0.1255467132090486</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07846041597077115</v>
+        <v>0.07822683323082066</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1468807962866464</v>
+        <v>0.04632920796309242</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07725288706628977</v>
+        <v>0.07871980611516503</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.1084079664229827</v>
+        <v>0.04614604845872573</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08388877950031855</v>
+        <v>0.07948407607744819</v>
       </c>
       <c r="J169" t="n">
-        <v>0.05418841154653566</v>
+        <v>0.07920020531669478</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07699593168410947</v>
+        <v>0.07892630507558239</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1081704558517783</v>
+        <v>0.123892760540092</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07922216758213786</v>
+        <v>0.07898631704859564</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1467315160987008</v>
+        <v>0.04614604845872573</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07800291509605958</v>
+        <v>0.07948407607744819</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1095314506268666</v>
+        <v>0.04562074723897337</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08469540238012931</v>
+        <v>0.08024834603973134</v>
       </c>
       <c r="J170" t="n">
-        <v>0.05439093742428683</v>
+        <v>0.07874568294506332</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07773627718107207</v>
+        <v>0.07968521185515531</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1077665427833279</v>
+        <v>0.1222947758650577</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07998391919350457</v>
+        <v>0.07974580086637059</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1463461382978545</v>
+        <v>0.04562074723897337</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07875294312582939</v>
+        <v>0.08024834603973134</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1006395036816045</v>
+        <v>0.04575677393908074</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08550202525994006</v>
+        <v>0.0810126160020145</v>
       </c>
       <c r="J171" t="n">
-        <v>0.05467597755697091</v>
+        <v>0.07858735559673583</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07847662267803464</v>
+        <v>0.08044411863472821</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1079389525098996</v>
+        <v>0.1225569911549941</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08074567080487129</v>
+        <v>0.08050528468414554</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1463257488564894</v>
+        <v>0.04575677393908074</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07950297115559919</v>
+        <v>0.0810126160020145</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.1067315686617173</v>
+        <v>0.04545759819429332</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08630864813975082</v>
+        <v>0.08177688596429766</v>
       </c>
       <c r="J172" t="n">
-        <v>0.05484245539621715</v>
+        <v>0.07782528910005723</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07921696817499724</v>
+        <v>0.08120302541430112</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1089864485884664</v>
+        <v>0.1211836383809498</v>
       </c>
       <c r="M172" t="n">
-        <v>0.081507422416238</v>
+        <v>0.08126476850192051</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1466714337469879</v>
+        <v>0.04545759819429332</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08025299918536899</v>
+        <v>0.08177688596429766</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1088070886417259</v>
+        <v>0.0448266896398565</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08711527101956157</v>
+        <v>0.08254115592658082</v>
       </c>
       <c r="J173" t="n">
-        <v>0.05468929439365468</v>
+        <v>0.07705954928337264</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07995731367195984</v>
+        <v>0.08196193219387403</v>
       </c>
       <c r="L173" t="n">
-        <v>0.1089077945760014</v>
+        <v>0.1191789495139731</v>
       </c>
       <c r="M173" t="n">
-        <v>0.0822691740276047</v>
+        <v>0.08202425231969546</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1464842789417322</v>
+        <v>0.0448266896398565</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08100302721513879</v>
+        <v>0.08254115592658082</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1048655066961513</v>
+        <v>0.0446675179110157</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08792189389937233</v>
+        <v>0.08330542588886396</v>
       </c>
       <c r="J174" t="n">
-        <v>0.05491541800091275</v>
+        <v>0.07689020197502699</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08069765916892242</v>
+        <v>0.08272083897344694</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1090017540294775</v>
+        <v>0.1185471565251125</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08303092563897141</v>
+        <v>0.08278373613747042</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1459653704131045</v>
+        <v>0.0446675179110157</v>
       </c>
       <c r="O174" t="n">
-        <v>0.0817530552449086</v>
+        <v>0.08330542588886396</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.09990626589951443</v>
+        <v>0.04428355264301641</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08872851677918309</v>
+        <v>0.08406969585114712</v>
       </c>
       <c r="J175" t="n">
-        <v>0.05441888878180769</v>
+        <v>0.07611731300336538</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08143800466588502</v>
+        <v>0.08347974575301984</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1088670905058678</v>
+        <v>0.1168924913854165</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08379267725033812</v>
+        <v>0.08354321995524538</v>
       </c>
       <c r="N175" t="n">
-        <v>0.145115794133487</v>
+        <v>0.04428355264301641</v>
       </c>
       <c r="O175" t="n">
-        <v>0.0825030832746784</v>
+        <v>0.08406969585114712</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1079288093263362</v>
+        <v>0.04407826347110395</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08953513965899383</v>
+        <v>0.08483396581343028</v>
       </c>
       <c r="J176" t="n">
-        <v>0.05468640817289375</v>
+        <v>0.07594094819673286</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08217835016284761</v>
+        <v>0.08423865253259276</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1093025675621452</v>
+        <v>0.1158191860659336</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08455442886170483</v>
+        <v>0.08430270377302033</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1448366360752618</v>
+        <v>0.04407826347110395</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08325311130444821</v>
+        <v>0.08483396581343028</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.109927328860312</v>
+        <v>0.04365512003052384</v>
       </c>
       <c r="G177" t="n">
-        <v>0.09034176253880459</v>
+        <v>0.08559823577571343</v>
       </c>
       <c r="J177" t="n">
-        <v>0.05481554182631397</v>
+        <v>0.0755611733834744</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08291869565981019</v>
+        <v>0.08499755931216565</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1090069487552829</v>
+        <v>0.1139314725377121</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08531618047307155</v>
+        <v>0.08506218759079529</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1447289822108113</v>
+        <v>0.04365512003052384</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08400313933421802</v>
+        <v>0.08559823577571343</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.1028223834545735</v>
+        <v>0.04301759195652143</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09114838541861535</v>
+        <v>0.08636250573799659</v>
       </c>
       <c r="J178" t="n">
-        <v>0.05470860142932224</v>
+        <v>0.07517805439193503</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08365904115677278</v>
+        <v>0.08575646609173856</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1095789976422539</v>
+        <v>0.1136335827718006</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08607793208443826</v>
+        <v>0.08582167140857026</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1445939185125175</v>
+        <v>0.04301759195652143</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08475316736398782</v>
+        <v>0.08636250573799659</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1055957852778777</v>
+        <v>0.0425691488843422</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09195500829842611</v>
+        <v>0.08712677570027974</v>
       </c>
       <c r="J179" t="n">
-        <v>0.05426789866917248</v>
+        <v>0.07399165705045979</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08439938665373538</v>
+        <v>0.08651537287131147</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1090174777800312</v>
+        <v>0.1125297487392475</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08683968369580496</v>
+        <v>0.08658115522634521</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1447325309527627</v>
+        <v>0.0425691488843422</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08550319539375761</v>
+        <v>0.08712677570027974</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1042584855471143</v>
+        <v>0.04221326044923157</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09276163117823685</v>
+        <v>0.08789104566256289</v>
       </c>
       <c r="J180" t="n">
-        <v>0.05399574523311865</v>
+        <v>0.07380204718739375</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08513973215069796</v>
+        <v>0.08727427965088438</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1090107744290019</v>
+        <v>0.1105242024111014</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08760143530717167</v>
+        <v>0.08734063904412016</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1438459055039291</v>
+        <v>0.04221326044923157</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08625322342352741</v>
+        <v>0.08789104566256289</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.09982143547917249</v>
+        <v>0.04175339628643493</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09356825405804763</v>
+        <v>0.08865531562484606</v>
       </c>
       <c r="J181" t="n">
-        <v>0.05419445280841466</v>
+        <v>0.07390929063108184</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08588007764766056</v>
+        <v>0.08803318643045728</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1092635777855528</v>
+        <v>0.1099211757584105</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08836318691853838</v>
+        <v>0.08810012286189513</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1437351281383988</v>
+        <v>0.04175339628643493</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08700325145329722</v>
+        <v>0.08865531562484606</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.1012955862909418</v>
+        <v>0.04089302603119777</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09437487693785837</v>
+        <v>0.0894195855871292</v>
       </c>
       <c r="J182" t="n">
-        <v>0.05376633308231445</v>
+        <v>0.0726134532098692</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08662042314462315</v>
+        <v>0.0887920932100302</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1085625724153604</v>
+        <v>0.1073249007522233</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08912493852990509</v>
+        <v>0.08885960667967009</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1426012848285542</v>
+        <v>0.04089302603119777</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08775327948306703</v>
+        <v>0.0894195855871292</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1026918891993117</v>
+        <v>0.04083561931876543</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09518149981766913</v>
+        <v>0.09018385554941237</v>
       </c>
       <c r="J183" t="n">
-        <v>0.05331369774207197</v>
+        <v>0.07211460075210074</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08736076864158575</v>
+        <v>0.0895509999896031</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1088195879097155</v>
+        <v>0.1061396093635886</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08988669014127181</v>
+        <v>0.08961909049744504</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1422454615467773</v>
+        <v>0.04083561931876543</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08850330751283683</v>
+        <v>0.09018385554941237</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1050212954211715</v>
+        <v>0.04048464578438341</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09598812269747987</v>
+        <v>0.09094812551169552</v>
       </c>
       <c r="J184" t="n">
-        <v>0.05333885847494114</v>
+        <v>0.07201279908612157</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08810111413854833</v>
+        <v>0.09030990676917601</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1083464538599088</v>
+        <v>0.1050695335635545</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09064844175263852</v>
+        <v>0.09037857431522001</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1422687442654505</v>
+        <v>0.04048464578438341</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08925333554260664</v>
+        <v>0.09094812551169552</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.1042947561734107</v>
+        <v>0.03964357506329708</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09679474557729063</v>
+        <v>0.09171239547397868</v>
       </c>
       <c r="J185" t="n">
-        <v>0.05294412696817587</v>
+        <v>0.07140811404027672</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08884145963551092</v>
+        <v>0.09106881354874892</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1070549998572309</v>
+        <v>0.1038189053231696</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09141019336400522</v>
+        <v>0.09113805813299496</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1411722189569559</v>
+        <v>0.03964357506329708</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09000336357237644</v>
+        <v>0.09171239547397868</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1005232226729187</v>
+        <v>0.03931587679075192</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09760136845710139</v>
+        <v>0.09247666543626183</v>
       </c>
       <c r="J186" t="n">
-        <v>0.05253181490903014</v>
+        <v>0.07140061144291118</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08958180513247352</v>
+        <v>0.09182772032832183</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1064570554929729</v>
+        <v>0.1027919566134822</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09217194497537193</v>
+        <v>0.09189754195076991</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1402569715936756</v>
+        <v>0.03931587679075192</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09075339160214624</v>
+        <v>0.09247666543626183</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1007176461365848</v>
+        <v>0.0390050206019933</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09840799133691214</v>
+        <v>0.09324093539854499</v>
       </c>
       <c r="J187" t="n">
-        <v>0.05200423398475786</v>
+        <v>0.07049035712236995</v>
       </c>
       <c r="K187" t="n">
-        <v>0.0903221506294361</v>
+        <v>0.09258662710789474</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1052644503584254</v>
+        <v>0.102092919405541</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09293369658673864</v>
+        <v>0.09265702576854488</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1405240881479919</v>
+        <v>0.0390050206019933</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09150341963191604</v>
+        <v>0.09324093539854499</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.09588897778129865</v>
+        <v>0.0388144761322667</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09921461421672291</v>
+        <v>0.09400520536082814</v>
       </c>
       <c r="J188" t="n">
-        <v>0.05216369588261292</v>
+        <v>0.07037741690699814</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0910624961263987</v>
+        <v>0.09334553388746764</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1042890140448791</v>
+        <v>0.1002260256703944</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09369544819810535</v>
+        <v>0.09341650958631983</v>
       </c>
       <c r="N188" t="n">
-        <v>0.140374654592287</v>
+        <v>0.0388144761322667</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09225344766168585</v>
+        <v>0.09400520536082814</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.09404816882394951</v>
+        <v>0.03844771301681749</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1000212370965337</v>
+        <v>0.09476947532311131</v>
       </c>
       <c r="J189" t="n">
-        <v>0.05161251228984931</v>
+        <v>0.06936185662514072</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09180284162336129</v>
+        <v>0.09410444066704056</v>
       </c>
       <c r="L189" t="n">
-        <v>0.103742576143625</v>
+        <v>0.0999955073790908</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09445719980947206</v>
+        <v>0.09417599340409478</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1389097568989432</v>
+        <v>0.03844771301681749</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09300347569145566</v>
+        <v>0.09476947532311131</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.09520617048142685</v>
+        <v>0.03790820089089111</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1008278599763444</v>
+        <v>0.09553374528539446</v>
       </c>
       <c r="J190" t="n">
-        <v>0.05105299489372098</v>
+        <v>0.06854374210514275</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09254318712032387</v>
+        <v>0.09486334744661346</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1027369662459537</v>
+        <v>0.09760559650267853</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09521895142083878</v>
+        <v>0.09493547722186975</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1381304810403425</v>
+        <v>0.03790820089089111</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09375350372122546</v>
+        <v>0.09553374528539446</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.09237393397062008</v>
+        <v>0.03749940938973305</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1016344828561552</v>
+        <v>0.0962980152476776</v>
       </c>
       <c r="J191" t="n">
-        <v>0.05068745538148178</v>
+        <v>0.06852313917534919</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09328353261728646</v>
+        <v>0.09562225422618637</v>
       </c>
       <c r="L191" t="n">
-        <v>0.100884013943156</v>
+        <v>0.09766052501220623</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09598070303220547</v>
+        <v>0.09569496103964471</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1376379129888673</v>
+        <v>0.03749940938973305</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09450353175099527</v>
+        <v>0.0962980152476776</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0935624105084186</v>
+        <v>0.03702480814858865</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1024411057359659</v>
+        <v>0.09706228520996077</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0505182054403857</v>
+        <v>0.06750011366410513</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09402387811424906</v>
+        <v>0.09638116100575927</v>
       </c>
       <c r="L192" t="n">
-        <v>0.09969554882652271</v>
+        <v>0.09556452487872236</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09674245464357219</v>
+        <v>0.09645444485741966</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1374331387168995</v>
+        <v>0.03702480814858865</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09525355978076507</v>
+        <v>0.09706228520996077</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.09678255131171193</v>
+        <v>0.03678786680270336</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1032477286157767</v>
+        <v>0.09782655517224392</v>
       </c>
       <c r="J193" t="n">
-        <v>0.05034755675768667</v>
+        <v>0.06727473139975559</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09476422361121166</v>
+        <v>0.09714006778533218</v>
       </c>
       <c r="L193" t="n">
-        <v>0.09848340048734458</v>
+        <v>0.09570154497986905</v>
       </c>
       <c r="M193" t="n">
-        <v>0.0975042062549389</v>
+        <v>0.09721392867519463</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1375172441968218</v>
+        <v>0.03678786680270336</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09600358781053486</v>
+        <v>0.09782655517224392</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.08904530759738935</v>
+        <v>0.03688852042195953</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1040543514955874</v>
+        <v>0.09859082513452708</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04967782102063861</v>
+        <v>0.0670470582106456</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09550456910817424</v>
+        <v>0.09789897456490508</v>
       </c>
       <c r="L194" t="n">
-        <v>0.0979593985169124</v>
+        <v>0.09483714035116547</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09826595786630561</v>
+        <v>0.09797341249296958</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1359913154010159</v>
+        <v>0.03688852042195953</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09675361584030467</v>
+        <v>0.09859082513452708</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.08936163058234037</v>
+        <v>0.03680190657999717</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1048609743753982</v>
+        <v>0.09935509509681024</v>
       </c>
       <c r="J195" t="n">
-        <v>0.04921130991649546</v>
+        <v>0.06641715992512018</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09624491460513684</v>
+        <v>0.098657881344478</v>
       </c>
       <c r="L195" t="n">
-        <v>0.09613537250651691</v>
+        <v>0.09367212823710508</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09902770947767232</v>
+        <v>0.09873289631074453</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1356564383018643</v>
+        <v>0.03680190657999717</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09750364387007447</v>
+        <v>0.09935509509681024</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.08874247148345438</v>
+        <v>0.03632227000867651</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1056675972552089</v>
+        <v>0.1001193650590934</v>
       </c>
       <c r="J196" t="n">
-        <v>0.04895033513251115</v>
+        <v>0.06528510237152432</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09698526010209943</v>
+        <v>0.0994167881240509</v>
       </c>
       <c r="L196" t="n">
-        <v>0.0948231520474489</v>
+        <v>0.09260811462568624</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09978946108903904</v>
+        <v>0.09949238012851951</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1355136988717491</v>
+        <v>0.03632227000867651</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09825367189984428</v>
+        <v>0.1001193650590934</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.09419878151762082</v>
+        <v>0.03604929336426461</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1064742201350197</v>
+        <v>0.1008836350213765</v>
       </c>
       <c r="J197" t="n">
-        <v>0.04839720835593961</v>
+        <v>0.06475095137820308</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09772560559906202</v>
+        <v>0.1001756949036238</v>
       </c>
       <c r="L197" t="n">
-        <v>0.09373456673099917</v>
+        <v>0.09124670550490749</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1005512127004057</v>
+        <v>0.1002518639462945</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1347641830830525</v>
+        <v>0.03604929336426461</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09900369992961408</v>
+        <v>0.1008836350213765</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.09474151190172908</v>
+        <v>0.03598265930302848</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1072808430148305</v>
+        <v>0.1016479049836597</v>
       </c>
       <c r="J198" t="n">
-        <v>0.04815424127403477</v>
+        <v>0.06491477277350152</v>
       </c>
       <c r="K198" t="n">
-        <v>0.0984659510960246</v>
+        <v>0.1009346016831967</v>
       </c>
       <c r="L198" t="n">
-        <v>0.09288144614845845</v>
+        <v>0.09048950686276713</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1013129643117725</v>
+        <v>0.1010113477640694</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1338089769081568</v>
+        <v>0.03598265930302848</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09975372795938389</v>
+        <v>0.1016479049836597</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.09438161385266863</v>
+        <v>0.03592205048123512</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1080874658946412</v>
+        <v>0.1024121749459429</v>
       </c>
       <c r="J199" t="n">
-        <v>0.04772374557405057</v>
+        <v>0.06437663238576466</v>
       </c>
       <c r="K199" t="n">
-        <v>0.0992062965929872</v>
+        <v>0.1016935084627696</v>
       </c>
       <c r="L199" t="n">
-        <v>0.09227561989111752</v>
+        <v>0.08943812468726348</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1020747159231392</v>
+        <v>0.1017708315818444</v>
       </c>
       <c r="N199" t="n">
-        <v>0.133349166319444</v>
+        <v>0.03592205048123512</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1005037559891537</v>
+        <v>0.1024121749459429</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.09213003858732885</v>
+        <v>0.03586714955515152</v>
       </c>
       <c r="G200" t="n">
-        <v>0.108894088774452</v>
+        <v>0.103176444908226</v>
       </c>
       <c r="J200" t="n">
-        <v>0.04770803294324093</v>
+        <v>0.06393659604333748</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09994664208994979</v>
+        <v>0.1024524152423425</v>
       </c>
       <c r="L200" t="n">
-        <v>0.09082891755026717</v>
+        <v>0.08799416496639495</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1028364675345059</v>
+        <v>0.1025303153996193</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1318858372892965</v>
+        <v>0.03586714955515152</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1012537840189235</v>
+        <v>0.103176444908226</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.0939977373225992</v>
+        <v>0.03571763918104476</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1097007116542627</v>
+        <v>0.1039407148705092</v>
       </c>
       <c r="J201" t="n">
-        <v>0.04750941506885981</v>
+        <v>0.06279472957456497</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1006869875869124</v>
+        <v>0.1032113220219154</v>
       </c>
       <c r="L201" t="n">
-        <v>0.09005316871719821</v>
+        <v>0.08775923368815997</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1035982191458726</v>
+        <v>0.1032897992173943</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1318200757900964</v>
+        <v>0.03571763918104476</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1020038120486933</v>
+        <v>0.1039407148705092</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.09294311917389794</v>
+        <v>0.03577320201518178</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1105073345340735</v>
+        <v>0.1047049848327923</v>
       </c>
       <c r="J202" t="n">
-        <v>0.04683020363816112</v>
+        <v>0.06234473926032016</v>
       </c>
       <c r="K202" t="n">
-        <v>0.101427333083875</v>
+        <v>0.1039702288014884</v>
       </c>
       <c r="L202" t="n">
-        <v>0.08896020298320134</v>
+        <v>0.08733493684055676</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1043599707572393</v>
+        <v>0.1040492830351692</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1311529677942259</v>
+        <v>0.03577320201518178</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1027538400784631</v>
+        <v>0.1047049848327923</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.09289043969007382</v>
+        <v>0.03563352071382965</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1113139574138842</v>
+        <v>0.1054692547950755</v>
       </c>
       <c r="J203" t="n">
-        <v>0.04697271033839878</v>
+        <v>0.0621485214652647</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1021676785808376</v>
+        <v>0.1047291355810613</v>
       </c>
       <c r="L203" t="n">
-        <v>0.08806184993956739</v>
+        <v>0.08512288041158383</v>
       </c>
       <c r="M203" t="n">
-        <v>0.105121722368606</v>
+        <v>0.1048087668529442</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1307855992740672</v>
+        <v>0.03563352071382965</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1035038681082329</v>
+        <v>0.1054692547950755</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.09183886007039249</v>
+        <v>0.03519827793325533</v>
       </c>
       <c r="G204" t="n">
-        <v>0.112120580293695</v>
+        <v>0.1062335247573586</v>
       </c>
       <c r="J204" t="n">
-        <v>0.04643924685682677</v>
+        <v>0.06080921186136007</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1029080240778002</v>
+        <v>0.1054880423606342</v>
       </c>
       <c r="L204" t="n">
-        <v>0.08776993917758713</v>
+        <v>0.0845246703892395</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1058834739799727</v>
+        <v>0.1055682506707191</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1291190562020026</v>
+        <v>0.03519827793325533</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1042538961380027</v>
+        <v>0.1062335247573586</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.09378837227212264</v>
+        <v>0.03536715632972588</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1129272031735057</v>
+        <v>0.1069977947196418</v>
       </c>
       <c r="J205" t="n">
-        <v>0.04633212488069897</v>
+        <v>0.06083825609254995</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1036483695747627</v>
+        <v>0.1062469491402071</v>
       </c>
       <c r="L205" t="n">
-        <v>0.08639630028855122</v>
+        <v>0.0833419127615222</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1066452255913394</v>
+        <v>0.1063277344884941</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1284544245504142</v>
+        <v>0.03536715632972588</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1050039241677725</v>
+        <v>0.1069977947196418</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.09473896825253303</v>
+        <v>0.03473983855950828</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1137338260533165</v>
+        <v>0.107762064681925</v>
       </c>
       <c r="J206" t="n">
-        <v>0.04615365609726935</v>
+        <v>0.05974709980277815</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1043887150717253</v>
+        <v>0.10700585591978</v>
       </c>
       <c r="L206" t="n">
-        <v>0.08683524483410271</v>
+        <v>0.08367621351643023</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1074069772027061</v>
+        <v>0.1070872183062691</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1279927902916843</v>
+        <v>0.03473983855950828</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1057539521975423</v>
+        <v>0.107762064681925</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.09469063996889254</v>
+        <v>0.03491600727886955</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1145404489331273</v>
+        <v>0.1085263346442081</v>
       </c>
       <c r="J207" t="n">
-        <v>0.04620615219379182</v>
+        <v>0.05874718863598835</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1051290605686879</v>
+        <v>0.1077647626993529</v>
       </c>
       <c r="L207" t="n">
-        <v>0.08639275350199138</v>
+        <v>0.08222917864196194</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1081687288140729</v>
+        <v>0.107846702124044</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1270352393981949</v>
+        <v>0.03491600727886955</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1065039802273121</v>
+        <v>0.1085263346442081</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.09164337937846992</v>
+        <v>0.03469534514407673</v>
       </c>
       <c r="G208" t="n">
-        <v>0.115347071812938</v>
+        <v>0.1092906046064912</v>
       </c>
       <c r="J208" t="n">
-        <v>0.04569192485752031</v>
+        <v>0.05864996823612439</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1058694060656505</v>
+        <v>0.1085236694789258</v>
       </c>
       <c r="L208" t="n">
-        <v>0.08535316016585309</v>
+        <v>0.08140241412611576</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1089304804254396</v>
+        <v>0.108606185941819</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1275805693182177</v>
+        <v>0.03469534514407673</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1072540082570819</v>
+        <v>0.1092906046064912</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.08759717843853398</v>
+        <v>0.03447753481139679</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1161536946927488</v>
+        <v>0.1100548745687744</v>
       </c>
       <c r="J209" t="n">
-        <v>0.04611328577570878</v>
+        <v>0.05766688424713001</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1066097515626131</v>
+        <v>0.1092825762584987</v>
       </c>
       <c r="L209" t="n">
-        <v>0.08471663465324591</v>
+        <v>0.08129752595689027</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1096922320368063</v>
+        <v>0.1093656697595939</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1262102354938713</v>
+        <v>0.03447753481139679</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1080040362868517</v>
+        <v>0.1100548745687744</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.09555202910635352</v>
+        <v>0.03456225893709676</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1169603175725595</v>
+        <v>0.1108191445310576</v>
       </c>
       <c r="J210" t="n">
-        <v>0.04557254663561114</v>
+        <v>0.05730938231294891</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1073500970595757</v>
+        <v>0.1100414830380716</v>
       </c>
       <c r="L210" t="n">
-        <v>0.08478334679172814</v>
+        <v>0.08011612012228342</v>
       </c>
       <c r="M210" t="n">
-        <v>0.110453983648173</v>
+        <v>0.1101251535773689</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1253200881305069</v>
+        <v>0.03456225893709676</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1087540643166215</v>
+        <v>0.1108191445310576</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.08750792333919727</v>
+        <v>0.03444920017744367</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1177669404523703</v>
+        <v>0.1115834144933407</v>
       </c>
       <c r="J211" t="n">
-        <v>0.04586710976941046</v>
+        <v>0.05658890807752492</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1080904425565383</v>
+        <v>0.1108003898176445</v>
       </c>
       <c r="L211" t="n">
-        <v>0.08425346640885789</v>
+        <v>0.07965980261029387</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1112157352595397</v>
+        <v>0.1108846373951439</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1244103031646176</v>
+        <v>0.03444920017744367</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1095040923463913</v>
+        <v>0.1115834144933407</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.09346485309433414</v>
+        <v>0.03453804118870453</v>
       </c>
       <c r="G212" t="n">
-        <v>0.118573563332181</v>
+        <v>0.1123476844556239</v>
       </c>
       <c r="J212" t="n">
-        <v>0.04576717977072693</v>
+        <v>0.05561690718480178</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1088307880535009</v>
+        <v>0.1115592965972174</v>
       </c>
       <c r="L212" t="n">
-        <v>0.08332716333219331</v>
+        <v>0.07853017940891993</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1119774868709064</v>
+        <v>0.1116441212129188</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1242810565326959</v>
+        <v>0.03453804118870453</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1102541203761612</v>
+        <v>0.1123476844556239</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.08642281032903279</v>
+        <v>0.03392846462714633</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1193801862119918</v>
+        <v>0.113111954417907</v>
       </c>
       <c r="J213" t="n">
-        <v>0.04586744712446819</v>
+        <v>0.05510482527872326</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1095711335504635</v>
+        <v>0.1123182033767903</v>
       </c>
       <c r="L213" t="n">
-        <v>0.08370460738929267</v>
+        <v>0.07812885650615997</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1127392384822731</v>
+        <v>0.1124036050306938</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1235325241712349</v>
+        <v>0.03392846462714633</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1110041484059309</v>
+        <v>0.113111954417907</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.09338178700056216</v>
+        <v>0.03402015314903609</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1201868090918025</v>
+        <v>0.1138762243801902</v>
       </c>
       <c r="J214" t="n">
-        <v>0.04566804473450312</v>
+        <v>0.0548641080032331</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1103114790474261</v>
+        <v>0.1130771101563632</v>
       </c>
       <c r="L214" t="n">
-        <v>0.08258596840771407</v>
+        <v>0.07675743989001238</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1135009900936398</v>
+        <v>0.1131630888484687</v>
       </c>
       <c r="N214" t="n">
-        <v>0.122664882016727</v>
+        <v>0.03402015314903609</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1117541764357007</v>
+        <v>0.1138762243801902</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.09534177506619093</v>
+        <v>0.03371278941064083</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1209934319716133</v>
+        <v>0.1146404943424734</v>
       </c>
       <c r="J215" t="n">
-        <v>0.04596910550470054</v>
+        <v>0.05440620100227508</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1110518245443887</v>
+        <v>0.1138360169359361</v>
       </c>
       <c r="L215" t="n">
-        <v>0.08297141621501566</v>
+        <v>0.07711730895708824</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1142627417050065</v>
+        <v>0.1139225726662437</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1215783060056653</v>
+        <v>0.03371278941064083</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1125042044654705</v>
+        <v>0.1146404943424734</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.08630276648318794</v>
+        <v>0.03410605606822756</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1218000548514241</v>
+        <v>0.1154047643047565</v>
       </c>
       <c r="J216" t="n">
-        <v>0.04587076233892937</v>
+        <v>0.05463315763318038</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1117921700413513</v>
+        <v>0.1145949237155091</v>
       </c>
       <c r="L216" t="n">
-        <v>0.08196112063875569</v>
+        <v>0.07529108837252851</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1150244933163732</v>
+        <v>0.1146820564840187</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1204729720745423</v>
+        <v>0.03410605606822756</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1132542324952404</v>
+        <v>0.1154047643047565</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.08726475320882202</v>
+        <v>0.03379963577806329</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1226066777312348</v>
+        <v>0.1161690342670397</v>
       </c>
       <c r="J217" t="n">
-        <v>0.04567314814105845</v>
+        <v>0.05417890932933886</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1125325155383138</v>
+        <v>0.115353830495082</v>
       </c>
       <c r="L217" t="n">
-        <v>0.08175525150649229</v>
+        <v>0.07546731727979694</v>
       </c>
       <c r="M217" t="n">
-        <v>0.11578624492774</v>
+        <v>0.1154415403017936</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1204490561598511</v>
+        <v>0.03379963577806329</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1140042605250102</v>
+        <v>0.1161690342670397</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.09022772720036187</v>
+        <v>0.03379321119641504</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1234133006110456</v>
+        <v>0.1169333042293228</v>
       </c>
       <c r="J218" t="n">
-        <v>0.04597639581495666</v>
+        <v>0.05402845077242879</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1132728610352764</v>
+        <v>0.1161127372746549</v>
       </c>
       <c r="L218" t="n">
-        <v>0.08115397864578366</v>
+        <v>0.07494626888570211</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1165479965391067</v>
+        <v>0.1162010241195686</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1188067341980844</v>
+        <v>0.03379321119641504</v>
       </c>
       <c r="O218" t="n">
-        <v>0.11475428855478</v>
+        <v>0.1169333042293228</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.08819168041507638</v>
+        <v>0.03368646497954982</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1242199234908563</v>
+        <v>0.117697574191606</v>
       </c>
       <c r="J219" t="n">
-        <v>0.04608063826449287</v>
+        <v>0.05378184918429549</v>
       </c>
       <c r="K219" t="n">
-        <v>0.114013206532239</v>
+        <v>0.1168716440542278</v>
       </c>
       <c r="L219" t="n">
-        <v>0.08105747188418796</v>
+        <v>0.07382821639705239</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1173097481504734</v>
+        <v>0.1169605079373435</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1191461821257349</v>
+        <v>0.03368646497954982</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1155043165845498</v>
+        <v>0.117697574191606</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.09015660481023433</v>
+        <v>0.03337907978373464</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1250265463706671</v>
+        <v>0.1184618441538891</v>
       </c>
       <c r="J220" t="n">
-        <v>0.04598600839353592</v>
+        <v>0.05313917178678437</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1147535520292016</v>
+        <v>0.1176305508338007</v>
       </c>
       <c r="L220" t="n">
-        <v>0.08016590104926338</v>
+        <v>0.07281343302065635</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1180714997618401</v>
+        <v>0.1177199917551185</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1173675758792953</v>
+        <v>0.03337907978373464</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1162543446143196</v>
+        <v>0.1184618441538891</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.08812249234310443</v>
+        <v>0.03327073826523652</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1258331692504778</v>
+        <v>0.1192261141161723</v>
       </c>
       <c r="J221" t="n">
-        <v>0.04599263910595471</v>
+        <v>0.05330048580174085</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1154938975261642</v>
+        <v>0.1183894576133736</v>
       </c>
       <c r="L221" t="n">
-        <v>0.08007943596856806</v>
+        <v>0.07300219196332214</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1188332513732068</v>
+        <v>0.1184794755728935</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1172710913952586</v>
+        <v>0.03327073826523652</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1170043726440894</v>
+        <v>0.1192261141161723</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.08708933497095558</v>
+        <v>0.03346112308032245</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1266397921302886</v>
+        <v>0.1199903840784554</v>
       </c>
       <c r="J222" t="n">
-        <v>0.04580066330561811</v>
+        <v>0.0528658584510103</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1162342430231268</v>
+        <v>0.1191483643929465</v>
       </c>
       <c r="L222" t="n">
-        <v>0.07979824646966022</v>
+        <v>0.07249476643185837</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1195950029845735</v>
+        <v>0.1192389593906684</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1158569046101175</v>
+        <v>0.03346112308032245</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1177544006738592</v>
+        <v>0.1199903840784554</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.08905712465105653</v>
+        <v>0.03294991688525947</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1274464150100993</v>
+        <v>0.1207546540407386</v>
       </c>
       <c r="J223" t="n">
-        <v>0.04561021389639494</v>
+        <v>0.05233535695643812</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1169745885200894</v>
+        <v>0.1199072711725194</v>
       </c>
       <c r="L223" t="n">
-        <v>0.07892250238009807</v>
+        <v>0.07099142963307359</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1203567545959402</v>
+        <v>0.1199984432084434</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1144251914603648</v>
+        <v>0.03294991688525947</v>
       </c>
       <c r="O223" t="n">
-        <v>0.118504428703629</v>
+        <v>0.1207546540407386</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.09502585334067604</v>
+        <v>0.03303680233631458</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1282530378899101</v>
+        <v>0.1215189240030217</v>
       </c>
       <c r="J224" t="n">
-        <v>0.04572142378215412</v>
+        <v>0.05290904853986975</v>
       </c>
       <c r="K224" t="n">
-        <v>0.117714934017052</v>
+        <v>0.1206661779520923</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07875237352743969</v>
+        <v>0.07109245477377607</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1211185062073069</v>
+        <v>0.1207579270262183</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1136761278824933</v>
+        <v>0.03303680233631458</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1192544567333988</v>
+        <v>0.1215189240030217</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.09499551299708298</v>
+        <v>0.0328214620897548</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1290596607697209</v>
+        <v>0.1222831939653049</v>
       </c>
       <c r="J225" t="n">
-        <v>0.0461344258667645</v>
+        <v>0.05238700042315053</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1184552795140146</v>
+        <v>0.1214250847316652</v>
       </c>
       <c r="L225" t="n">
-        <v>0.0783880297392433</v>
+        <v>0.07019811506077434</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1218802578186736</v>
+        <v>0.1215174108439933</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1129098898129958</v>
+        <v>0.0328214620897548</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1200044847631686</v>
+        <v>0.1222831939653049</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.08796609557754606</v>
+        <v>0.03250357880184714</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1298662836495316</v>
+        <v>0.1230474639275881</v>
       </c>
       <c r="J226" t="n">
-        <v>0.04614935305409494</v>
+        <v>0.05186927982812589</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1191956250109772</v>
+        <v>0.1221839915112381</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07872964084306708</v>
+        <v>0.07000868370087682</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1226420094300403</v>
+        <v>0.1222768946617682</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1122266531883651</v>
+        <v>0.03250357880184714</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1207545127929384</v>
+        <v>0.1230474639275881</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.08593759303933418</v>
+        <v>0.0328828351288586</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1306729065293424</v>
+        <v>0.1238117338898712</v>
       </c>
       <c r="J227" t="n">
-        <v>0.04606633824801432</v>
+        <v>0.05195595397664124</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1199359705079397</v>
+        <v>0.122942898290811</v>
       </c>
       <c r="L227" t="n">
-        <v>0.0774773766664692</v>
+        <v>0.06892443390089192</v>
       </c>
       <c r="M227" t="n">
-        <v>0.123403761041407</v>
+        <v>0.1230363784795432</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1113265939450939</v>
+        <v>0.0328828351288586</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1215045408227082</v>
+        <v>0.1238117338898712</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.09390999733971606</v>
+        <v>0.03235936930947475</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1314795294091531</v>
+        <v>0.1245760038521544</v>
       </c>
       <c r="J228" t="n">
-        <v>0.0457855143523915</v>
+        <v>0.05184709009054192</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1206763160049023</v>
+        <v>0.1237018050703839</v>
       </c>
       <c r="L228" t="n">
-        <v>0.07743140703700788</v>
+        <v>0.06804563886762821</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1241655126527738</v>
+        <v>0.1237958622973181</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1103098880196751</v>
+        <v>0.03235936930947475</v>
       </c>
       <c r="O228" t="n">
-        <v>0.122254568852478</v>
+        <v>0.1245760038521544</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.09088330043596049</v>
+        <v>0.03213568529102893</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1322861522889639</v>
+        <v>0.1253402738144375</v>
       </c>
       <c r="J229" t="n">
-        <v>0.04600701427109535</v>
+        <v>0.05144275539167334</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1214166615018649</v>
+        <v>0.1244607118499569</v>
       </c>
       <c r="L229" t="n">
-        <v>0.07729190178224118</v>
+        <v>0.06827257180789387</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1249272642641405</v>
+        <v>0.1245553461150931</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1089767113486014</v>
+        <v>0.03213568529102893</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1230045968822478</v>
+        <v>0.1253402738144375</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.08585749428533629</v>
+        <v>0.03251221599848879</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1330927751687746</v>
+        <v>0.1261045437767207</v>
       </c>
       <c r="J230" t="n">
-        <v>0.04623097090799475</v>
+        <v>0.05074301710188098</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1221570069988275</v>
+        <v>0.1252196186295298</v>
       </c>
       <c r="L230" t="n">
-        <v>0.07735903072972741</v>
+        <v>0.06760550592849768</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1256890158755072</v>
+        <v>0.125314829932868</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1079272398683657</v>
+        <v>0.03251221599848879</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1237546249120176</v>
+        <v>0.1261045437767207</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.08483257084511223</v>
+        <v>0.03238896254333601</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1338993980485854</v>
+        <v>0.1268688137390038</v>
       </c>
       <c r="J231" t="n">
-        <v>0.04585751716695854</v>
+        <v>0.05084794244301019</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1228973524957901</v>
+        <v>0.1259785254091027</v>
       </c>
       <c r="L231" t="n">
-        <v>0.07703296370702464</v>
+        <v>0.06724471443624774</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1264507674868739</v>
+        <v>0.126074313750643</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1066616495154606</v>
+        <v>0.03238896254333601</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1245046529417874</v>
+        <v>0.1268688137390038</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.08680852207255718</v>
+        <v>0.03206592603705227</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1347060209283961</v>
+        <v>0.127633083701287</v>
       </c>
       <c r="J232" t="n">
-        <v>0.04618678595185562</v>
+        <v>0.0511575986369063</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1236376979927527</v>
+        <v>0.1267374321886756</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07611387054169114</v>
+        <v>0.06649047053795276</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1272125190982406</v>
+        <v>0.126833797568418</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1064801162263792</v>
+        <v>0.03206592603705227</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1252546809715572</v>
+        <v>0.127633083701287</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.09378533992493984</v>
+        <v>0.03184310759111929</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1355126438082069</v>
+        <v>0.1283973536635702</v>
       </c>
       <c r="J233" t="n">
-        <v>0.04581891016655483</v>
+        <v>0.05027205290541478</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1243780434897153</v>
+        <v>0.1274963389682485</v>
       </c>
       <c r="L233" t="n">
-        <v>0.07610192106128502</v>
+        <v>0.06644304744042107</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1279742707096073</v>
+        <v>0.1275932813861929</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1046828159376139</v>
+        <v>0.03184310759111929</v>
       </c>
       <c r="O233" t="n">
-        <v>0.126004709001327</v>
+        <v>0.1283973536635702</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.08976301635952907</v>
+        <v>0.03192050831701869</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1363192666880177</v>
+        <v>0.1291616236258533</v>
       </c>
       <c r="J234" t="n">
-        <v>0.04595402271492505</v>
+        <v>0.05029137247038104</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1251183889866779</v>
+        <v>0.1282552457478214</v>
       </c>
       <c r="L234" t="n">
-        <v>0.07589728509336446</v>
+        <v>0.06490271835046107</v>
       </c>
       <c r="M234" t="n">
-        <v>0.128736022320974</v>
+        <v>0.1283527652039679</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1033699245856578</v>
+        <v>0.03192050831701869</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1267547370310968</v>
+        <v>0.1291616236258533</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.08674154333359363</v>
+        <v>0.03169812932623219</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1371258895678284</v>
+        <v>0.1299258935881365</v>
       </c>
       <c r="J235" t="n">
-        <v>0.04599225650083515</v>
+        <v>0.05071562455365036</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1258587344836405</v>
+        <v>0.1290141525273943</v>
       </c>
       <c r="L235" t="n">
-        <v>0.07500013246548767</v>
+        <v>0.06446975647488129</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1294977739323407</v>
+        <v>0.1291122490217428</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1022416181070035</v>
+        <v>0.03169812932623219</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1275047650608666</v>
+        <v>0.1299258935881365</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.08972091280440234</v>
+        <v>0.03147597173024151</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1379325124476392</v>
+        <v>0.1306901635504196</v>
       </c>
       <c r="J236" t="n">
-        <v>0.04623374442815398</v>
+        <v>0.0501448763770683</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1265990799806031</v>
+        <v>0.1297730593069672</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07531063300521279</v>
+        <v>0.06454443502049012</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1302595255437074</v>
+        <v>0.1298717328395178</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1016980724381439</v>
+        <v>0.03147597173024151</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1282547930906364</v>
+        <v>0.1306901635504196</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.09170111672922393</v>
+        <v>0.03165403664052831</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1387391353274499</v>
+        <v>0.1314544335127028</v>
       </c>
       <c r="J237" t="n">
-        <v>0.04617861940075045</v>
+        <v>0.04997919516248014</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1273394254775657</v>
+        <v>0.1305319660865401</v>
       </c>
       <c r="L237" t="n">
-        <v>0.07452895654009803</v>
+        <v>0.06362702719409608</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1310212771550741</v>
+        <v>0.1306312166572928</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09983946351557182</v>
+        <v>0.03165403664052831</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1290048211204062</v>
+        <v>0.1314544335127028</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.09268214706532729</v>
+        <v>0.03103232516857425</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1395457582072607</v>
+        <v>0.1322187034749859</v>
       </c>
       <c r="J238" t="n">
-        <v>0.04652701432249338</v>
+        <v>0.05011864813173136</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1280797709745282</v>
+        <v>0.131290872866113</v>
       </c>
       <c r="L238" t="n">
-        <v>0.07475527289770154</v>
+        <v>0.06381780620250743</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1317830287664409</v>
+        <v>0.1313907004750677</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09966596727577987</v>
+        <v>0.03103232516857425</v>
       </c>
       <c r="O238" t="n">
-        <v>0.129754849150176</v>
+        <v>0.1322187034749859</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.08966399576998113</v>
+        <v>0.03091083842586108</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1403523810870714</v>
+        <v>0.1329829734372691</v>
       </c>
       <c r="J239" t="n">
-        <v>0.04657906209725167</v>
+        <v>0.04916330250666726</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1288201164714908</v>
+        <v>0.1320497796456859</v>
       </c>
       <c r="L239" t="n">
-        <v>0.07408975190558154</v>
+        <v>0.06321704525253286</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1325447803778076</v>
+        <v>0.1321501842928427</v>
       </c>
       <c r="N239" t="n">
-        <v>0.09847775965526107</v>
+        <v>0.03091083842586108</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1305048771799458</v>
+        <v>0.1329829734372691</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.08964665480045433</v>
+        <v>0.03118957752387042</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1411590039668822</v>
+        <v>0.1337472433995522</v>
       </c>
       <c r="J240" t="n">
-        <v>0.04643489562889416</v>
+        <v>0.04911322550913336</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1295604619684534</v>
+        <v>0.1328086864252588</v>
       </c>
       <c r="L240" t="n">
-        <v>0.0743325633912961</v>
+        <v>0.06252501755098061</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1333065319891743</v>
+        <v>0.1329096681106176</v>
       </c>
       <c r="N240" t="n">
-        <v>0.09627501659050808</v>
+        <v>0.03118957752387042</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1312549052097156</v>
+        <v>0.1337472433995522</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.08663011611401564</v>
+        <v>0.03116854357408401</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1419656268466929</v>
+        <v>0.1345115133618354</v>
       </c>
       <c r="J241" t="n">
-        <v>0.04659464782128975</v>
+        <v>0.04886848436097491</v>
       </c>
       <c r="K241" t="n">
-        <v>0.130300807465416</v>
+        <v>0.1335675932048318</v>
       </c>
       <c r="L241" t="n">
-        <v>0.0738838771824035</v>
+        <v>0.0618419963046592</v>
       </c>
       <c r="M241" t="n">
-        <v>0.134068283600541</v>
+        <v>0.1336691519283926</v>
       </c>
       <c r="N241" t="n">
-        <v>0.09575791401801365</v>
+        <v>0.03116854357408401</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1320049332394855</v>
+        <v>0.1345115133618354</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.08661437166793381</v>
+        <v>0.0307477376879835</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1427722497265037</v>
+        <v>0.1352757833241185</v>
       </c>
       <c r="J242" t="n">
-        <v>0.04625845157830728</v>
+        <v>0.04872914628403743</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1310411529623786</v>
+        <v>0.1343264999844047</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07354386310646188</v>
+        <v>0.06056825472037702</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1348300352119077</v>
+        <v>0.1344286357461676</v>
       </c>
       <c r="N242" t="n">
-        <v>0.09472662787427066</v>
+        <v>0.0307477376879835</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1327549612692552</v>
+        <v>0.1352757833241185</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.08559941341947774</v>
+        <v>0.03052716097705059</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1435788726063144</v>
+        <v>0.1360400532864017</v>
       </c>
       <c r="J243" t="n">
-        <v>0.04642643980381564</v>
+        <v>0.04879527850016629</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1317814984593412</v>
+        <v>0.1350854067639776</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07361269099102946</v>
+        <v>0.06010406600494261</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1355917868232744</v>
+        <v>0.1351881195639425</v>
       </c>
       <c r="N243" t="n">
-        <v>0.09358133409577196</v>
+        <v>0.03052716097705059</v>
       </c>
       <c r="O243" t="n">
-        <v>0.133504989299025</v>
+        <v>0.1360400532864017</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.09058523332591611</v>
+        <v>0.03040681455276696</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1443854954861252</v>
+        <v>0.1368043232486849</v>
       </c>
       <c r="J244" t="n">
-        <v>0.04679874540168368</v>
+        <v>0.04906694823120686</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1325218439563038</v>
+        <v>0.1358443135435505</v>
       </c>
       <c r="L244" t="n">
-        <v>0.0725905306636643</v>
+        <v>0.05974970336516439</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1363535384346411</v>
+        <v>0.1359476033817175</v>
       </c>
       <c r="N244" t="n">
-        <v>0.09192220861901007</v>
+        <v>0.03040681455276696</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1342550173287949</v>
+        <v>0.1368043232486849</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.08457182334451779</v>
+        <v>0.03058669952661429</v>
       </c>
       <c r="G245" t="n">
-        <v>0.145192118365936</v>
+        <v>0.137568593210968</v>
       </c>
       <c r="J245" t="n">
-        <v>0.04697550127578028</v>
+        <v>0.04864422269900451</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1332621894532664</v>
+        <v>0.1366032203231234</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07267755195192471</v>
+        <v>0.0599054400078507</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1371152900460078</v>
+        <v>0.1367070871994924</v>
       </c>
       <c r="N245" t="n">
-        <v>0.09014942738047804</v>
+        <v>0.03058669952661429</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1350050453585647</v>
+        <v>0.137568593210968</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.08555917543255157</v>
+        <v>0.03036681701007431</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1459987412457467</v>
+        <v>0.1383328631732512</v>
       </c>
       <c r="J246" t="n">
-        <v>0.04685684032997429</v>
+        <v>0.04882716912540472</v>
       </c>
       <c r="K246" t="n">
-        <v>0.134002534950229</v>
+        <v>0.1373621271026963</v>
       </c>
       <c r="L246" t="n">
-        <v>0.0729739246833688</v>
+        <v>0.0586715491398101</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1378770416573745</v>
+        <v>0.1374665710172674</v>
       </c>
       <c r="N246" t="n">
-        <v>0.08936316631666857</v>
+        <v>0.03036681701007431</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1357550733883345</v>
+        <v>0.1383328631732512</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.0935472815472862</v>
+        <v>0.03034716811462866</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1468053641255575</v>
+        <v>0.1390971331355343</v>
       </c>
       <c r="J247" t="n">
-        <v>0.0470428954681346</v>
+        <v>0.04881585473225281</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1347428804471916</v>
+        <v>0.1381210338822692</v>
       </c>
       <c r="L247" t="n">
-        <v>0.07217981868555473</v>
+        <v>0.05954830396785094</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1386387932687413</v>
+        <v>0.1382260548350424</v>
       </c>
       <c r="N247" t="n">
-        <v>0.08786360136407456</v>
+        <v>0.03034716811462866</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1365051014181043</v>
+        <v>0.1390971331355343</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.09353613364599053</v>
+        <v>0.03022775395175906</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1476119870053682</v>
+        <v>0.1398614030978175</v>
       </c>
       <c r="J248" t="n">
-        <v>0.04713379959413007</v>
+        <v>0.04831034674139426</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1354832259441542</v>
+        <v>0.1388799406618421</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07259540378604071</v>
+        <v>0.05833597769878174</v>
       </c>
       <c r="M248" t="n">
-        <v>0.139400544880108</v>
+        <v>0.1389855386528173</v>
       </c>
       <c r="N248" t="n">
-        <v>0.08725090845918865</v>
+        <v>0.03022775395175906</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1372551294478741</v>
+        <v>0.1398614030978175</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.09052572368593331</v>
+        <v>0.03020857563294717</v>
       </c>
       <c r="G249" t="n">
-        <v>0.148418609885179</v>
+        <v>0.1406256730601006</v>
       </c>
       <c r="J249" t="n">
-        <v>0.04682968561182957</v>
+        <v>0.04871071237467436</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1362235714411168</v>
+        <v>0.139638847441415</v>
       </c>
       <c r="L249" t="n">
-        <v>0.07222084981238491</v>
+        <v>0.05743484353941086</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1401622964914747</v>
+        <v>0.1397450224705923</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08502526353850359</v>
+        <v>0.03020857563294717</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1380051574776439</v>
+        <v>0.1406256730601006</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.09051604362438334</v>
+        <v>0.03008963426967469</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1492252327649897</v>
+        <v>0.1413899430223838</v>
       </c>
       <c r="J250" t="n">
-        <v>0.04693068642510195</v>
+        <v>0.04791701885393856</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1369639169380793</v>
+        <v>0.1403977542209879</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07175632659214548</v>
+        <v>0.05804517469654674</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1409240481028414</v>
+        <v>0.1405045062883672</v>
       </c>
       <c r="N250" t="n">
-        <v>0.08348684253851235</v>
+        <v>0.03008963426967469</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1387551855074137</v>
+        <v>0.1413899430223838</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.09450708541860947</v>
+        <v>0.02977093097342329</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1500318556448005</v>
+        <v>0.142154212984667</v>
       </c>
       <c r="J251" t="n">
-        <v>0.04753693493781611</v>
+        <v>0.04782933340103229</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1377042624350419</v>
+        <v>0.1411566610005608</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07200200395288062</v>
+        <v>0.05736724437699803</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1416857997142081</v>
+        <v>0.1412639901061422</v>
       </c>
       <c r="N251" t="n">
-        <v>0.08223582139570762</v>
+        <v>0.02977093097342329</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1395052135371835</v>
+        <v>0.142154212984667</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.0874988410258804</v>
+        <v>0.02955246685567468</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1508384785246112</v>
+        <v>0.1429184829469501</v>
       </c>
       <c r="J252" t="n">
-        <v>0.04724856405384088</v>
+        <v>0.04844772323780092</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1384446079320045</v>
+        <v>0.1419155677801337</v>
       </c>
       <c r="L252" t="n">
-        <v>0.0719580517221485</v>
+        <v>0.05640132578757284</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1424475513255748</v>
+        <v>0.1420234739239171</v>
       </c>
       <c r="N252" t="n">
-        <v>0.08117237604658217</v>
+        <v>0.02955246685567468</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1402552415669533</v>
+        <v>0.1429184829469501</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.08849130240346503</v>
+        <v>0.02933424302791056</v>
       </c>
       <c r="G253" t="n">
-        <v>0.151645101404422</v>
+        <v>0.1436827529092333</v>
       </c>
       <c r="J253" t="n">
-        <v>0.04776570667704516</v>
+        <v>0.04837225558608982</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1391849534289671</v>
+        <v>0.1426744745597066</v>
       </c>
       <c r="L253" t="n">
-        <v>0.07132463972750733</v>
+        <v>0.05664769213507992</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1432093029369415</v>
+        <v>0.1427829577416921</v>
       </c>
       <c r="N253" t="n">
-        <v>0.07939668242762882</v>
+        <v>0.02933424302791056</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1410052695967231</v>
+        <v>0.1436827529092333</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.0894844615086321</v>
+        <v>0.02941626060161255</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1524517242842328</v>
+        <v>0.1444470228715164</v>
       </c>
       <c r="J254" t="n">
-        <v>0.0478884957112978</v>
+        <v>0.04790299766774442</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1399252989259297</v>
+        <v>0.1434333813392795</v>
       </c>
       <c r="L254" t="n">
-        <v>0.07140193779651521</v>
+        <v>0.05670661662632748</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1439710545483082</v>
+        <v>0.143542441559467</v>
       </c>
       <c r="N254" t="n">
-        <v>0.07820891647534028</v>
+        <v>0.02941626060161255</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1417552976264929</v>
+        <v>0.1444470228715164</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.09047831029865039</v>
+        <v>0.02909852068826242</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1532583471640435</v>
+        <v>0.1452112928337995</v>
       </c>
       <c r="J255" t="n">
-        <v>0.04751706406046767</v>
+        <v>0.04824001670461012</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1406656444228923</v>
+        <v>0.1441922881188525</v>
       </c>
       <c r="L255" t="n">
-        <v>0.0716901157567304</v>
+        <v>0.05597837246812409</v>
       </c>
       <c r="M255" t="n">
-        <v>0.144732806159675</v>
+        <v>0.144301925377242</v>
       </c>
       <c r="N255" t="n">
-        <v>0.07630925412620948</v>
+        <v>0.02909852068826242</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1425053256562627</v>
+        <v>0.1452112928337995</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.08647284073078873</v>
+        <v>0.02888102439934179</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1540649700438543</v>
+        <v>0.1459755627960827</v>
       </c>
       <c r="J256" t="n">
-        <v>0.04765154462842365</v>
+        <v>0.0474833799185323</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1414059899198549</v>
+        <v>0.1449511948984254</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07118934343571098</v>
+        <v>0.05536323286727812</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1454945577710417</v>
+        <v>0.145061409195017</v>
       </c>
       <c r="N256" t="n">
-        <v>0.07549787131672919</v>
+        <v>0.02888102439934179</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1432553536860325</v>
+        <v>0.1459755627960827</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.08746804476231584</v>
+        <v>0.02906377284633237</v>
       </c>
       <c r="G257" t="n">
-        <v>0.154871592923665</v>
+        <v>0.1467398327583659</v>
       </c>
       <c r="J257" t="n">
-        <v>0.0478920703190346</v>
+        <v>0.04813315453135639</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1421463354168175</v>
+        <v>0.1457101016779983</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07069979066101523</v>
+        <v>0.05476147103059803</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1462563093824084</v>
+        <v>0.1458208930127919</v>
       </c>
       <c r="N257" t="n">
-        <v>0.07447494398339216</v>
+        <v>0.02906377284633237</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1440053817158023</v>
+        <v>0.1467398327583659</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.08546391435050063</v>
+        <v>0.02894676714071587</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1556782158034758</v>
+        <v>0.147504102720649</v>
       </c>
       <c r="J258" t="n">
-        <v>0.04803877403616938</v>
+        <v>0.04748940776492772</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1428866809137801</v>
+        <v>0.1464690084575712</v>
       </c>
       <c r="L258" t="n">
-        <v>0.07072162726020126</v>
+        <v>0.05537336016489242</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1470180609937751</v>
+        <v>0.1465803768305669</v>
       </c>
       <c r="N258" t="n">
-        <v>0.07334064806269108</v>
+        <v>0.02894676714071587</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1447554097455721</v>
+        <v>0.147504102720649</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.09146044145261184</v>
+        <v>0.02893000839397397</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1564848386832865</v>
+        <v>0.1482683726829322</v>
       </c>
       <c r="J259" t="n">
-        <v>0.04809178868369686</v>
+        <v>0.04775220684109174</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1436270264107427</v>
+        <v>0.1472279152371441</v>
       </c>
       <c r="L259" t="n">
-        <v>0.07075502306082729</v>
+        <v>0.05489917347696949</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1477798126051418</v>
+        <v>0.1473398606483418</v>
       </c>
       <c r="N259" t="n">
-        <v>0.07109515949111894</v>
+        <v>0.02893000839397397</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1455054377753419</v>
+        <v>0.1482683726829322</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.08945761802591823</v>
+        <v>0.02861349771758834</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1572914615630973</v>
+        <v>0.1490326426452153</v>
       </c>
       <c r="J260" t="n">
-        <v>0.04835124716548592</v>
+        <v>0.04742161898169381</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1443673719077052</v>
+        <v>0.147986822016717</v>
       </c>
       <c r="L260" t="n">
-        <v>0.07050014789045142</v>
+        <v>0.0538391841736377</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1485415642165085</v>
+        <v>0.1480993444661168</v>
       </c>
       <c r="N260" t="n">
-        <v>0.07013865420516835</v>
+        <v>0.02861349771758834</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1462554658051117</v>
+        <v>0.1490326426452153</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.09345543602768866</v>
+        <v>0.02879723622304065</v>
       </c>
       <c r="G261" t="n">
-        <v>0.158098084442908</v>
+        <v>0.1497969126074985</v>
       </c>
       <c r="J261" t="n">
-        <v>0.04851728238540541</v>
+        <v>0.04759771140857941</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1451077174046679</v>
+        <v>0.1487457287962899</v>
       </c>
       <c r="L261" t="n">
-        <v>0.07045717157663192</v>
+        <v>0.0539936654617057</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1493033158278752</v>
+        <v>0.1488588282838918</v>
       </c>
       <c r="N261" t="n">
-        <v>0.0683713081413323</v>
+        <v>0.02879723622304065</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1470054938348815</v>
+        <v>0.1497969126074985</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.08745388741519186</v>
+        <v>0.02838122502181262</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1589047073227188</v>
+        <v>0.1505611825697817</v>
       </c>
       <c r="J262" t="n">
-        <v>0.04899002724732421</v>
+        <v>0.04778055134359385</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1458480629016304</v>
+        <v>0.1495046355758628</v>
       </c>
       <c r="L262" t="n">
-        <v>0.07122626394692691</v>
+        <v>0.0545628905479818</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1500650674392419</v>
+        <v>0.1496183121016667</v>
       </c>
       <c r="N262" t="n">
-        <v>0.06669329723610334</v>
+        <v>0.02838122502181262</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1477555218646513</v>
+        <v>0.1505611825697817</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.09045296414569667</v>
+        <v>0.02826546522538592</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1597113302025296</v>
+        <v>0.1513254525320648</v>
       </c>
       <c r="J263" t="n">
-        <v>0.04926961465511119</v>
+        <v>0.04807020600858256</v>
       </c>
       <c r="K263" t="n">
-        <v>0.146588408398593</v>
+        <v>0.1502635423554357</v>
       </c>
       <c r="L263" t="n">
-        <v>0.07090759482889455</v>
+        <v>0.05454713263927441</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1508268190506086</v>
+        <v>0.1503777959194417</v>
       </c>
       <c r="N263" t="n">
-        <v>0.06610479742597442</v>
+        <v>0.02826546522538592</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1485055498944211</v>
+        <v>0.1513254525320648</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.08445265817647192</v>
+        <v>0.02804995794524226</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1605179530823403</v>
+        <v>0.152089722494348</v>
       </c>
       <c r="J264" t="n">
-        <v>0.0490561775126352</v>
+        <v>0.04726674262539091</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1473287538955556</v>
+        <v>0.1510224491350086</v>
       </c>
       <c r="L264" t="n">
-        <v>0.07110133405009306</v>
+        <v>0.054246664942392</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1515885706619753</v>
+        <v>0.1511372797372166</v>
       </c>
       <c r="N264" t="n">
-        <v>0.06430598464743825</v>
+        <v>0.02804995794524226</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1492555779241909</v>
+        <v>0.152089722494348</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1067.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1067.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8091910046234552</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04045955023117276</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04045955023117276</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06473528036987641</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08180650554854628</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02513417557850348</v>
+        <v>0.03180650554854628</v>
       </c>
       <c r="B65" t="n">
-        <v>0.004848518329501852</v>
+        <v>0.006135646847371595</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9263,10 +9289,10 @@
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.008000000000000007</v>
+        <v>0</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0002374220374220377</v>
+        <v>0</v>
       </c>
       <c r="N65" s="171" t="n">
         <v>0</v>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.002999999999999996</v>
+        <v>0.00452454684583678</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0004051013513513507</v>
+        <v>0.0004657136045189051</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.02049198887751538</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007589067795729077</v>
+        <v>0.0009452364864864864</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.02238837483596423</v>
+        <v>0.01816982309694209</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.000759483817774958</v>
+        <v>0.0007595173876717022</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.002999999999999996</v>
+        <v>0.03199999999999997</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0004051013513513507</v>
+        <v>0.0008230630630630624</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0100724256997806</v>
+        <v>0.008788643543769119</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001528539924566311</v>
+        <v>0.0009314272090378101</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.03199999999999997</v>
+        <v>0.01021442008457587</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001309418509418508</v>
+        <v>0.001528539924566311</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.04505267774339872</v>
+        <v>0.02799999999999997</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001518967635549916</v>
+        <v>0.001247836945856746</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.0100724256997806</v>
+        <v>0.05201846027780122</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001528539924566311</v>
+        <v>0.00151667668877093</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01485622361628644</v>
+        <v>0.01273524707233643</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002292809886849467</v>
+        <v>0.001397140813556715</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.04449248413444234</v>
+        <v>0.01451354491052749</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002276720338718723</v>
+        <v>0.002292809886849467</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.06196428210286953</v>
+        <v>0.04155560975400321</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002278451453324874</v>
+        <v>0.002278552163015106</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01485622361628644</v>
+        <v>0.06785798209800531</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002292809886849467</v>
+        <v>0.002275015033156395</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01853370644821292</v>
+        <v>0.01630731441007812</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003057079849132623</v>
+        <v>0.00186285441807562</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
+        <v>0.01909085661059992</v>
+      </c>
+      <c r="K69" s="171" t="n">
+        <v>0.003057079849132623</v>
+      </c>
+      <c r="L69" s="172" t="n">
         <v>0.04871439264546593</v>
       </c>
-      <c r="K69" s="171" t="n">
-        <v>0.00284765747343991</v>
-      </c>
-      <c r="L69" s="172" t="n">
+      <c r="M69" s="170" t="n">
+        <v>0.003101409129489011</v>
+      </c>
+      <c r="N69" s="171" t="n">
         <v>0.07229460971242835</v>
       </c>
-      <c r="M69" s="170" t="n">
-        <v>0.003065059559384956</v>
-      </c>
-      <c r="N69" s="171" t="n">
-        <v>0.01853370644821292</v>
-      </c>
       <c r="O69" s="172" t="n">
-        <v>0.003057079849132623</v>
+        <v>0.002656384951466962</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0004051013513513507</v>
+        <v>0.003278043694743192</v>
       </c>
       <c r="B70" t="n">
-        <v>0.002999999999999996</v>
+        <v>0.02427573013870366</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.02190404330728017</v>
+        <v>0.01944780253553359</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003821349811415778</v>
+        <v>0.002328568022594525</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.05108850782022334</v>
+        <v>0.02241847095711642</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003794533897864538</v>
+        <v>0.003821349811415778</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.07448114176964959</v>
+        <v>0.0497989123581461</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00379741908887479</v>
+        <v>0.003797586938358511</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02190404330728017</v>
+        <v>0.07701379156318</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003821349811415778</v>
+        <v>0.003791691721927325</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02513417557850348</v>
+        <v>0.02209966842724224</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004848518329501852</v>
+        <v>0.00279428162711343</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.05326429416517445</v>
+        <v>0.02513417557850348</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004553440677437446</v>
+        <v>0.004848518329501852</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.07729005301817088</v>
+        <v>0.05240571271333802</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004556902906649748</v>
+        <v>0.004557104326030213</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.02513417557850348</v>
+        <v>0.07957717749087156</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004848518329501852</v>
+        <v>0.00455003006631279</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.0255534167548509</v>
+        <v>0.02427573013870366</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.00534988973598209</v>
+        <v>0.003278043694743192</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.05518085518539359</v>
+        <v>0.02554919996157295</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005312347457010353</v>
+        <v>0.00534988973598209</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.08090290946021511</v>
+        <v>0.05405244303360768</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005316386724424705</v>
+        <v>0.005316621713701915</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.0255534167548509</v>
+        <v>0.08334413087025905</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.00534988973598209</v>
+        <v>0.005308368410698256</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02692642998641449</v>
+        <v>0.02592108867641107</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006114159698265245</v>
+        <v>0.003725708836151241</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.05683894344783472</v>
+        <v>0.02681620845746467</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006071254236583262</v>
+        <v>0.006114159698265245</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.08442105105069792</v>
+        <v>0.05633986480543804</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006075870542199664</v>
+        <v>0.006076139101373617</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.02692642998641449</v>
+        <v>0.08591604301986</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006114159698265245</v>
+        <v>0.00606670675508372</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02787144909594905</v>
+        <v>0.02746407983282864</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006878429660548402</v>
+        <v>0.004191422440670146</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.05923931151945178</v>
+        <v>0.02775572013714551</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006830161016156168</v>
+        <v>0.006878429660548402</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.08714581774453545</v>
+        <v>0.05846873951531237</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006835354359974621</v>
+        <v>0.006835656489045319</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.02787144909594905</v>
+        <v>0.08929430525819221</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006878429660548402</v>
+        <v>0.006825045099469186</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02888873208229749</v>
+        <v>0.02882427209686932</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007642699622831556</v>
+        <v>0.004657136045189051</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.06068271196719877</v>
+        <v>0.02876797745093379</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007589067795729077</v>
+        <v>0.007642699622831556</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.09017854949664339</v>
+        <v>0.05973982864971353</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007594838177749579</v>
+        <v>0.007595173876717021</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.02888873208229749</v>
+        <v>0.09098030890377334</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007642699622831556</v>
+        <v>0.007583383443854651</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02987853694430291</v>
+        <v>0.02999076242976932</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008406969585114712</v>
+        <v>0.005122849649707955</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.06246989735802971</v>
+        <v>0.02965322284914786</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008347974575301986</v>
+        <v>0.008406969585114712</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.09192058626193761</v>
+        <v>0.06235389369512487</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008354321995524537</v>
+        <v>0.008354691264388724</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.02987853694430291</v>
+        <v>0.09397544527512097</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008406969585114712</v>
+        <v>0.008341721788240115</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.03044112168080827</v>
+        <v>0.03095264779276494</v>
       </c>
       <c r="G77" t="n">
+        <v>0.00558856325422686</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.03061169878210598</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009171239547397868</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.06380162025889854</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009106881354874892</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.09527326799533392</v>
+        <v>0.06371169613802927</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009113805813299496</v>
+        <v>0.009114208652060425</v>
       </c>
       <c r="N77" t="n">
-        <v>0.03044112168080827</v>
+        <v>0.09638110569075287</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009171239547397868</v>
+        <v>0.009100060132625581</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.03187674429065659</v>
+        <v>0.03180650554854628</v>
       </c>
       <c r="G78" t="n">
+        <v>0.006135646847371595</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.03154364770012649</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.009935509509681023</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.06577863323675934</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.009865788134447799</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.0975379346517482</v>
+        <v>0.06541399746490997</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009873289631074455</v>
+        <v>0.009873726039732128</v>
       </c>
       <c r="N78" t="n">
-        <v>0.03187674429065659</v>
+        <v>0.09989868146918673</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009935509509681023</v>
+        <v>0.009858398477011046</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.03228566277269092</v>
+        <v>0.03228900913620125</v>
       </c>
       <c r="G79" t="n">
+        <v>0.006519990463264671</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.03224931205352771</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01069977947196418</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.06770168885856598</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01062469491402071</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.09991592618609635</v>
+        <v>0.06686155916224998</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01063277344884941</v>
+        <v>0.01063324342740383</v>
       </c>
       <c r="N79" t="n">
-        <v>0.03228566277269092</v>
+        <v>0.1011295639289402</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01069977947196418</v>
+        <v>0.01061673682139651</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.03366813512575421</v>
+        <v>0.03285064025543422</v>
       </c>
       <c r="G80" t="n">
+        <v>0.006985704067783576</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.03312893429262795</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01146404943424733</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.06867153969127249</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01138360169359361</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.1027085825532941</v>
+        <v>0.06875514271653241</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01139225726662437</v>
+        <v>0.01139276081507553</v>
       </c>
       <c r="N80" t="n">
-        <v>0.03366813512575421</v>
+        <v>0.1045751443885309</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01146404943424733</v>
+        <v>0.01137507516578198</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.03402441934868951</v>
+        <v>0.03338778819496217</v>
       </c>
       <c r="G81" t="n">
+        <v>0.007451417672302481</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.03448275686774555</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01222831939653049</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.07028893830183292</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01214250847316652</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.1043172437082573</v>
+        <v>0.07009550961424041</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01215174108439933</v>
+        <v>0.01215227820274723</v>
       </c>
       <c r="N81" t="n">
-        <v>0.03402441934868951</v>
+        <v>0.1056368141664765</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01222831939653049</v>
+        <v>0.01213341351016744</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.03525477344033982</v>
+        <v>0.03390124382487326</v>
       </c>
       <c r="G82" t="n">
+        <v>0.007917131276821386</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.03521102222919878</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01299258935881365</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.07245463725720117</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01290141525273943</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.1066432496059019</v>
+        <v>0.07158342134185702</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01291122490217429</v>
+        <v>0.01291179559041894</v>
       </c>
       <c r="N82" t="n">
-        <v>0.03525477344033982</v>
+        <v>0.1091159645812947</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01299258935881365</v>
+        <v>0.01289175185455291</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.03575945539954818</v>
+        <v>0.03439179801525569</v>
       </c>
       <c r="G83" t="n">
+        <v>0.008382844881340291</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.03581397282730599</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.0137568593210968</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.07356938912433117</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01366032203231234</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.1100879402011438</v>
+        <v>0.07341963938586527</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01367070871994924</v>
+        <v>0.01367131297809064</v>
       </c>
       <c r="N83" t="n">
-        <v>0.03575945539954818</v>
+        <v>0.1102139869515033</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0137568593210968</v>
+        <v>0.01365009019893837</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.03693872322515755</v>
+        <v>0.03486024163619757</v>
       </c>
       <c r="G84" t="n">
+        <v>0.008848558485859196</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.03679185111238549</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01452112928337996</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.07453394647017708</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01441922881188525</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.1118526554488985</v>
+        <v>0.0750049252327484</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0144301925377242</v>
+        <v>0.01443083036576234</v>
       </c>
       <c r="N84" t="n">
-        <v>0.03693872322515755</v>
+        <v>0.1124322725956198</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01452112928337996</v>
+        <v>0.01440842854332384</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.03729283491601097</v>
+        <v>0.03530736555778707</v>
       </c>
       <c r="G85" t="n">
+        <v>0.009314272090378101</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.03764489953475558</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01528539924566311</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.07594906186169273</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01517813559145815</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.1135387353040822</v>
+        <v>0.07584004036898942</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01518967635549916</v>
+        <v>0.01519034775343404</v>
       </c>
       <c r="N85" t="n">
-        <v>0.03729283491601097</v>
+        <v>0.1145722128321619</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01528539924566311</v>
+        <v>0.0151667668877093</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.03832204847095144</v>
+        <v>0.03573396065011238</v>
       </c>
       <c r="G86" t="n">
+        <v>0.009779985694897006</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.03837336054473459</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01604966920794627</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.07781548786583217</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01593704237103106</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.1159475197216105</v>
+        <v>0.07742574628107146</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01594916017327412</v>
+        <v>0.01594986514110575</v>
       </c>
       <c r="N86" t="n">
-        <v>0.03832204847095144</v>
+        <v>0.1165351989796474</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01604966920794627</v>
+        <v>0.01592510523209477</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.039126621888822</v>
+        <v>0.03614081778326161</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01024569929941591</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.03887747659264082</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01681393917022942</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.07843397704954938</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01669594915060397</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.1178803486563995</v>
+        <v>0.07856280445547756</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01670864399104907</v>
+        <v>0.01670938252877745</v>
       </c>
       <c r="N87" t="n">
-        <v>0.039126621888822</v>
+        <v>0.1183226223565938</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01681393917022942</v>
+        <v>0.01668344357648023</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03950681316846565</v>
+        <v>0.03652872782732298</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01071141290393482</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.03965749012879261</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01757820913251258</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.07940528197979832</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01745485593017688</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.1192385620633648</v>
+        <v>0.07935197637869082</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01746812780882404</v>
+        <v>0.01746889991644915</v>
       </c>
       <c r="N88" t="n">
-        <v>0.03950681316846565</v>
+        <v>0.1192358742815189</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01757820913251258</v>
+        <v>0.0174417819208657</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.04026288030872538</v>
+        <v>0.0368984816523846</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01117712650845372</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.04011364360350828</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01834247909479574</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.08133015522353304</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01821376270974978</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.1200234998974224</v>
+        <v>0.08109402353719439</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01822761162659899</v>
+        <v>0.01822841730412085</v>
       </c>
       <c r="N89" t="n">
-        <v>0.04026288030872538</v>
+        <v>0.1221763460729403</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01834247909479574</v>
+        <v>0.01820012026525116</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.04059508130844419</v>
+        <v>0.03725087012853465</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01164284011297263</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.04084617946710609</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01910674905707889</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.08240934934770747</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01897266948932269</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.122136502113488</v>
+        <v>0.08218970741747136</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01898709544437395</v>
+        <v>0.01898793469179256</v>
       </c>
       <c r="N90" t="n">
-        <v>0.04059508130844419</v>
+        <v>0.1228454290493757</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01910674905707889</v>
+        <v>0.01895845860963663</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.04130367416646515</v>
+        <v>0.03758668412586129</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01210855371749153</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.04125534016990441</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.01987101901936205</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.08354361691927556</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0197315762688956</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.1241789086664775</v>
+        <v>0.08323978950600477</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01974657926214891</v>
+        <v>0.01974745207946426</v>
       </c>
       <c r="N91" t="n">
-        <v>0.04130367416646515</v>
+        <v>0.1242445145293429</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01987101901936205</v>
+        <v>0.01971679695402209</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.04228891688163122</v>
+        <v>0.03790671451445266</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01257426732201044</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.04204136816222152</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.0206352889816452</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.08433371050519137</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02049048304846851</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.1250520595113069</v>
+        <v>0.08364503128927772</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02050606307992386</v>
+        <v>0.02050696946713596</v>
       </c>
       <c r="N92" t="n">
-        <v>0.04228891688163122</v>
+        <v>0.1266749938313593</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0206352889816452</v>
+        <v>0.02047513529840756</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.04275106745278544</v>
+        <v>0.03821175216439693</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01303998092652934</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.04250450589437577</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02139955894392836</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.08498038267240884</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02124938982804141</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.1262572946028918</v>
+        <v>0.08470619425377338</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02126554689769882</v>
+        <v>0.02126648685480766</v>
       </c>
       <c r="N93" t="n">
-        <v>0.04275106745278544</v>
+        <v>0.1267382582739429</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02139955894392836</v>
+        <v>0.02123347364279302</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0429903838787708</v>
+        <v>0.03850258794578226</v>
       </c>
       <c r="G94" t="n">
+        <v>0.01350569453104825</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.04294499581668546</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02216382890621152</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.08558438598788204</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02200829660761432</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.1285959538961483</v>
+        <v>0.08602403988597476</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02202503071547378</v>
+        <v>0.02202600424247936</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0429903838787708</v>
+        <v>0.127935699175611</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02216382890621152</v>
+        <v>0.02199181198717849</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.04360712415843032</v>
+        <v>0.03878001272869683</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01397140813556715</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.04356308037946889</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02292809886849467</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.0865464730185648</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02276720338718723</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.129969377345992</v>
+        <v>0.08619932967236496</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02278451453324874</v>
+        <v>0.02278552163015106</v>
       </c>
       <c r="N95" t="n">
-        <v>0.04360712415843032</v>
+        <v>0.1305687078548817</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02292809886849467</v>
+        <v>0.02275015033156395</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.04420154629060701</v>
+        <v>0.03904481738322879</v>
       </c>
       <c r="G96" t="n">
+        <v>0.01443712174008606</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.04405900203304443</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02369236883077783</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.08736739633141125</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02352611016676014</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.1309789049073388</v>
+        <v>0.08703282509942711</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0235439983510237</v>
+        <v>0.02354503901782277</v>
       </c>
       <c r="N96" t="n">
-        <v>0.04420154629060701</v>
+        <v>0.1316386756302723</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02369236883077783</v>
+        <v>0.02350848867594942</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.04437390827414388</v>
+        <v>0.03929779277946627</v>
       </c>
       <c r="G97" t="n">
+        <v>0.01490283534460496</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.0443330032277303</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02445663879306098</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.08834790849337526</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02428501694633305</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.1316258765351047</v>
+        <v>0.08822528765364429</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02430348216879866</v>
+        <v>0.02430455640549447</v>
       </c>
       <c r="N97" t="n">
-        <v>0.04437390827414388</v>
+        <v>0.1321469938203007</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02445663879306098</v>
+        <v>0.02426682702033488</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04502446810788395</v>
+        <v>0.03953972978749745</v>
       </c>
       <c r="G98" t="n">
+        <v>0.01536854894912387</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.04488532641384491</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02522090875534413</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.08918876207141091</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02504392372590595</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.1320116321842053</v>
+        <v>0.08897747882149964</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02506296598657361</v>
+        <v>0.02506407379316617</v>
       </c>
       <c r="N98" t="n">
-        <v>0.04502446810788395</v>
+        <v>0.1325950537434844</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02522090875534413</v>
+        <v>0.02502516536472035</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04565348379067023</v>
+        <v>0.03977141927741049</v>
       </c>
       <c r="G99" t="n">
+        <v>0.01583426255364277</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.0452162140417065</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02598517871762729</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.08969070963247214</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02580283050547886</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.1341375118095566</v>
+        <v>0.08979016008947618</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02582244980434857</v>
+        <v>0.02582359118083787</v>
       </c>
       <c r="N99" t="n">
-        <v>0.04565348379067023</v>
+        <v>0.1341842467183413</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02598517871762729</v>
+        <v>0.02578350370910581</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04576121332134574</v>
+        <v>0.03999365211929357</v>
       </c>
       <c r="G100" t="n">
+        <v>0.01629997615816168</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.04562590856163345</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02674944867991045</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.09035450374351287</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02656173728505177</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1343048553660746</v>
+        <v>0.09086409294405706</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02658193362212353</v>
+        <v>0.02658310856850957</v>
       </c>
       <c r="N100" t="n">
-        <v>0.04576121332134574</v>
+        <v>0.1354159640633888</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02674944867991045</v>
+        <v>0.02654184205349128</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04644791469875346</v>
+        <v>0.0402072191832348</v>
       </c>
       <c r="G101" t="n">
+        <v>0.01676568976268058</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.04631465242394402</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02751371864219361</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.09098089697148726</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02732064406462467</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1353150028086748</v>
+        <v>0.09120003887172531</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02734141743989849</v>
+        <v>0.02734262595618128</v>
       </c>
       <c r="N101" t="n">
-        <v>0.04644791469875346</v>
+        <v>0.136491597097145</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02751371864219361</v>
+        <v>0.02730018039787675</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04651384592173642</v>
+        <v>0.04041291133932237</v>
       </c>
       <c r="G102" t="n">
+        <v>0.01723140336719949</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.04648268807895659</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02827798860447676</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.0912706418833491</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02807955084419758</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.1357692940922732</v>
+        <v>0.09139875935896413</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02810090125767345</v>
+        <v>0.02810214334385298</v>
       </c>
       <c r="N102" t="n">
-        <v>0.04651384592173642</v>
+        <v>0.1375125371381271</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02827798860447676</v>
+        <v>0.02805851874226221</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04715926498913764</v>
+        <v>0.04061151945764445</v>
       </c>
       <c r="G103" t="n">
+        <v>0.01769711697171839</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.0471302579769894</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02904225856675991</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.09252449104605251</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02883845762377049</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1370690691717856</v>
+        <v>0.09266101589225648</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0288603850754484</v>
+        <v>0.02886166073152468</v>
       </c>
       <c r="N103" t="n">
-        <v>0.04715926498913764</v>
+        <v>0.1368801755048529</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02904225856675991</v>
+        <v>0.02881685708664767</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04748442989980012</v>
+        <v>0.04080383440828916</v>
       </c>
       <c r="G104" t="n">
+        <v>0.0181628305762373</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.04715760456836084</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.02980652852904307</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.09294319702655141</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.0295973644033434</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.138515668002128</v>
+        <v>0.09228756995808554</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02961986889322336</v>
+        <v>0.02962117811919638</v>
       </c>
       <c r="N104" t="n">
-        <v>0.04748442989980012</v>
+        <v>0.1379959035158403</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02980652852904307</v>
+        <v>0.02957519543103314</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04788959865256687</v>
+        <v>0.04099064706134473</v>
       </c>
       <c r="G105" t="n">
+        <v>0.0186285441807562</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.04776497030338914</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03057079849132623</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.09332751239179982</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03035627118291631</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.138610430538216</v>
+        <v>0.09337918304293441</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03037935271099832</v>
+        <v>0.03038069550686808</v>
       </c>
       <c r="N105" t="n">
-        <v>0.04788959865256687</v>
+        <v>0.1395611124896068</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03057079849132623</v>
+        <v>0.0303335337754186</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04767502924628091</v>
+        <v>0.04117274828689924</v>
       </c>
       <c r="G106" t="n">
+        <v>0.01909425778527511</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.0476525976323927</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03133506845360938</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.09417818970875169</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03111517796248922</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1387546967349657</v>
+        <v>0.0938366166332861</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03113883652877328</v>
+        <v>0.03114021289453979</v>
       </c>
       <c r="N106" t="n">
-        <v>0.04767502924628091</v>
+        <v>0.13957719374467</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03133506845360938</v>
+        <v>0.03109187211980407</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04844097967978524</v>
+        <v>0.04135092895504089</v>
       </c>
       <c r="G107" t="n">
+        <v>0.01955997138979401</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.04832072900568979</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03209933841589254</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.09419598154436101</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03187408474206212</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1400498065472928</v>
+        <v>0.09376063221562389</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03189832034654824</v>
+        <v>0.03189973028221149</v>
       </c>
       <c r="N107" t="n">
-        <v>0.04844097967978524</v>
+        <v>0.1401455385995478</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03209933841589254</v>
+        <v>0.03185021046418953</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.0481877079519229</v>
+        <v>0.04152692673109738</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02002568499431292</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.04846960687359873</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03286360837817569</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.09478164046558177</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03263299152163503</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1402970999301132</v>
+        <v>0.09445199127643064</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03265780416432319</v>
+        <v>0.03265924766988319</v>
       </c>
       <c r="N108" t="n">
-        <v>0.0481877079519229</v>
+        <v>0.1401675383727577</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03286360837817569</v>
+        <v>0.032608548808575</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04891547206153686</v>
+        <v>0.04170220230526875</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02049139859883182</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.04839947368643785</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03362787834045885</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.094535919039368</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03339189830120794</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1403979168383425</v>
+        <v>0.09491145530218958</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03341728798209815</v>
+        <v>0.03341876505755489</v>
       </c>
       <c r="N109" t="n">
-        <v>0.04891547206153686</v>
+        <v>0.1408445843828174</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03362787834045885</v>
+        <v>0.03336688715296046</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04872453000747017</v>
+        <v>0.04187667454329527</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02095711220335073</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.04871057189452543</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03439214830274201</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.09475956983267361</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03415080508078085</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.141953597226897</v>
+        <v>0.0947397857793838</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03417677179987311</v>
+        <v>0.0341782824452266</v>
       </c>
       <c r="N110" t="n">
-        <v>0.04872453000747017</v>
+        <v>0.1408780679482446</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03439214830274201</v>
+        <v>0.03412522549734592</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04911513978856578</v>
+        <v>0.04205025702876644</v>
       </c>
       <c r="G111" t="n">
+        <v>0.02142282580786963</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.04890314394817985</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03515641826502516</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.09545334541245268</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03490971186035376</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1418654810506921</v>
+        <v>0.09593774419449635</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03493625561764807</v>
+        <v>0.0349377998328983</v>
       </c>
       <c r="N111" t="n">
-        <v>0.04911513978856578</v>
+        <v>0.1418693803875569</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03515641826502516</v>
+        <v>0.03488356384173139</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04928755940366679</v>
+        <v>0.04222286334527177</v>
       </c>
       <c r="G112" t="n">
+        <v>0.02188853941238854</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.04907743229771935</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03592068822730832</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.09601799834565905</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03566861863992666</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1416349082646439</v>
+        <v>0.09600609203401034</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03569573943542302</v>
+        <v>0.03569731722057</v>
       </c>
       <c r="N112" t="n">
-        <v>0.04928755940366679</v>
+        <v>0.1419199130192721</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03592068822730832</v>
+        <v>0.03564190218611686</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04944204685161616</v>
+        <v>0.04239440707640077</v>
       </c>
       <c r="G113" t="n">
+        <v>0.02235425301690744</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.0491336793934623</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03668495818959147</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.0955542811992468</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03642752541949957</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1427632188236683</v>
+        <v>0.09614559078440887</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03645522325319799</v>
+        <v>0.0364568346082417</v>
       </c>
       <c r="N113" t="n">
-        <v>0.04944204685161616</v>
+        <v>0.1422310571619079</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03668495818959147</v>
+        <v>0.03640024053050232</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04977886013125689</v>
+        <v>0.04256480180574297</v>
       </c>
       <c r="G114" t="n">
+        <v>0.02281996662142635</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.04967212768572697</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03744922815187463</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.09616294654016999</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03718643219907248</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1431517526826809</v>
+        <v>0.09625700193217504</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03721470707097294</v>
+        <v>0.0372163519959134</v>
       </c>
       <c r="N114" t="n">
-        <v>0.04977886013125689</v>
+        <v>0.1434042041339819</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03744922815187463</v>
+        <v>0.03715857887488779</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.049398257241432</v>
+        <v>0.04273396111688786</v>
       </c>
       <c r="G115" t="n">
+        <v>0.02328568022594525</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.04969301962483175</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03821349811415778</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.09664474693538244</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03794533897864538</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1435018497965977</v>
+        <v>0.09664108696379198</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0379741908887479</v>
+        <v>0.03797586938358511</v>
       </c>
       <c r="N115" t="n">
-        <v>0.049398257241432</v>
+        <v>0.1433407452540116</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03821349811415778</v>
+        <v>0.03791691721927325</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04960049618098453</v>
+        <v>0.04290179859342495</v>
       </c>
       <c r="G116" t="n">
+        <v>0.02375139383046416</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.04999659766109486</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.03897776807644094</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.09630043495183827</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03870424575821829</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1428148501203345</v>
+        <v>0.0969986073657427</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03873367470652286</v>
+        <v>0.03873538677125681</v>
       </c>
       <c r="N116" t="n">
-        <v>0.04960049618098453</v>
+        <v>0.1431420718405149</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03897776807644094</v>
+        <v>0.03867525556365872</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04978583494875746</v>
+        <v>0.04306822781894375</v>
       </c>
       <c r="G117" t="n">
+        <v>0.02421710743498306</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.0497831042448347</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.03974203803872409</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.09633076315649133</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.03946315253779119</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1440920936088071</v>
+        <v>0.09713032462451035</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03949315852429782</v>
+        <v>0.03949490415892851</v>
       </c>
       <c r="N117" t="n">
-        <v>0.04978583494875746</v>
+        <v>0.1440095752120095</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03974203803872409</v>
+        <v>0.03943359390804418</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04985453154359382</v>
+        <v>0.04323316237703378</v>
       </c>
       <c r="G118" t="n">
+        <v>0.02468282103950197</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.0499527818263695</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04050630800100725</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.09663648411629575</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.0402220593173641</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1432349202169315</v>
+        <v>0.09663700022657801</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04025264234207277</v>
+        <v>0.04025442154660022</v>
       </c>
       <c r="N118" t="n">
-        <v>0.04985453154359382</v>
+        <v>0.1436446466870129</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04050630800100725</v>
+        <v>0.04019193225242965</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04980684396433661</v>
+        <v>0.04339651585128453</v>
       </c>
       <c r="G119" t="n">
+        <v>0.02514853464402087</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.04980587285601767</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04127057796329041</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.09681835039820544</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04098096609693701</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.1441446698996233</v>
+        <v>0.09731939565842879</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04101212615984773</v>
+        <v>0.04101393893427192</v>
       </c>
       <c r="N119" t="n">
-        <v>0.04980684396433661</v>
+        <v>0.1434486775840429</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04127057796329041</v>
+        <v>0.04095027059681512</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.05004303020982882</v>
+        <v>0.04355820182528554</v>
       </c>
       <c r="G120" t="n">
+        <v>0.02561424824853978</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.05024261978409747</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04203484792557356</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.09707711456917437</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04173987287650992</v>
-      </c>
       <c r="L120" t="n">
-        <v>0.1433226826117985</v>
+        <v>0.09687827240654578</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04177160997762269</v>
+        <v>0.04177345632194362</v>
       </c>
       <c r="N120" t="n">
-        <v>0.05004303020982882</v>
+        <v>0.1438230592216171</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04203484792557356</v>
+        <v>0.04170860894120058</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
+        <v>0.04371813388262627</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.02607996185305868</v>
+      </c>
+      <c r="J121" t="n">
         <v>0.05026835115700695</v>
       </c>
-      <c r="G121" t="n">
+      <c r="K121" t="n">
         <v>0.04279911788785672</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>0.09742878529093185</v>
       </c>
-      <c r="K121" t="n">
-        <v>0.04249877965608283</v>
-      </c>
-      <c r="L121" t="n">
+      <c r="M121" t="n">
+        <v>0.04253297370961532</v>
+      </c>
+      <c r="N121" t="n">
         <v>0.1445892194248567</v>
       </c>
-      <c r="M121" t="n">
-        <v>0.04253109379539764</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.05026835115700695</v>
-      </c>
       <c r="O121" t="n">
-        <v>0.04279911788785672</v>
+        <v>0.04246694728558605</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04976826638282961</v>
+        <v>0.04387622560689629</v>
       </c>
       <c r="G122" t="n">
+        <v>0.02654567545757759</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.05016815913052282</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04356338785013987</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.09722834684610596</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04325768643565574</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1439888569442625</v>
+        <v>0.09682851579751067</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04329057761317261</v>
+        <v>0.04329249109728702</v>
       </c>
       <c r="N122" t="n">
-        <v>0.04976826638282961</v>
+        <v>0.1433884399924689</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04356338785013987</v>
+        <v>0.04322528562997151</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04986520405165594</v>
+        <v>0.04403239058168507</v>
       </c>
       <c r="G123" t="n">
+        <v>0.02701138906209649</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.04996127653944987</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04432765781242303</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.09701787490509056</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04401659321522864</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1440805501257333</v>
+        <v>0.09681135379396405</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04405006143094756</v>
+        <v>0.04405200848495873</v>
       </c>
       <c r="N123" t="n">
-        <v>0.04986520405165594</v>
+        <v>0.1439771131883223</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04432765781242303</v>
+        <v>0.04398362397435698</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.05005778805335931</v>
+        <v>0.0441865423905821</v>
       </c>
       <c r="G124" t="n">
+        <v>0.0274771026666154</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.05004478865422889</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04509192777470619</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.09647377480783664</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04477549999480155</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.1443478428113653</v>
+        <v>0.097046489534719</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04480954524872252</v>
+        <v>0.04481152587263043</v>
       </c>
       <c r="N124" t="n">
-        <v>0.05005778805335931</v>
+        <v>0.1438241796213405</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04509192777470619</v>
+        <v>0.04474196231874245</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05024607850931471</v>
+        <v>0.04433859461717696</v>
       </c>
       <c r="G125" t="n">
+        <v>0.0279428162711343</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.05001905847687463</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04585619773698934</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.09659697155859734</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04553440677437446</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1440913678749329</v>
+        <v>0.09663586249686237</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04556902906649748</v>
+        <v>0.04557104326030213</v>
       </c>
       <c r="N125" t="n">
-        <v>0.05024607850931471</v>
+        <v>0.1438304910435367</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04585619773698934</v>
+        <v>0.04550030066312791</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05013013554089717</v>
+        <v>0.04448846084505909</v>
       </c>
       <c r="G126" t="n">
+        <v>0.02840852987565321</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.05008444900940186</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04662046769927249</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.09628869130738454</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04629331355394737</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1430117230388752</v>
+        <v>0.09708178138178966</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04632851288427244</v>
+        <v>0.04633056064797383</v>
       </c>
       <c r="N126" t="n">
-        <v>0.05013013554089717</v>
+        <v>0.1433974579680068</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04662046769927249</v>
+        <v>0.04625863900751337</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04991001926948169</v>
+        <v>0.04463605465781802</v>
       </c>
       <c r="G127" t="n">
+        <v>0.02887424348017211</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.04984132325382531</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04738473766155565</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.09685016020421031</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04705222033352028</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1438095060256315</v>
+        <v>0.09618655489089642</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04708799670204739</v>
+        <v>0.04709007803564554</v>
       </c>
       <c r="N127" t="n">
-        <v>0.04991001926948169</v>
+        <v>0.1434264909078472</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04738473766155565</v>
+        <v>0.04701697735189883</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04968578981644327</v>
+        <v>0.04478128963904328</v>
       </c>
       <c r="G128" t="n">
+        <v>0.02933995708469102</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.04959004421215971</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.0481490076238388</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.09598260439908657</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04781112711309318</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1437853145576407</v>
+        <v>0.09665249172557822</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04784748051982236</v>
+        <v>0.04784959542331724</v>
       </c>
       <c r="N128" t="n">
-        <v>0.04968578981644327</v>
+        <v>0.1430190003761537</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0481490076238388</v>
+        <v>0.0477753156962843</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04995750730315691</v>
+        <v>0.04492407937232436</v>
       </c>
       <c r="G129" t="n">
+        <v>0.02980567068920992</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.0499309748864198</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.04891327758612196</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.09628725004202524</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04857003389266609</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1431397463573419</v>
+        <v>0.09558190058723046</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04860696433759731</v>
+        <v>0.04860911281098894</v>
       </c>
       <c r="N129" t="n">
-        <v>0.04995750730315691</v>
+        <v>0.1434763968860228</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04891327758612196</v>
+        <v>0.04853365404066976</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05012523185099768</v>
+        <v>0.04506433744125077</v>
       </c>
       <c r="G130" t="n">
+        <v>0.03027138429372883</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.04996447827862036</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.04967754754840512</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.09626532328303833</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.049328940672239</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1432733991471742</v>
+        <v>0.09527709017724875</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04936644815537226</v>
+        <v>0.04936863019866064</v>
       </c>
       <c r="N130" t="n">
-        <v>0.05012523185099768</v>
+        <v>0.1427000909505504</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04967754754840512</v>
+        <v>0.04929199238505523</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04968902358134054</v>
+        <v>0.04520197742941202</v>
       </c>
       <c r="G131" t="n">
+        <v>0.03073709789824773</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.04949091739077607</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05044181751068827</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.09561805027213777</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05008784745181191</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1428868706495767</v>
+        <v>0.09564036919702862</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05012593197314723</v>
+        <v>0.05012814758633234</v>
       </c>
       <c r="N131" t="n">
-        <v>0.04968902358134054</v>
+        <v>0.1425914930828327</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05044181751068827</v>
+        <v>0.0500503307294407</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04984894261556048</v>
+        <v>0.04533691292039764</v>
       </c>
       <c r="G132" t="n">
+        <v>0.03120281150276664</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.04931065522490172</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05120608747297143</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.09524665715933547</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05084675423138482</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1423807585869885</v>
+        <v>0.09467404634796553</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05088541579092219</v>
+        <v>0.05088766497400404</v>
       </c>
       <c r="N132" t="n">
-        <v>0.04984894261556048</v>
+        <v>0.1417520137959659</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05120608747297143</v>
+        <v>0.05080866907382616</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05000504907503257</v>
+        <v>0.04546905749779712</v>
       </c>
       <c r="G133" t="n">
+        <v>0.03166852510728554</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.04942405478301204</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05197035743525458</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.0954523700946435</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05160566101095772</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1427556606818486</v>
+        <v>0.09478043033145506</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05164489960869714</v>
+        <v>0.05164718236167574</v>
       </c>
       <c r="N133" t="n">
-        <v>0.05000504907503257</v>
+        <v>0.1416830636030459</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05197035743525458</v>
+        <v>0.05156700741821162</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04955740308113177</v>
+        <v>0.04559832474519995</v>
       </c>
       <c r="G134" t="n">
+        <v>0.03213423871180445</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.04933147906712175</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05273462739753774</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.09483641522807376</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05236456779053063</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1424121746565961</v>
+        <v>0.09386182984889274</v>
       </c>
       <c r="M134" t="n">
-        <v>0.0524043834264721</v>
+        <v>0.05240669974934745</v>
       </c>
       <c r="N134" t="n">
-        <v>0.04955740308113177</v>
+        <v>0.1408860530171692</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05273462739753774</v>
+        <v>0.05232534576259708</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0499060647552331</v>
+        <v>0.04572462824619568</v>
       </c>
       <c r="G135" t="n">
+        <v>0.03259995231632335</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.0493332910792456</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05349889735982089</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.09410001870963816</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05312347457010354</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1419508982336701</v>
+        <v>0.09352055360167408</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05316386724424706</v>
+        <v>0.05316621713701915</v>
       </c>
       <c r="N135" t="n">
-        <v>0.0499060647552331</v>
+        <v>0.1406623925514316</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05349889735982089</v>
+        <v>0.05308368410698255</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04985109421871158</v>
+        <v>0.04584788158437379</v>
       </c>
       <c r="G136" t="n">
+        <v>0.03306566592084226</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.04892985382139836</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05426316732210405</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.09414440668934873</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05388238134967644</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1414724291355098</v>
+        <v>0.09335891029119459</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05392335106202201</v>
+        <v>0.05392573452469085</v>
       </c>
       <c r="N136" t="n">
-        <v>0.04985109421871158</v>
+        <v>0.1404134927189295</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05426316732210405</v>
+        <v>0.05384202245136802</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04959255159294222</v>
+        <v>0.04596799834332382</v>
       </c>
       <c r="G137" t="n">
+        <v>0.03353137952536116</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.04932153029559476</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05502743728438721</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.0935708053172174</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05464128812924934</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1421773650845541</v>
+        <v>0.09247920861884978</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05468283487979697</v>
+        <v>0.05468525191236255</v>
       </c>
       <c r="N137" t="n">
-        <v>0.04959255159294222</v>
+        <v>0.1403407640327589</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05502743728438721</v>
+        <v>0.05460036079575349</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04963049699930003</v>
+        <v>0.04608489210663523</v>
       </c>
       <c r="G138" t="n">
+        <v>0.03399709312988006</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.04900868350384951</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05579170724667035</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.09318044074325615</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05540019490882226</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1416663038032421</v>
+        <v>0.09208375728603524</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05544231869757194</v>
+        <v>0.05544476930003426</v>
       </c>
       <c r="N138" t="n">
-        <v>0.04963049699930003</v>
+        <v>0.1397456170060158</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05579170724667035</v>
+        <v>0.05535869914013895</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04966499055916002</v>
+        <v>0.04619847645789758</v>
       </c>
       <c r="G139" t="n">
+        <v>0.03446280673439897</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.0487916764481774</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05655597720895351</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.09287453911747692</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05615910168839516</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.141439843014013</v>
+        <v>0.09207486499414641</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05620180251534689</v>
+        <v>0.05620428668770596</v>
       </c>
       <c r="N139" t="n">
-        <v>0.04966499055916002</v>
+        <v>0.1395294621517966</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05655597720895351</v>
+        <v>0.05611703748452442</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04949609239389717</v>
+        <v>0.04630866498070034</v>
       </c>
       <c r="G140" t="n">
+        <v>0.03492852033891788</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.04877087213059313</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05732024717123668</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.09275432658989163</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05691800846796807</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1408985804393058</v>
+        <v>0.09145484044457888</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05696128633312185</v>
+        <v>0.05696380407537766</v>
       </c>
       <c r="N140" t="n">
-        <v>0.04949609239389717</v>
+        <v>0.1382937099831973</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05732024717123668</v>
+        <v>0.05687537582890988</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04922386262488654</v>
+        <v>0.04641537125863306</v>
       </c>
       <c r="G141" t="n">
+        <v>0.03539423394343678</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.04854663355311148</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05808451713351983</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.09222102931051226</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05767691524754098</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1406431138015596</v>
+        <v>0.09112599233872815</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05772077015089681</v>
+        <v>0.05772332146304936</v>
       </c>
       <c r="N141" t="n">
-        <v>0.04922386262488654</v>
+        <v>0.1379397710133141</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05808451713351983</v>
+        <v>0.05763371417329535</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.0490483613735031</v>
+        <v>0.04651850887528522</v>
       </c>
       <c r="G142" t="n">
+        <v>0.03585994754795568</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.04851932371774716</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.05884878709580299</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.09127587342935084</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05843582202711389</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1391740408232133</v>
+        <v>0.09039062937798975</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05848025396867176</v>
+        <v>0.05848283885072107</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0490483613735031</v>
+        <v>0.1367690557552431</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05884878709580299</v>
+        <v>0.05839205251768081</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04926964876112187</v>
+        <v>0.04661799141424632</v>
       </c>
       <c r="G143" t="n">
+        <v>0.03632566115247459</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.04818930562651492</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.05961305705808614</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.09132008509641923</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.0591947288066868</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1394919592267064</v>
+        <v>0.08945106026375921</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05923973778644673</v>
+        <v>0.05924235623839277</v>
       </c>
       <c r="N143" t="n">
-        <v>0.04926964876112187</v>
+        <v>0.1361829747220804</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05961305705808614</v>
+        <v>0.05915039086206628</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04898778490911787</v>
+        <v>0.04671373245910589</v>
       </c>
       <c r="G144" t="n">
+        <v>0.0367913747569935</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.0483569422814295</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.0603773270203693</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.09095489046172944</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.05995363558625971</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1393974667344776</v>
+        <v>0.08890959369743201</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05999922160422168</v>
+        <v>0.06000187362606447</v>
       </c>
       <c r="N144" t="n">
-        <v>0.04898778490911787</v>
+        <v>0.1359829384269221</v>
       </c>
       <c r="O144" t="n">
-        <v>0.0603773270203693</v>
+        <v>0.05990872920645174</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0487028299388661</v>
+        <v>0.04680564559345345</v>
       </c>
       <c r="G145" t="n">
+        <v>0.0372570883615124</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.04792259668450567</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06114159698265245</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.09008151567529341</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06071254236583262</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1383911610689661</v>
+        <v>0.08876853838040372</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06075870542199664</v>
+        <v>0.06076139101373617</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0487028299388661</v>
+        <v>0.1349703573828645</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06114159698265245</v>
+        <v>0.06066706755083721</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04911484397174157</v>
+        <v>0.04689364440087847</v>
       </c>
       <c r="G146" t="n">
+        <v>0.03772280196603131</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.04798663183775813</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06190586694493561</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.09020118688712311</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06147144914540552</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.137573639952611</v>
+        <v>0.08833020301406985</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06151818923977159</v>
+        <v>0.06152090840140787</v>
       </c>
       <c r="N146" t="n">
-        <v>0.04911484397174157</v>
+        <v>0.1355466421030036</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06190586694493561</v>
+        <v>0.06142540589522268</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.0486238871291193</v>
+        <v>0.04697764246497049</v>
       </c>
       <c r="G147" t="n">
+        <v>0.03818851557055022</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.04774941074320165</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06267013690721876</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.0894151302472305</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06223035592497844</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1378455011078514</v>
+        <v>0.08789689629982594</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06227767305754656</v>
+        <v>0.06228042578907958</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0486238871291193</v>
+        <v>0.1339132031004355</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06267013690721876</v>
+        <v>0.06218374423960813</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04883001953237429</v>
+        <v>0.04705755336931902</v>
       </c>
       <c r="G148" t="n">
+        <v>0.03865422917506912</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.04781129640285095</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06343440686950191</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.08932457190562751</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06298926270455134</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1377073422571264</v>
+        <v>0.08707092693906751</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06303715687532152</v>
+        <v>0.06303994317675128</v>
       </c>
       <c r="N148" t="n">
-        <v>0.04883001953237429</v>
+        <v>0.1328714508882565</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06343440686950191</v>
+        <v>0.0629420825839936</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04833330130288155</v>
+        <v>0.04713329069751357</v>
       </c>
       <c r="G149" t="n">
+        <v>0.03911994277958802</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.04747265181872079</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06419867683178508</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.08843073801232609</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06374816948412425</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.136259761122875</v>
+        <v>0.08685460363319006</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06379664069309647</v>
+        <v>0.06379946056442298</v>
       </c>
       <c r="N149" t="n">
-        <v>0.04833330130288155</v>
+        <v>0.1334227959795627</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06419867683178508</v>
+        <v>0.06370042092837906</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.0482337925620161</v>
+        <v>0.04720476803314362</v>
       </c>
       <c r="G150" t="n">
+        <v>0.03958565638410693</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.04733383999282592</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06496294679406824</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.08763485471733826</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06450707626369716</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1357033554275363</v>
+        <v>0.08615023508358913</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06455612451087142</v>
+        <v>0.06455897795209468</v>
       </c>
       <c r="N150" t="n">
-        <v>0.0482337925620161</v>
+        <v>0.1324686488874501</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06496294679406824</v>
+        <v>0.06445875927276452</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04813155343115294</v>
+        <v>0.04727189895979871</v>
       </c>
       <c r="G151" t="n">
+        <v>0.04005136998862584</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.04699522392718104</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06572721675635139</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.08733814817067595</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06526598304327007</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1361387228935494</v>
+        <v>0.08506012999166024</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06531560832864639</v>
+        <v>0.06531849533976639</v>
       </c>
       <c r="N151" t="n">
-        <v>0.04813155343115294</v>
+        <v>0.1318104201250149</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06572721675635139</v>
+        <v>0.06521709761715</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.04822664403166707</v>
+        <v>0.04733459706106835</v>
       </c>
       <c r="G152" t="n">
+        <v>0.04051708359314474</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.04715716662380091</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06649148671863454</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.08674184452235112</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06602488982284296</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1348664612433533</v>
+        <v>0.0850865970587989</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06607509214642135</v>
+        <v>0.06607801272743809</v>
       </c>
       <c r="N152" t="n">
-        <v>0.04822664403166707</v>
+        <v>0.1307495202053532</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06649148671863454</v>
+        <v>0.06597543596153546</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04811912448493352</v>
+        <v>0.04739277592054203</v>
       </c>
       <c r="G153" t="n">
+        <v>0.04098279719766364</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.04702003108470031</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.0672557566809177</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.0863471699223757</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06678379660241589</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1350871681993873</v>
+        <v>0.08433194498640068</v>
       </c>
       <c r="M153" t="n">
-        <v>0.0668345759641963</v>
+        <v>0.06683753011510979</v>
       </c>
       <c r="N153" t="n">
-        <v>0.04811912448493352</v>
+        <v>0.1296873596415613</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0672557566809177</v>
+        <v>0.06673377430592092</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04800905491232728</v>
+        <v>0.04744634912180926</v>
       </c>
       <c r="G154" t="n">
+        <v>0.04144851080218255</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.04708418031189396</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.06802002664320085</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.08575535052076166</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06754270338198878</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1350014414840903</v>
+        <v>0.08359848247586105</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06759405978197126</v>
+        <v>0.06759704750278149</v>
       </c>
       <c r="N154" t="n">
-        <v>0.04800905491232728</v>
+        <v>0.1293253489467352</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06802002664320085</v>
+        <v>0.0674921126503064</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.04779649543522337</v>
+        <v>0.04749523024845957</v>
       </c>
       <c r="G155" t="n">
+        <v>0.04191422440670146</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.04684997730739657</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.06878429660548402</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.08526761246752099</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06830161016156169</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1337098788199014</v>
+        <v>0.08328851822857558</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06835354359974621</v>
+        <v>0.06835656489045321</v>
       </c>
       <c r="N155" t="n">
-        <v>0.04779649543522337</v>
+        <v>0.129664898633971</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06878429660548402</v>
+        <v>0.06825045099469185</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04768150617499679</v>
+        <v>0.04753933288408246</v>
       </c>
       <c r="G156" t="n">
+        <v>0.04237993801122036</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.04681778507322293</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.06954856656776716</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.08518518191266555</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.06906051694113459</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1338130779292597</v>
+        <v>0.08310436094593979</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06911302741752118</v>
+        <v>0.06911608227812489</v>
       </c>
       <c r="N156" t="n">
-        <v>0.04768150617499679</v>
+        <v>0.128107419216365</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06954856656776716</v>
+        <v>0.06900878933907732</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04786414725302257</v>
+        <v>0.04757857061226742</v>
       </c>
       <c r="G157" t="n">
+        <v>0.04284565161573926</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.04658796661138773</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07031283653005031</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.08440928500620745</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.06981942372070751</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1335116365346043</v>
+        <v>0.08314831932934916</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06987251123529614</v>
+        <v>0.06987559966579659</v>
       </c>
       <c r="N157" t="n">
-        <v>0.04786414725302257</v>
+        <v>0.1283543212070132</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07031283653005031</v>
+        <v>0.06976712768346278</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.04764447879067571</v>
+        <v>0.04761285701660398</v>
       </c>
       <c r="G158" t="n">
+        <v>0.04331136522025817</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.04645917251005106</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07107710649233348</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.08424114789815851</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07057833050028041</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1324061523583741</v>
+        <v>0.08301600576063556</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07063199505307109</v>
+        <v>0.0706351170534683</v>
       </c>
       <c r="N158" t="n">
-        <v>0.04764447879067571</v>
+        <v>0.1272768925473102</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07107710649233348</v>
+        <v>0.07052546602784825</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04762256090933122</v>
+        <v>0.04764210568068165</v>
       </c>
       <c r="G159" t="n">
+        <v>0.04377707882477708</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.04602854931518868</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07184137645461663</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.0831819967385308</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07133723727985332</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1313972231230085</v>
+        <v>0.08269660174004187</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07139147887084604</v>
+        <v>0.07139463444114</v>
       </c>
       <c r="N159" t="n">
-        <v>0.04762256090933122</v>
+        <v>0.1269251278116342</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07184137645461663</v>
+        <v>0.07128380437223372</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.0470984537303641</v>
+        <v>0.04766623018808995</v>
       </c>
       <c r="G160" t="n">
+        <v>0.04424279242929598</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.04629598460459509</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07260564641689977</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.08263305767733617</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07209614405942623</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1315854465509464</v>
+        <v>0.08148901121309068</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07215096268862102</v>
+        <v>0.0721541518288117</v>
       </c>
       <c r="N160" t="n">
-        <v>0.0470984537303641</v>
+        <v>0.1252027895544223</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07260564641689977</v>
+        <v>0.07204214271661918</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04737221737514936</v>
+        <v>0.04768514412241834</v>
       </c>
       <c r="G161" t="n">
+        <v>0.04470850603381488</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.04596141771844747</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07336991637918294</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.08249555686458668</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07285505083899914</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1316360001534985</v>
+        <v>0.0815923070705849</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07291044650639597</v>
+        <v>0.0729136692164834</v>
       </c>
       <c r="N161" t="n">
-        <v>0.04737221737514936</v>
+        <v>0.1240146758494015</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07336991637918294</v>
+        <v>0.07280048106100465</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04724391196506203</v>
+        <v>0.04769876106725639</v>
       </c>
       <c r="G162" t="n">
+        <v>0.04517421963833379</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.04592478799692298</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.0741341863414661</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.08256979298964215</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07361395761857203</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.1304087667164427</v>
+        <v>0.08160556220332729</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07366993032417092</v>
+        <v>0.0736731866041551</v>
       </c>
       <c r="N162" t="n">
-        <v>0.04724391196506203</v>
+        <v>0.1237655847702989</v>
       </c>
       <c r="O162" t="n">
-        <v>0.0741341863414661</v>
+        <v>0.07355881940539011</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.04721359762147712</v>
+        <v>0.04770699460619358</v>
       </c>
       <c r="G163" t="n">
+        <v>0.0456399332428527</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.04558603478019886</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07489845630374925</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.08144374864854406</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07437286439814496</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.12920787747597</v>
+        <v>0.08082784950212077</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07442941414194588</v>
+        <v>0.0744327039918268</v>
       </c>
       <c r="N163" t="n">
-        <v>0.04721359762147712</v>
+        <v>0.1231603143908419</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07489845630374925</v>
+        <v>0.07431715774977558</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0468813344657696</v>
+        <v>0.04770975832281941</v>
       </c>
       <c r="G164" t="n">
+        <v>0.0461056468473716</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.04524509740845228</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07566272626603242</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.08111343853233471</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07513177117771785</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1293375644031288</v>
+        <v>0.08125824185776812</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07518889795972084</v>
+        <v>0.07519222137949852</v>
       </c>
       <c r="N164" t="n">
-        <v>0.0468813344657696</v>
+        <v>0.1211036627847574</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07566272626603242</v>
+        <v>0.07507549609416105</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04674718261931451</v>
+        <v>0.04770975832281941</v>
       </c>
       <c r="G165" t="n">
+        <v>0.0461056468473716</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.04560191522186044</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07642699622831556</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.08047892846935911</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07589067795729076</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.1279020594689676</v>
+        <v>0.08049581216107221</v>
       </c>
       <c r="M165" t="n">
-        <v>0.0759483817774958</v>
+        <v>0.07595173876717022</v>
       </c>
       <c r="N165" t="n">
-        <v>0.04674718261931451</v>
+        <v>0.1209004280257726</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07642699622831556</v>
+        <v>0.07583383443854651</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04641120220348686</v>
+        <v>0.04688867421622689</v>
       </c>
       <c r="G166" t="n">
+        <v>0.04610537831890758</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.04505642756060053</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07719126619059873</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.08024028428796229</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07664958473686367</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.1272055946445349</v>
+        <v>0.08013963330283588</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07670786559527076</v>
+        <v>0.07671125615484192</v>
       </c>
       <c r="N166" t="n">
-        <v>0.04641120220348686</v>
+        <v>0.1187554081876147</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07719126619059873</v>
+        <v>0.07659217278293197</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04667345333966166</v>
+        <v>0.04607688076077911</v>
       </c>
       <c r="G167" t="n">
+        <v>0.04610510979044356</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.04480857376484976</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.07795553615288188</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.07969757181648929</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07740849151643658</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.1257524019008791</v>
+        <v>0.07988877817386195</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07746734941304571</v>
+        <v>0.07747077354251362</v>
       </c>
       <c r="N167" t="n">
-        <v>0.04667345333966166</v>
+        <v>0.1181734013440106</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07795553615288188</v>
+        <v>0.07735051112731743</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04632920796309242</v>
+        <v>0.04527483648023588</v>
       </c>
       <c r="G168" t="n">
+        <v>0.04610484126197955</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.04465829317478529</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.07871980611516503</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.07985085688328508</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.07816739829600949</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.1255467132090486</v>
+        <v>0.08024231966495327</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07822683323082066</v>
+        <v>0.07823029093018533</v>
       </c>
       <c r="N168" t="n">
-        <v>0.04632920796309242</v>
+        <v>0.1171592055686877</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07871980611516503</v>
+        <v>0.07810884947170291</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04614604845872573</v>
+        <v>0.04448299989828683</v>
       </c>
       <c r="G169" t="n">
+        <v>0.04610457273351553</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.04470552513058433</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.07948407607744819</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.07920020531669478</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.07892630507558239</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.123892760540092</v>
+        <v>0.0796993306669127</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07898631704859564</v>
+        <v>0.07898980831785703</v>
       </c>
       <c r="N169" t="n">
-        <v>0.04614604845872573</v>
+        <v>0.116117618935373</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07948407607744819</v>
+        <v>0.07886718781608837</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04562074723897337</v>
+        <v>0.04370182953869094</v>
       </c>
       <c r="G170" t="n">
+        <v>0.04610430420505152</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.04475020897242409</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08024834603973134</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.07874568294506332</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.07968521185515531</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.1222947758650577</v>
+        <v>0.079458884070543</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07974580086637059</v>
+        <v>0.07974932570552873</v>
       </c>
       <c r="N170" t="n">
-        <v>0.04562074723897337</v>
+        <v>0.1138534395177938</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08024834603973134</v>
+        <v>0.07962552616047383</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04575677393908074</v>
+        <v>0.04293178392513868</v>
       </c>
       <c r="G171" t="n">
+        <v>0.0461040356765875</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.04419228404048174</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.0810126160020145</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.07858735559673583</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08044411863472821</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.1225569911549941</v>
+        <v>0.07892005276664713</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08050528468414554</v>
+        <v>0.08050884309320043</v>
       </c>
       <c r="N171" t="n">
-        <v>0.04575677393908074</v>
+        <v>0.113571465389677</v>
       </c>
       <c r="O171" t="n">
-        <v>0.0810126160020145</v>
+        <v>0.08038386450485931</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04545759819429332</v>
+        <v>0.0421733215813881</v>
       </c>
       <c r="G172" t="n">
+        <v>0.04610376714812348</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.04453168967493448</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08177688596429766</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.07782528910005723</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08120302541430112</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.1211836383809498</v>
+        <v>0.07918190964602786</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08126476850192051</v>
+        <v>0.08126836048087213</v>
       </c>
       <c r="N172" t="n">
-        <v>0.04545759819429332</v>
+        <v>0.1113764946247498</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08177688596429766</v>
+        <v>0.08114220284924475</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0448266896398565</v>
+        <v>0.0414269010311307</v>
       </c>
       <c r="G173" t="n">
+        <v>0.04610349861965946</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.04426836521595952</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08254115592658082</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.07705954928337264</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08196193219387403</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.1191789495139731</v>
+        <v>0.07854352759948804</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08202425231969546</v>
+        <v>0.08202787786854383</v>
       </c>
       <c r="N173" t="n">
-        <v>0.0448266896398565</v>
+        <v>0.1106733252967394</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08254115592658082</v>
+        <v>0.08190054119363023</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.0446675179110157</v>
+        <v>0.04069298079812349</v>
       </c>
       <c r="G174" t="n">
+        <v>0.04610323009119545</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.04400225000373402</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08330542588886396</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.07689020197502699</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08272083897344694</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.1185471565251125</v>
+        <v>0.07870397951783051</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08278373613747042</v>
+        <v>0.08278739525621553</v>
       </c>
       <c r="N174" t="n">
-        <v>0.0446675179110157</v>
+        <v>0.1090667554793729</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08330542588886396</v>
+        <v>0.08265887953801569</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04428355264301641</v>
+        <v>0.03997201940605899</v>
       </c>
       <c r="G175" t="n">
+        <v>0.04610296156273143</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.04383328337843521</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08406969585114712</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.07611731300336538</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08347974575301984</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.1168924913854165</v>
+        <v>0.07796233829185809</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08354321995524538</v>
+        <v>0.08354691264388724</v>
       </c>
       <c r="N175" t="n">
-        <v>0.04428355264301641</v>
+        <v>0.1077615832463776</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08406969585114712</v>
+        <v>0.08341721788240115</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04407826347110395</v>
+        <v>0.03926447537869313</v>
       </c>
       <c r="G176" t="n">
+        <v>0.04610269303426742</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.04336140468024029</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08483396581343028</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.07594094819673286</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08423865253259276</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.1158191860659336</v>
+        <v>0.07761767681237364</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08430270377302033</v>
+        <v>0.08430643003155894</v>
       </c>
       <c r="N176" t="n">
-        <v>0.04407826347110395</v>
+        <v>0.1061626066714804</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08483396581343028</v>
+        <v>0.08417555622678663</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04365512003052384</v>
+        <v>0.0385708072397196</v>
       </c>
       <c r="G177" t="n">
+        <v>0.0461024245058034</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.0432865532493264</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08559823577571343</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.0755611733834744</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08499755931216565</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.1139314725377121</v>
+        <v>0.07766906797018003</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08506218759079529</v>
+        <v>0.08506594741923064</v>
       </c>
       <c r="N177" t="n">
-        <v>0.04365512003052384</v>
+        <v>0.1046746238284084</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08559823577571343</v>
+        <v>0.08493389457117209</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04301759195652143</v>
+        <v>0.03789147351289311</v>
       </c>
       <c r="G178" t="n">
+        <v>0.04610215597733937</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.04350866842587078</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08636250573799659</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.07517805439193503</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08575646609173856</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.1136335827718006</v>
+        <v>0.07691558465608009</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08582167140857026</v>
+        <v>0.08582546480690234</v>
       </c>
       <c r="N178" t="n">
-        <v>0.04301759195652143</v>
+        <v>0.1044024327908888</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08636250573799659</v>
+        <v>0.08569223291555755</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.0425691488843422</v>
+        <v>0.03722693272190859</v>
       </c>
       <c r="G179" t="n">
+        <v>0.04610188744887535</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.04322768955005059</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08712677570027974</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.07399165705045979</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08651537287131147</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.1125297487392475</v>
+        <v>0.07685629976087663</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08658115522634521</v>
+        <v>0.08658498219457404</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0425691488843422</v>
+        <v>0.102750831632649</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08712677570027974</v>
+        <v>0.08645057125994302</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04221326044923157</v>
+        <v>0.0365776433905195</v>
       </c>
       <c r="G180" t="n">
+        <v>0.04610161892041134</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.04304355596204305</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.08789104566256289</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.07380204718739375</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.08727427965088438</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.1105242024111014</v>
+        <v>0.07729028617537248</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08734063904412016</v>
+        <v>0.08734449958224574</v>
       </c>
       <c r="N180" t="n">
-        <v>0.04221326044923157</v>
+        <v>0.1020246184274157</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08789104566256289</v>
+        <v>0.08720890960432849</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04175339628643493</v>
+        <v>0.03594406404242205</v>
       </c>
       <c r="G181" t="n">
+        <v>0.04610135039194732</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.04245620700202536</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.08865531562484606</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.07390929063108184</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.08803318643045728</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.1099211757584105</v>
+        <v>0.07611661679037049</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08810012286189513</v>
+        <v>0.08810401696991746</v>
       </c>
       <c r="N181" t="n">
-        <v>0.04175339628643493</v>
+        <v>0.1003285912489164</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08865531562484606</v>
+        <v>0.08796724794871395</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04089302603119777</v>
+        <v>0.03532665320136837</v>
       </c>
       <c r="G182" t="n">
+        <v>0.04610108186348331</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.04226558201017469</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.0894195855871292</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.0726134532098692</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.0887920932100302</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.1073249007522233</v>
+        <v>0.07663436449667355</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08885960667967009</v>
+        <v>0.08886353435758916</v>
       </c>
       <c r="N182" t="n">
-        <v>0.04089302603119777</v>
+        <v>0.09906754817087798</v>
       </c>
       <c r="O182" t="n">
-        <v>0.0894195855871292</v>
+        <v>0.08872558629309941</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04083561931876543</v>
+        <v>0.03472586939106893</v>
       </c>
       <c r="G183" t="n">
+        <v>0.04610081333501929</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.04237162032666822</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09018385554941237</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.07211460075210074</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.0895509999896031</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.1061396093635886</v>
+        <v>0.07624260218508444</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08961909049744504</v>
+        <v>0.08962305174526086</v>
       </c>
       <c r="N183" t="n">
-        <v>0.04083561931876543</v>
+        <v>0.0984462872670277</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09018385554941237</v>
+        <v>0.08948392463748489</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04048464578438341</v>
+        <v>0.03414217113523577</v>
       </c>
       <c r="G184" t="n">
+        <v>0.04610054480655527</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.04207426129168322</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09094812551169552</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.07201279908612157</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09030990676917601</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.1050695335635545</v>
+        <v>0.075240402746406</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09037857431522001</v>
+        <v>0.09038256913293256</v>
       </c>
       <c r="N184" t="n">
-        <v>0.04048464578438341</v>
+        <v>0.0966696066110927</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09094812551169552</v>
+        <v>0.09024226298187034</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03964357506329708</v>
+        <v>0.03357601695761876</v>
       </c>
       <c r="G185" t="n">
+        <v>0.04610027627809126</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.0418734442453968</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09171239547397868</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.07140811404027672</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09106881354874892</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.1038189053231696</v>
+        <v>0.07532683907144117</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09113805813299496</v>
+        <v>0.09114208652060425</v>
       </c>
       <c r="N185" t="n">
-        <v>0.03964357506329708</v>
+        <v>0.0965423042768</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09171239547397868</v>
+        <v>0.09100060132625581</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03931587679075192</v>
+        <v>0.03302786538191781</v>
       </c>
       <c r="G186" t="n">
+        <v>0.04610000774962724</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.04186910852798616</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09247666543626183</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.07140061144291118</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09182772032832183</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.1027919566134822</v>
+        <v>0.07500098405099265</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09189754195076991</v>
+        <v>0.09190160390827595</v>
       </c>
       <c r="N186" t="n">
-        <v>0.03931587679075192</v>
+        <v>0.09546917833787699</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09247666543626183</v>
+        <v>0.09175893967064126</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0390050206019933</v>
+        <v>0.03249817493188123</v>
       </c>
       <c r="G187" t="n">
+        <v>0.04609973922116323</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.04136119347962854</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09324093539854499</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.07049035712236995</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09258662710789474</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.102092919405541</v>
+        <v>0.0743619105758633</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09265702576854488</v>
+        <v>0.09266112129594765</v>
       </c>
       <c r="N187" t="n">
-        <v>0.0390050206019933</v>
+        <v>0.09375502686805043</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09324093539854499</v>
+        <v>0.09251727801502674</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0388144761322667</v>
+        <v>0.03198740413121051</v>
       </c>
       <c r="G188" t="n">
+        <v>0.04609947069269921</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.04104963844050112</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09400520536082814</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.07037741690699814</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09334553388746764</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.1002260256703944</v>
+        <v>0.07390869153685603</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09341650958631983</v>
+        <v>0.09342063868361936</v>
       </c>
       <c r="N188" t="n">
-        <v>0.0388144761322667</v>
+        <v>0.09310464794104772</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09400520536082814</v>
+        <v>0.09327561635941221</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03844771301681749</v>
+        <v>0.03149601150365237</v>
       </c>
       <c r="G189" t="n">
+        <v>0.04609920216423519</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.04113438275078106</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09476947532311131</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.06936185662514072</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09410444066704056</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.0999955073790908</v>
+        <v>0.07414039982477372</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09417599340409478</v>
+        <v>0.09418015607129107</v>
       </c>
       <c r="N189" t="n">
-        <v>0.03844771301681749</v>
+        <v>0.09262283963059592</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09476947532311131</v>
+        <v>0.09403395470379766</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03790820089089111</v>
+        <v>0.03102258326770144</v>
       </c>
       <c r="G190" t="n">
+        <v>0.04609893363577117</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.04111536575064559</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09553374528539446</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.06854374210514275</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09486334744661346</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.09760559650267853</v>
+        <v>0.07355610833041909</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09493547722186975</v>
+        <v>0.09493967345896277</v>
       </c>
       <c r="N190" t="n">
-        <v>0.03790820089089111</v>
+        <v>0.09191440001042223</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09553374528539446</v>
+        <v>0.09479229304818314</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03749940938973305</v>
+        <v>0.03055634411585251</v>
       </c>
       <c r="G191" t="n">
+        <v>0.04609866510730715</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.0404925267802719</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.0962980152476776</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.06852313917534919</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09562225422618637</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.09766052501220623</v>
+        <v>0.07305488994459505</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09569496103964471</v>
+        <v>0.09569919084663447</v>
       </c>
       <c r="N191" t="n">
-        <v>0.03749940938973305</v>
+        <v>0.09138412715425359</v>
       </c>
       <c r="O191" t="n">
-        <v>0.0962980152476776</v>
+        <v>0.0955506313925686</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03702480814858865</v>
+        <v>0.03009588026660145</v>
       </c>
       <c r="G192" t="n">
+        <v>0.04609839657884313</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.04066580517983716</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09706228520996077</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.06750011366410513</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09638116100575927</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.09556452487872236</v>
+        <v>0.07313581755810436</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09645444485741966</v>
+        <v>0.09645870823430618</v>
       </c>
       <c r="N192" t="n">
-        <v>0.03702480814858865</v>
+        <v>0.08983681913581748</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09706228520996077</v>
+        <v>0.09630896973695406</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03678786680270336</v>
+        <v>0.02964165024369281</v>
       </c>
       <c r="G193" t="n">
+        <v>0.04609812805037912</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.04042460391618059</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.09782655517224392</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.06727473139975559</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09714006778533218</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.09570154497986905</v>
+        <v>0.07226775091162541</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09721392867519463</v>
+        <v>0.09721822562197788</v>
       </c>
       <c r="N193" t="n">
-        <v>0.03678786680270336</v>
+        <v>0.09014943098158129</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09782655517224392</v>
+        <v>0.09706730808133952</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03688852042195953</v>
+        <v>0.02919411257083132</v>
       </c>
       <c r="G194" t="n">
+        <v>0.0460978595219151</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.03975684807996811</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.09859082513452708</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.0670470582106456</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.09789897456490508</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.09483714035116547</v>
+        <v>0.07191411140521772</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09797341249296958</v>
+        <v>0.09797774300964958</v>
       </c>
       <c r="N194" t="n">
-        <v>0.03688852042195953</v>
+        <v>0.08968648638565729</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09859082513452708</v>
+        <v>0.097825646425725</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03680190657999717</v>
+        <v>0.02875372577176095</v>
       </c>
       <c r="G195" t="n">
+        <v>0.04609759099345109</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.03956424898295127</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.09935509509681024</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.06641715992512018</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.098657881344478</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.09367212823710508</v>
+        <v>0.07078011823803407</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09873289631074453</v>
+        <v>0.09873726039732128</v>
       </c>
       <c r="N195" t="n">
-        <v>0.03680190657999717</v>
+        <v>0.08954654436544435</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09935509509681024</v>
+        <v>0.09858398477011046</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03632227000867651</v>
+        <v>0.02832094837018707</v>
       </c>
       <c r="G196" t="n">
+        <v>0.04609732246498707</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.03924855836626187</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1001193650590934</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.06528510237152432</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.0994167881240509</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.09260811462568624</v>
+        <v>0.07087117052272651</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09949238012851951</v>
+        <v>0.09949677778499298</v>
       </c>
       <c r="N196" t="n">
-        <v>0.03632227000867651</v>
+        <v>0.0885283209069519</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1001193650590934</v>
+        <v>0.09934232311449592</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03604929336426461</v>
+        <v>0.02789623888985303</v>
       </c>
       <c r="G197" t="n">
+        <v>0.04609705393652305</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.03891152797103167</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1008836350213765</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.06475095137820308</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1001756949036238</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.09124670550490749</v>
+        <v>0.06949266737194704</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1002518639462945</v>
+        <v>0.1002562951726647</v>
       </c>
       <c r="N197" t="n">
-        <v>0.03604929336426461</v>
+        <v>0.08823053199618935</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1008836350213765</v>
+        <v>0.1001006614588814</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03598265930302848</v>
+        <v>0.02748005585447377</v>
       </c>
       <c r="G198" t="n">
+        <v>0.04609678540805904</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.03835490953839245</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1016479049836597</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.06491477277350152</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1009346016831967</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.09048950686276713</v>
+        <v>0.06915000789834766</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1010113477640694</v>
+        <v>0.1010158125603364</v>
       </c>
       <c r="N198" t="n">
-        <v>0.03598265930302848</v>
+        <v>0.08805189361916638</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1016479049836597</v>
+        <v>0.1008589998032668</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03592205048123512</v>
+        <v>0.02707285778776507</v>
       </c>
       <c r="G199" t="n">
+        <v>0.04609651687959502</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.03828045480947592</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1024121749459429</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.06437663238576466</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1016935084627696</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.08943812468726348</v>
+        <v>0.06804859121458051</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1017708315818444</v>
+        <v>0.1017753299480081</v>
       </c>
       <c r="N199" t="n">
-        <v>0.03592205048123512</v>
+        <v>0.0881911217618922</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1024121749459429</v>
+        <v>0.1016173381476523</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03586714955515152</v>
+        <v>0.02667510321346912</v>
       </c>
       <c r="G200" t="n">
+        <v>0.046096248351131</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.03788991552541392</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.103176444908226</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.06393659604333748</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1024524152423425</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.08799416496639495</v>
+        <v>0.06729381643329754</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1025303153996193</v>
+        <v>0.1025348473356798</v>
       </c>
       <c r="N200" t="n">
-        <v>0.03586714955515152</v>
+        <v>0.08684693241037644</v>
       </c>
       <c r="O200" t="n">
-        <v>0.103176444908226</v>
+        <v>0.1023756764920378</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03571763918104476</v>
+        <v>0.02628725065529315</v>
       </c>
       <c r="G201" t="n">
+        <v>0.04609597982266698</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.03768504342733817</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1039407148705092</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.06279472957456497</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1032113220219154</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.08775923368815997</v>
+        <v>0.06599108266715076</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1032897992173943</v>
+        <v>0.1032943647233515</v>
       </c>
       <c r="N201" t="n">
-        <v>0.03571763918104476</v>
+        <v>0.08731804155062844</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1039407148705092</v>
+        <v>0.1031340148364232</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03577320201518178</v>
+        <v>0.02590975863697854</v>
       </c>
       <c r="G202" t="n">
+        <v>0.04609571129420297</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.03676759025638045</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1047049848327923</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.06234473926032016</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1039702288014884</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.08733493684055676</v>
+        <v>0.0652457890287923</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1040492830351692</v>
+        <v>0.1040538821110232</v>
       </c>
       <c r="N202" t="n">
-        <v>0.03577320201518178</v>
+        <v>0.08640316516865787</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1047049848327923</v>
+        <v>0.1038923531808087</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03563352071382965</v>
+        <v>0.02554308568223336</v>
       </c>
       <c r="G203" t="n">
+        <v>0.04609544276573894</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.0368393077536725</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1054692547950755</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.0621485214652647</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1047291355810613</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.08512288041158383</v>
+        <v>0.06346333463087409</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1048087668529442</v>
+        <v>0.1048133994986949</v>
       </c>
       <c r="N203" t="n">
-        <v>0.03563352071382965</v>
+        <v>0.08600101925047404</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1054692547950755</v>
+        <v>0.1046506915251942</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03519827793325533</v>
+        <v>0.02518769031479808</v>
       </c>
       <c r="G204" t="n">
+        <v>0.04609517423727493</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.03590194766034611</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1062335247573586</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.06080921186136007</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1054880423606342</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.0845246703892395</v>
+        <v>0.06264911858604816</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1055682506707191</v>
+        <v>0.1055729168863666</v>
       </c>
       <c r="N204" t="n">
-        <v>0.03519827793325533</v>
+        <v>0.08621031978208649</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1062335247573586</v>
+        <v>0.1054090298695797</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03536715632972588</v>
+        <v>0.02484403105838173</v>
       </c>
       <c r="G205" t="n">
+        <v>0.04609490570881091</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.03595726171753306</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1069977947196418</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.06083825609254995</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1062469491402071</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.0833419127615222</v>
+        <v>0.06200854000696659</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1063277344884941</v>
+        <v>0.1063324342740383</v>
       </c>
       <c r="N205" t="n">
-        <v>0.03536715632972588</v>
+        <v>0.08532978274950453</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1069977947196418</v>
+        <v>0.1061673682139651</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03473983855950828</v>
+        <v>0.02451256643672378</v>
       </c>
       <c r="G206" t="n">
+        <v>0.0460946371803469</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.03520700166636508</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.107762064681925</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.05974709980277815</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.10700585591978</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.08367621351643023</v>
+        <v>0.06004699800628144</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1070872183062691</v>
+        <v>0.10709195166171</v>
       </c>
       <c r="N206" t="n">
-        <v>0.03473983855950828</v>
+        <v>0.08515812413873786</v>
       </c>
       <c r="O206" t="n">
-        <v>0.107762064681925</v>
+        <v>0.1069257065583506</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03491600727886955</v>
+        <v>0.02419375497353433</v>
       </c>
       <c r="G207" t="n">
+        <v>0.04609436865188288</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.03475291924797397</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1085263346442081</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.05874718863598835</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1077647626993529</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.08222917864196194</v>
+        <v>0.05936989169664469</v>
       </c>
       <c r="M207" t="n">
-        <v>0.107846702124044</v>
+        <v>0.1078514690493817</v>
       </c>
       <c r="N207" t="n">
-        <v>0.03491600727886955</v>
+        <v>0.08459405993579583</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1085263346442081</v>
+        <v>0.107684044902736</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03469534514407673</v>
+        <v>0.02388805519255174</v>
       </c>
       <c r="G208" t="n">
+        <v>0.04609410012341886</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.03439676620349146</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1092906046064912</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.05864996823612439</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1085236694789258</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.08140241412611576</v>
+        <v>0.05808262019070834</v>
       </c>
       <c r="M208" t="n">
-        <v>0.108606185941819</v>
+        <v>0.1086109864370534</v>
       </c>
       <c r="N208" t="n">
-        <v>0.03469534514407673</v>
+        <v>0.08483630612668797</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1092906046064912</v>
+        <v>0.1084423832471215</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03447753481139679</v>
+        <v>0.02359592561748722</v>
       </c>
       <c r="G209" t="n">
+        <v>0.04609383159495484</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.03394029427404931</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1100548745687744</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.05766688424713001</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1092825762584987</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.08129752595689027</v>
+        <v>0.05639058260112448</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1093656697595939</v>
+        <v>0.1093705038247251</v>
       </c>
       <c r="N209" t="n">
-        <v>0.03447753481139679</v>
+        <v>0.08418357869742371</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1100548745687744</v>
+        <v>0.109200721591507</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03456225893709676</v>
+        <v>0.02331782477207801</v>
       </c>
       <c r="G210" t="n">
+        <v>0.04609356306649083</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.03318525520077935</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1108191445310576</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.05730938231294891</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1100414830380716</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.08011612012228342</v>
+        <v>0.05519917804054508</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1101251535773689</v>
+        <v>0.1101300212123968</v>
       </c>
       <c r="N210" t="n">
-        <v>0.03456225893709676</v>
+        <v>0.08453459363401244</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1108191445310576</v>
+        <v>0.1099590599358924</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03444920017744367</v>
+        <v>0.02305421118003649</v>
       </c>
       <c r="G211" t="n">
+        <v>0.04609329453802681</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.03323340072481329</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1115834144933407</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.05658890807752492</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1108003898176445</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.07965980261029387</v>
+        <v>0.05441380562162224</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1108846373951439</v>
+        <v>0.1108895386000685</v>
       </c>
       <c r="N211" t="n">
-        <v>0.03444920017744367</v>
+        <v>0.08478806692246377</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1115834144933407</v>
+        <v>0.1107173982802779</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03453804118870453</v>
+        <v>0.02280554336509863</v>
       </c>
       <c r="G212" t="n">
+        <v>0.0460930260095628</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.0325864825872829</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1123476844556239</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.05561690718480178</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1115592965972174</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.07853017940891993</v>
+        <v>0.05303986445700795</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1116441212129188</v>
+        <v>0.1116490559877402</v>
       </c>
       <c r="N212" t="n">
-        <v>0.03453804118870453</v>
+        <v>0.08374271454878707</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1123476844556239</v>
+        <v>0.1114757366246634</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03392846462714633</v>
+        <v>0.02257227985097815</v>
       </c>
       <c r="G213" t="n">
+        <v>0.04609275748109878</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.03194625252931997</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.113111954417907</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.05510482527872326</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1123182033767903</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.07812885650615997</v>
+        <v>0.05228275365935425</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1124036050306938</v>
+        <v>0.1124085733754119</v>
       </c>
       <c r="N213" t="n">
-        <v>0.03392846462714633</v>
+        <v>0.08439725249899188</v>
       </c>
       <c r="O213" t="n">
-        <v>0.113111954417907</v>
+        <v>0.1122340749690488</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03402015314903609</v>
+        <v>0.0223548791614097</v>
       </c>
       <c r="G214" t="n">
+        <v>0.04609248895263476</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.03141446229205623</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1138762243801902</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.0548641080032331</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1130771101563632</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.07675743989001238</v>
+        <v>0.05124787234131317</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1131630888484687</v>
+        <v>0.1131680907630836</v>
       </c>
       <c r="N214" t="n">
-        <v>0.03402015314903609</v>
+        <v>0.0840503967590876</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1138762243801902</v>
+        <v>0.1129924133134343</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03371278941064083</v>
+        <v>0.0223548791614097</v>
       </c>
       <c r="G215" t="n">
+        <v>0.04609248895263476</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.03139286361662347</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1146404943424734</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.05440620100227508</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1138360169359361</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.07711730895708824</v>
+        <v>0.05024061961553677</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1139225726662437</v>
+        <v>0.1139276081507553</v>
       </c>
       <c r="N215" t="n">
-        <v>0.03371278941064083</v>
+        <v>0.08280086331508374</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1146404943424734</v>
+        <v>0.1137507516578198</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03410605606822756</v>
+        <v>0.02178289089264764</v>
       </c>
       <c r="G216" t="n">
+        <v>0.04607235973451899</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.03068320824415346</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1154047643047565</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.05463315763318038</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1145949237155091</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.07529108837252851</v>
+        <v>0.04916639459467703</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1146820564840187</v>
+        <v>0.114687125538427</v>
       </c>
       <c r="N216" t="n">
-        <v>0.03410605606822756</v>
+        <v>0.08334736815298971</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1154047643047565</v>
+        <v>0.1145090900022052</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03379963577806329</v>
+        <v>0.02121745277869419</v>
       </c>
       <c r="G217" t="n">
+        <v>0.04605223051640321</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.03018724791577793</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1161690342670397</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.05417890932933886</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.115353830495082</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.07546731727979694</v>
+        <v>0.04803059639138596</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1154415403017936</v>
+        <v>0.1154466429260987</v>
       </c>
       <c r="N217" t="n">
-        <v>0.03379963577806329</v>
+        <v>0.08218862725881515</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1161690342670397</v>
+        <v>0.1152674283465907</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03379321119641504</v>
+        <v>0.02065890931985844</v>
       </c>
       <c r="G218" t="n">
+        <v>0.04603210129828744</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.03020673437262869</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1169333042293228</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.05402845077242879</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1161127372746549</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.07494626888570211</v>
+        <v>0.04723862411831564</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1162010241195686</v>
+        <v>0.1162061603137704</v>
       </c>
       <c r="N218" t="n">
-        <v>0.03379321119641504</v>
+        <v>0.08302335661856936</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1169333042293228</v>
+        <v>0.1160257666909762</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03368646497954982</v>
+        <v>0.02010760501644877</v>
       </c>
       <c r="G219" t="n">
+        <v>0.04601197208017166</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.02994341935583748</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.117697574191606</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.05378184918429549</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1168716440542278</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.07382821639705239</v>
+        <v>0.04589587688811811</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1169605079373435</v>
+        <v>0.1169656777014421</v>
       </c>
       <c r="N219" t="n">
-        <v>0.03368646497954982</v>
+        <v>0.0828502722182618</v>
       </c>
       <c r="O219" t="n">
-        <v>0.117697574191606</v>
+        <v>0.1167841050353616</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03337907978373464</v>
+        <v>0.01956388436877421</v>
       </c>
       <c r="G220" t="n">
+        <v>0.04599184286205589</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.02949905460653608</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1184618441538891</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.05313917178678437</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1176305508338007</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.07281343302065635</v>
+        <v>0.04540775381344542</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1177199917551185</v>
+        <v>0.1177251950891138</v>
       </c>
       <c r="N220" t="n">
-        <v>0.03337907978373464</v>
+        <v>0.08136809004390205</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1184618441538891</v>
+        <v>0.1175424433797471</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03327073826523652</v>
+        <v>0.01902809187714316</v>
       </c>
       <c r="G221" t="n">
+        <v>0.04597171364394011</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.02877539186585625</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1192261141161723</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.05330048580174085</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1183894576133736</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.07300219196332214</v>
+        <v>0.04407965400694952</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1184794755728935</v>
+        <v>0.1184847124767855</v>
       </c>
       <c r="N221" t="n">
-        <v>0.03327073826523652</v>
+        <v>0.08137552608149951</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1192261141161723</v>
+        <v>0.1183007817241326</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03346112308032245</v>
+        <v>0.01850057204186465</v>
       </c>
       <c r="G222" t="n">
+        <v>0.04595158442582434</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.02867418287492975</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1199903840784554</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.0528658584510103</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1191483643929465</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.07249476643185837</v>
+        <v>0.0438169765812825</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1192389593906684</v>
+        <v>0.1192442298644572</v>
       </c>
       <c r="N222" t="n">
-        <v>0.03346112308032245</v>
+        <v>0.08167129631706371</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1199903840784554</v>
+        <v>0.119059120068518</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03294991688525947</v>
+        <v>0.0179816693632471</v>
       </c>
       <c r="G223" t="n">
+        <v>0.04593145520770856</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.02819717937488835</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1207546540407386</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.05233535695643812</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1199072711725194</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.07099142963307359</v>
+        <v>0.04242512064909637</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1199984432084434</v>
+        <v>0.1200037472521289</v>
       </c>
       <c r="N223" t="n">
-        <v>0.03294991688525947</v>
+        <v>0.0812541167366041</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1207546540407386</v>
+        <v>0.1198174584129035</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03303680233631458</v>
+        <v>0.01747172834159953</v>
       </c>
       <c r="G224" t="n">
+        <v>0.04591132598959279</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.0280461331068638</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1215189240030217</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.05290904853986975</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1206661779520923</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.07109245477377607</v>
+        <v>0.04240948532304317</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1207579270262183</v>
+        <v>0.1207632646398006</v>
       </c>
       <c r="N224" t="n">
-        <v>0.03303680233631458</v>
+        <v>0.08002270332613004</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1215189240030217</v>
+        <v>0.120575796757289</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.0328214620897548</v>
+        <v>0.01697109347723048</v>
       </c>
       <c r="G225" t="n">
+        <v>0.04589119677147702</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.02812279581198786</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1222831939653049</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.05238700042315053</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1214250847316652</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.07019811506077434</v>
+        <v>0.04157546971577483</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1215174108439933</v>
+        <v>0.1215227820274723</v>
       </c>
       <c r="N225" t="n">
-        <v>0.0328214620897548</v>
+        <v>0.08007577207165112</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1222831939653049</v>
+        <v>0.1213341351016744</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03250357880184714</v>
+        <v>0.01648010927044856</v>
       </c>
       <c r="G226" t="n">
+        <v>0.04587106755336125</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.02792891923139235</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1230474639275881</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.05186927982812589</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1221839915112381</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.07000868370087682</v>
+        <v>0.04062847293994357</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1222768946617682</v>
+        <v>0.122282299415144</v>
       </c>
       <c r="N226" t="n">
-        <v>0.03250357880184714</v>
+        <v>0.07931203895917677</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1230474639275881</v>
+        <v>0.1220924734460599</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0328828351288586</v>
+        <v>0.01599912022156275</v>
       </c>
       <c r="G227" t="n">
+        <v>0.04585093833524547</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.02766625510620897</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1238117338898712</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.05195595397664124</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.122942898290811</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.06892443390089192</v>
+        <v>0.04107389410820131</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1230363784795432</v>
+        <v>0.1230418168028157</v>
       </c>
       <c r="N227" t="n">
-        <v>0.0328828351288586</v>
+        <v>0.07923021997471652</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1238117338898712</v>
+        <v>0.1228508117904454</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03235936930947475</v>
+        <v>0.01552847083088149</v>
       </c>
       <c r="G228" t="n">
+        <v>0.04583080911712969</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.02743655517756954</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1245760038521544</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.05184709009054192</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1237018050703839</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.06804563886762821</v>
+        <v>0.04091713233320005</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1237958622973181</v>
+        <v>0.1238013341904875</v>
       </c>
       <c r="N228" t="n">
-        <v>0.03235936930947475</v>
+        <v>0.07892903110427973</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1245760038521544</v>
+        <v>0.1236091501348308</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03213568529102893</v>
+        <v>0.01506850559871378</v>
       </c>
       <c r="G229" t="n">
+        <v>0.04581067989901393</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.02724157118660578</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1253402738144375</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.05144275539167334</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1244607118499569</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.06827257180789387</v>
+        <v>0.04006358672759189</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1245553461150931</v>
+        <v>0.1245608515781592</v>
       </c>
       <c r="N229" t="n">
-        <v>0.03213568529102893</v>
+        <v>0.07810718833387587</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1253402738144375</v>
+        <v>0.1243674884792163</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03251221599848879</v>
+        <v>0.01461956902536807</v>
       </c>
       <c r="G230" t="n">
+        <v>0.04579055068089815</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.02738283045348028</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1261045437767207</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.05074301710188098</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1252196186295298</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.06760550592849768</v>
+        <v>0.04061810780112929</v>
       </c>
       <c r="M230" t="n">
-        <v>0.125314829932868</v>
+        <v>0.1253203689658309</v>
       </c>
       <c r="N230" t="n">
-        <v>0.03251221599848879</v>
+        <v>0.07806341120922072</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1261045437767207</v>
+        <v>0.1251258268236017</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03238896254333601</v>
+        <v>0.01418200561115333</v>
       </c>
       <c r="G231" t="n">
+        <v>0.04577042146278237</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.02743952952381323</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1268688137390038</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.05084794244301019</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1259785254091027</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.06724471443624774</v>
+        <v>0.04051824576796917</v>
       </c>
       <c r="M231" t="n">
-        <v>0.126074313750643</v>
+        <v>0.1260798863535026</v>
       </c>
       <c r="N231" t="n">
-        <v>0.03238896254333601</v>
+        <v>0.07769719476600528</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1268688137390038</v>
+        <v>0.1258841651679872</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03206592603705227</v>
+        <v>0.01375615985637803</v>
       </c>
       <c r="G232" t="n">
+        <v>0.0457502922446666</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.02699720853158412</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.127633083701287</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.0511575986369063</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1267374321886756</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.06649047053795276</v>
+        <v>0.04011907052891023</v>
       </c>
       <c r="M232" t="n">
-        <v>0.126833797568418</v>
+        <v>0.1268394037411743</v>
       </c>
       <c r="N232" t="n">
-        <v>0.03206592603705227</v>
+        <v>0.07730906545396066</v>
       </c>
       <c r="O232" t="n">
-        <v>0.127633083701287</v>
+        <v>0.1266425035123727</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03184310759111929</v>
+        <v>0.01334237626135113</v>
       </c>
       <c r="G233" t="n">
+        <v>0.04573016302655083</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.02695588671688876</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1283973536635702</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.05027205290541478</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1274963389682485</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.06644304744042107</v>
+        <v>0.04012120743125397</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1275932813861929</v>
+        <v>0.127598921128846</v>
       </c>
       <c r="N233" t="n">
-        <v>0.03184310759111929</v>
+        <v>0.07699949410724788</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1283973536635702</v>
+        <v>0.1274008418567581</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03192050831701869</v>
+        <v>0.0129409993263811</v>
       </c>
       <c r="G234" t="n">
+        <v>0.04571003380843505</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.02741558331982298</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1291616236258533</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.05029137247038104</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1282552457478214</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.06490271835046107</v>
+        <v>0.04052528182230186</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1283527652039679</v>
+        <v>0.1283584385165177</v>
       </c>
       <c r="N234" t="n">
-        <v>0.03192050831701869</v>
+        <v>0.07566895156002834</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1291616236258533</v>
+        <v>0.1281591802011436</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03169812932623219</v>
+        <v>0.01255237355177691</v>
       </c>
       <c r="G235" t="n">
+        <v>0.04568990459031928</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.0268763175804826</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1299258935881365</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.05071562455365036</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1290141525273943</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.06446975647488129</v>
+        <v>0.04053191904935541</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1291122490217428</v>
+        <v>0.1291179559041894</v>
       </c>
       <c r="N235" t="n">
-        <v>0.03169812932623219</v>
+        <v>0.07531790864646326</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1299258935881365</v>
+        <v>0.128917518545529</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03147597173024151</v>
+        <v>0.01217684343784715</v>
       </c>
       <c r="G236" t="n">
+        <v>0.04566977537220351</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.02723810873896347</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1306901635504196</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.0501448763770683</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1297730593069672</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.06454443502049012</v>
+        <v>0.04024174445971615</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1298717328395178</v>
+        <v>0.1298774732918611</v>
       </c>
       <c r="N236" t="n">
-        <v>0.03147597173024151</v>
+        <v>0.07494683620071368</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1306901635504196</v>
+        <v>0.1296758568899145</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03165403664052831</v>
+        <v>0.01181475348490042</v>
       </c>
       <c r="G237" t="n">
+        <v>0.04564964615408773</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.0273009760353614</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1314544335127028</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.04997919516248014</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1305319660865401</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.06362702719409608</v>
+        <v>0.04005538340068551</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1306312166572928</v>
+        <v>0.1306369906795328</v>
       </c>
       <c r="N237" t="n">
-        <v>0.03165403664052831</v>
+        <v>0.07505620505694105</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1314544335127028</v>
+        <v>0.1304341952343</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03103232516857425</v>
+        <v>0.01146644819324567</v>
       </c>
       <c r="G238" t="n">
+        <v>0.04562951693597196</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.02716493870977224</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1322187034749859</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.05011864813173136</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.131290872866113</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.06381780620250743</v>
+        <v>0.03987346121956506</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1313907004750677</v>
+        <v>0.1313965080672045</v>
       </c>
       <c r="N238" t="n">
-        <v>0.03103232516857425</v>
+        <v>0.0746464860493064</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1322187034749859</v>
+        <v>0.1311925335786855</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03091083842586108</v>
+        <v>0.01113227206319141</v>
       </c>
       <c r="G239" t="n">
+        <v>0.04560938771785619</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.0271300160022918</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1329829734372691</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.04916330250666726</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1320497796456859</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.06321704525253286</v>
+        <v>0.04069660326365629</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1321501842928427</v>
+        <v>0.1321560254548762</v>
       </c>
       <c r="N239" t="n">
-        <v>0.03091083842586108</v>
+        <v>0.07321815001197113</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1329829734372691</v>
+        <v>0.1319508719230709</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03118957752387042</v>
+        <v>0.0108111628854526</v>
       </c>
       <c r="G240" t="n">
+        <v>0.04558925849974041</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.02669622715301595</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1337472433995522</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.04911322550913336</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1328086864252588</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.06252501755098061</v>
+        <v>0.04082543488026066</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1329096681106176</v>
+        <v>0.1329155428425479</v>
       </c>
       <c r="N240" t="n">
-        <v>0.03118957752387042</v>
+        <v>0.07207166777909635</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1337472433995522</v>
+        <v>0.1327092102674564</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03116854357408401</v>
+        <v>0.01049502490277422</v>
       </c>
       <c r="G241" t="n">
+        <v>0.04556912928162463</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.02696359140204044</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1345115133618354</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.04886848436097491</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1335675932048318</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.0618419963046592</v>
+        <v>0.04066058141667966</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1336691519283926</v>
+        <v>0.1336750602302196</v>
       </c>
       <c r="N241" t="n">
-        <v>0.03116854357408401</v>
+        <v>0.07140751018484326</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1345115133618354</v>
+        <v>0.1334675486118418</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.0307477376879835</v>
+        <v>0.01018279590587123</v>
       </c>
       <c r="G242" t="n">
+        <v>0.04554900006350886</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.02673212798946119</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1352757833241185</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.04872914628403743</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1343264999844047</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.06056825472037702</v>
+        <v>0.04070266822021484</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1344286357461676</v>
+        <v>0.1344345776178913</v>
       </c>
       <c r="N242" t="n">
-        <v>0.0307477376879835</v>
+        <v>0.07132614806337317</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1352757833241185</v>
+        <v>0.1342258869562273</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03052716097705059</v>
+        <v>0.009874820395052178</v>
       </c>
       <c r="G243" t="n">
+        <v>0.04552887084539309</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.02690185615537397</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1360400532864017</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.04879527850016629</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1350854067639776</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.06010406600494261</v>
+        <v>0.04065232063816768</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1351881195639425</v>
+        <v>0.135194095005563</v>
       </c>
       <c r="N243" t="n">
-        <v>0.03052716097705059</v>
+        <v>0.07012805224884722</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1360400532864017</v>
+        <v>0.1349842253006128</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03040681455276696</v>
+        <v>0.009571442870625953</v>
       </c>
       <c r="G244" t="n">
+        <v>0.04550874162727731</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.02667279513987462</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1368043232486849</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.04906694823120686</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1358443135435505</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.05974970336516439</v>
+        <v>0.04051016401783966</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1359476033817175</v>
+        <v>0.1359536123932347</v>
       </c>
       <c r="N244" t="n">
-        <v>0.03040681455276696</v>
+        <v>0.07011369357542663</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1368043232486849</v>
+        <v>0.1357425636449983</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03058669952661429</v>
+        <v>0.009273007832901171</v>
       </c>
       <c r="G245" t="n">
+        <v>0.04548861240916154</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.02664496418305902</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.137568593210968</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.04864422269900451</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1366032203231234</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.0599054400078507</v>
+        <v>0.04057682370653229</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1367070871994924</v>
+        <v>0.1367131297809064</v>
       </c>
       <c r="N245" t="n">
-        <v>0.03058669952661429</v>
+        <v>0.06878354287727273</v>
       </c>
       <c r="O245" t="n">
-        <v>0.137568593210968</v>
+        <v>0.1365009019893837</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03036681701007431</v>
+        <v>0.008979859782186482</v>
       </c>
       <c r="G246" t="n">
+        <v>0.04546848319104577</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.02691838252502292</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1383328631732512</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.04882716912540472</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1373621271026963</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.0586715491398101</v>
+        <v>0.04045292505154707</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1374665710172674</v>
+        <v>0.1374726471685781</v>
       </c>
       <c r="N246" t="n">
-        <v>0.03036681701007431</v>
+        <v>0.06883807098854661</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1383328631732512</v>
+        <v>0.1372592403337692</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03034716811462866</v>
+        <v>0.008692343218790761</v>
       </c>
       <c r="G247" t="n">
+        <v>0.04544835397292999</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.02679306940586219</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1390971331355343</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.04881585473225281</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1381210338822692</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.05954830396785094</v>
+        <v>0.04083909340018549</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1382260548350424</v>
+        <v>0.1382321645562498</v>
       </c>
       <c r="N247" t="n">
-        <v>0.03034716811462866</v>
+        <v>0.06737774874340957</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1390971331355343</v>
+        <v>0.1380175786781546</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03022775395175906</v>
+        <v>0.008410802643022568</v>
       </c>
       <c r="G248" t="n">
+        <v>0.04542822475481421</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.02676904406567265</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1398614030978175</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.04831034674139426</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1388799406618421</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.05833597769878174</v>
+        <v>0.04083595409974908</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1389855386528173</v>
+        <v>0.1389916819439215</v>
       </c>
       <c r="N248" t="n">
-        <v>0.03022775395175906</v>
+        <v>0.06710304697602276</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1398614030978175</v>
+        <v>0.1387759170225401</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03020857563294717</v>
+        <v>0.008135582555190778</v>
       </c>
       <c r="G249" t="n">
+        <v>0.04540809553669845</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.02654632574455017</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1406256730601006</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.04871071237467436</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.139638847441415</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.05743484353941086</v>
+        <v>0.04084413249753929</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1397450224705923</v>
+        <v>0.1397511993315932</v>
       </c>
       <c r="N249" t="n">
-        <v>0.03020857563294717</v>
+        <v>0.06631443652054747</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1406256730601006</v>
+        <v>0.1395342553669256</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03008963426967469</v>
+        <v>0.007867027455603956</v>
       </c>
       <c r="G250" t="n">
+        <v>0.04538796631858267</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.02682493368259051</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1413899430223838</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.04791701885393856</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1403977542209879</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.05804517469654674</v>
+        <v>0.04096425394085765</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1405045062883672</v>
+        <v>0.1405107167192649</v>
       </c>
       <c r="N250" t="n">
-        <v>0.03008963426967469</v>
+        <v>0.06471238821114489</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1413899430223838</v>
+        <v>0.140292593711311</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02977093097342329</v>
+        <v>0.007605481844570959</v>
       </c>
       <c r="G251" t="n">
+        <v>0.0453678371004669</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.02660488711988958</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.142154212984667</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.04782933340103229</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1411566610005608</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.05736724437699803</v>
+        <v>0.04149694377700563</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1412639901061422</v>
+        <v>0.1412702341069366</v>
       </c>
       <c r="N251" t="n">
-        <v>0.02977093097342329</v>
+        <v>0.06509737288197626</v>
       </c>
       <c r="O251" t="n">
-        <v>0.142154212984667</v>
+        <v>0.1410509320556965</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02955246685567468</v>
+        <v>0.007351290222400365</v>
       </c>
       <c r="G252" t="n">
+        <v>0.04534770788235112</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.02648620529654314</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1429184829469501</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.04844772323780092</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1419155677801337</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.05640132578757284</v>
+        <v>0.04154282735328479</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1420234739239171</v>
+        <v>0.1420297514946083</v>
       </c>
       <c r="N252" t="n">
-        <v>0.02955246685567468</v>
+        <v>0.06436986136720274</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1429184829469501</v>
+        <v>0.141809270400082</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02933424302791056</v>
+        <v>0.007104797089401045</v>
       </c>
       <c r="G253" t="n">
+        <v>0.04532757866423535</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.02676890745264704</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1436827529092333</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.04837225558608982</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1426744745597066</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.05664769213507992</v>
+        <v>0.04130253001699655</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1427829577416921</v>
+        <v>0.14278926888228</v>
       </c>
       <c r="N253" t="n">
-        <v>0.02933424302791056</v>
+        <v>0.06243032450098568</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1436827529092333</v>
+        <v>0.1425676087444674</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02941626060161255</v>
+        <v>0.006866346945881563</v>
       </c>
       <c r="G254" t="n">
+        <v>0.04530744944611957</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.02685301282829712</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1444470228715164</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.04790299766774442</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1434333813392795</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.05670661662632748</v>
+        <v>0.04197667711544248</v>
       </c>
       <c r="M254" t="n">
-        <v>0.143542441559467</v>
+        <v>0.1435487862699517</v>
       </c>
       <c r="N254" t="n">
-        <v>0.02941626060161255</v>
+        <v>0.06127923311748612</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1444470228715164</v>
+        <v>0.1433259470888529</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02909852068826242</v>
+        <v>0.006636284292150768</v>
       </c>
       <c r="G255" t="n">
+        <v>0.0452873202280038</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.02663854066358921</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1452112928337995</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.04824001670461012</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1441922881188525</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.05597837246812409</v>
+        <v>0.04166589399592402</v>
       </c>
       <c r="M255" t="n">
-        <v>0.144301925377242</v>
+        <v>0.1443083036576234</v>
       </c>
       <c r="N255" t="n">
-        <v>0.02909852068826242</v>
+        <v>0.06041705805086534</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1452112928337995</v>
+        <v>0.1440842854332384</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02888102439934179</v>
+        <v>0.006414953628517323</v>
       </c>
       <c r="G256" t="n">
+        <v>0.04526719100988803</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.02632551019861915</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1459755627960827</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.0474833799185323</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1449511948984254</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.05536323286727812</v>
+        <v>0.04187080600574269</v>
       </c>
       <c r="M256" t="n">
-        <v>0.145061409195017</v>
+        <v>0.1450678210452951</v>
       </c>
       <c r="N256" t="n">
-        <v>0.02888102439934179</v>
+        <v>0.06014427013528473</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1459755627960827</v>
+        <v>0.1448426237776238</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02906377284633237</v>
+        <v>0.006202699455289874</v>
       </c>
       <c r="G257" t="n">
+        <v>0.04524706179177225</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.02631394067348274</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1467398327583659</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.04813315453135639</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1457101016779983</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.05476147103059803</v>
+        <v>0.04259203849220003</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1458208930127919</v>
+        <v>0.1458273384329668</v>
       </c>
       <c r="N257" t="n">
-        <v>0.02906377284633237</v>
+        <v>0.05866134020490527</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1467398327583659</v>
+        <v>0.1456009621220093</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02894676714071587</v>
+        <v>0.005999866272777266</v>
       </c>
       <c r="G258" t="n">
+        <v>0.04522693257365648</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.02640385132827583</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.147504102720649</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.04748940776492772</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1464690084575712</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.05537336016489242</v>
+        <v>0.04243021680259748</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1465803768305669</v>
+        <v>0.1465868558206385</v>
       </c>
       <c r="N258" t="n">
-        <v>0.02894676714071587</v>
+        <v>0.05846873909388839</v>
       </c>
       <c r="O258" t="n">
-        <v>0.147504102720649</v>
+        <v>0.1463593004663948</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02893000839397397</v>
+        <v>0.005806798581288103</v>
       </c>
       <c r="G259" t="n">
+        <v>0.0452068033555407</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.02679526140309424</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1482683726829322</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.04775220684109174</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1472279152371441</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.05489917347696949</v>
+        <v>0.04248596628423656</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1473398606483418</v>
+        <v>0.1473463732083102</v>
       </c>
       <c r="N259" t="n">
-        <v>0.02893000839397397</v>
+        <v>0.0575669376363952</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1482683726829322</v>
+        <v>0.1471176388107802</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02861349771758834</v>
+        <v>0.005623840881131201</v>
       </c>
       <c r="G260" t="n">
+        <v>0.04518667413742493</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.0265881901380338</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1490326426452153</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.04742161898169381</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.147986822016717</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.0538391841736377</v>
+        <v>0.04275991228441875</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1480993444661168</v>
+        <v>0.1481058905959819</v>
       </c>
       <c r="N260" t="n">
-        <v>0.02861349771758834</v>
+        <v>0.05705640666658685</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1490326426452153</v>
+        <v>0.1478759771551657</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02879723622304065</v>
+        <v>0.005451337672615193</v>
       </c>
       <c r="G261" t="n">
+        <v>0.04516654491930915</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.02678265677319036</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1497969126074985</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.04759771140857941</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1487457287962899</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.0539936654617057</v>
+        <v>0.04335268015044558</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1488588282838918</v>
+        <v>0.1488654079836536</v>
       </c>
       <c r="N261" t="n">
-        <v>0.02879723622304065</v>
+        <v>0.05623761701862467</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1497969126074985</v>
+        <v>0.1486343154995512</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02838122502181262</v>
+        <v>0.005289633456048867</v>
       </c>
       <c r="G262" t="n">
+        <v>0.04514641570119338</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.02677868054865973</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1505611825697817</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.04778055134359385</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1495046355758628</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.0545628905479818</v>
+        <v>0.04416489522961856</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1496183121016667</v>
+        <v>0.1496249253713253</v>
       </c>
       <c r="N262" t="n">
-        <v>0.02838122502181262</v>
+        <v>0.05431103952666988</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1505611825697817</v>
+        <v>0.1493926538439366</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02826546522538592</v>
+        <v>0.005139072731740871</v>
       </c>
       <c r="G263" t="n">
+        <v>0.04512628648307761</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.02627628070453773</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1513254525320648</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.04807020600858256</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1502635423554357</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.05454713263927441</v>
+        <v>0.04379718286923912</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1503777959194417</v>
+        <v>0.150384442758997</v>
       </c>
       <c r="N263" t="n">
-        <v>0.02826546522538592</v>
+        <v>0.05457714502488364</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1513254525320648</v>
+        <v>0.1501509921883221</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02804995794524226</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.04510615726496183</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.02627547648092024</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.152089722494348</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.04726674262539091</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1510224491350086</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.054246664942392</v>
+        <v>0.04415016841660882</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1511372797372166</v>
+        <v>0.1511439601466687</v>
       </c>
       <c r="N264" t="n">
-        <v>0.02804995794524226</v>
+        <v>0.05323640434742721</v>
       </c>
       <c r="O264" t="n">
-        <v>0.152089722494348</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1509093305327076</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04509299937022499</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005610597368501301</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.045093267898689</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006217632371766417</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04509353642715302</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006821061500025566</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04509380495561705</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007420841243561613</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04509407348408107</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008016928092605069</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04509434201254508</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008609278537438508</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.0450946105410091</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009197849068292775</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04509487906947311</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.009782596175450076</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04509514759793713</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01036347634914159</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04509541612640115</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01094044607964924</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04509568465486517</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.0115134618572045</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04509595318332918</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01208248017208895</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.0450962217117932</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01264745751453442</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04509649024025721</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01320835037482215</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04509675876872123</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01376511524318432</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04509702729718525</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01431770860990179</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04509729582564927</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01486608696520713</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04509756435411329</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01541020679936904</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.0450978328825773</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01595002460265581</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04509810141104132</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01648549686530058</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04509836993950533</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01701658007758328</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04509863846796935</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01754323072973741</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04509890699643337</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.0180654053120425</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04509917552489739</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01858306031473246</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.0450994440533614</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01909632989287189</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04509971258182542</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01960623652540794</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04509998111028943</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02011291436740486</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04510024963875345</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02061631990909726</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04510051816721748</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02111640964076364</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.0451007866956815</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02161314005263886</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04510105522414551</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02210646763500117</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04510132375260953</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02259634887808572</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04510159228107354</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02308274027215987</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04510186080953756</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02356559830749072</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04510212933800158</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02404487947431388</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04510239786646559</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02452054026290686</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04510266639492961</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02499253716350554</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04510293492339362</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02546082666638706</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04510320345185764</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02592536526178769</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04510347198032166</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02638610943998426</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04510374050878568</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02684301569121336</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.0451040090372497</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02729604050575142</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04510427756571372</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.02774514037383542</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04510454609417773</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.02819027178574149</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04510481462264175</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.0286313912317069</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04510508315110576</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.0290684552020074</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04510535167956978</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.02950142018688066</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.0451056202080338</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.02993024267660212</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04510588873649782</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03035487916140969</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04510615726496183</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03035487916140971</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04509299937022499</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03079429166172923</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.0451136656452688</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03122941211255166</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04513433192031261</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03166010955168895</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04515499819535642</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03208625301695346</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04517566447040023</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03250771154615718</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04519633074544403</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03292435417711241</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04521699702048784</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03333604994763142</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04523766329553165</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03374266789552616</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04525832957057546</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.0341440770586089</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04527899584561926</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03454014647469197</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04529966212066307</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03493074518158729</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04532032839570688</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03531574221710725</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04534099467075069</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03569500661906384</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.0453616609457945</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03606840742526933</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04538232722083831</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.03643581367353602</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04540299349588212</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.03679709440167583</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04542365977092593</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.03715211864750119</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04544432604596974</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.03750075544882404</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04546499232101354</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.03784287384345668</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04548565859605735</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.03817834286921136</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04550632487110116</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.03850703156390008</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04552699114614497</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.03882880896533521</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04554765742118878</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.03914354411132873</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04556832369623259</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.0394511060396929</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04558898997127639</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.03975189855050697</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04560965624632021</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04004899925518456</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04563032252136401</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04034281195380496</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04565098879640781</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04063320568418037</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04567165507145163</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04092004948412283</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04569232134649543</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04120321239144464</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04571298762153925</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04148256344395787</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04573365389658305</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04175797167947476</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04575432017162686</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04202930613580753</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04577498644667067</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04229643585076825</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04579565272171447</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04255922986216921</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04581631899675829</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04281755720782246</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04583698527180209</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.04307128692554023</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.0458576515468459</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.04332028805313479</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04587831782188971</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04356442962841815</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04589898409693351</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.04380358068920256</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04591965037197732</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.0440376102733003</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04594031664702113</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.04426638741852339</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04596098292206494</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.04448978116268411</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04598164919710875</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.04470766054359453</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04600231547215256</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.04491989459906691</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04602298174719636</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.04512635236691344</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04604364802224017</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.04532690288494623</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04606431429728398</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.04552141519097753</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04608498057232779</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.0457097583228194</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.0461056468473716</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04570975832281941</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.0461056468473716</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.04687004980318732</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.04758139337752303</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.04799502414397189</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.04905713990767444</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.04908429641516568</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05053288643782587</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05013748168676119</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05200863296797729</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.05115419502875093</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05348437949812872</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.05213405151112742</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.05496012602828014</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.05307666620388317</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.05643587255843157</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.0539816541770107</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.05791161908858299</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.05484863050050251</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.05938736561873441</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.05567721024435114</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06086311214888583</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.0564670084785491</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06233885867903726</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.05721764027308889</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.06381460520918869</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.057928720697963</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.06529035173934011</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.05859986482316398</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.06676609826949154</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05923068771868435</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.06824184479964296</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05982080445451661</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.06971759132979438</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.06036983010065328</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.0711933378599458</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.06087737972708687</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07266908439009723</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.06134306840380989</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.07414483092024865</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.06176651120081486</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.07562057745040007</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.06214732318809428</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.0770963239805515</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.06248511943564068</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.07857207051070292</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.0627795150134466</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08004781704085434</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.06303012499150451</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08152356357100576</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.06323656443980694</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.0829993101011572</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.06339844842834641</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.08447505663130862</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.06351539202711541</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.08595080316146005</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.06361301109709255</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.08742654969161147</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.06361291833531214</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.08890229622176289</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.06358615172425514</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09037804275191433</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.06350051190268759</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.09185378928206574</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.06335970610054867</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.09332953581221716</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.06316747449258482</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.09480528234236858</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.06292755725354254</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.09628102887252001</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.06264369455816828</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.09775677540267143</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.0623196265812085</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.09923252193282285</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.0619590934974097</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1007082684629743</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.06156583548151832</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1021840149931257</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.06114359270828083</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1036597615232771</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.06069610535244371</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1051355080534286</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.06022711358875343</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.10661125458358</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.05974035759195642</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1080870011137314</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.05923957753679922</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1095627476438828</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.05872851359802822</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1110384941740343</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.05821090595038994</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1125142407041857</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.05769049476863081</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1139899872343371</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.05717102022749734</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1154657337644885</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.05665622250173596</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1169414802946399</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.05614984176609317</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1184172268247914</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.05565561819531539</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1198929733549428</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.05517729196414914</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1213687198850942</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.05471839009586581</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1228444664152456</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.05424802778516755</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1243202129453971</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.05374469884172245</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1257959594755485</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.05321200535131221</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1272717060056999</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.05265354939971846</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1287474525358513</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.05207293307272286</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1302231990660028</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.0514737584561071</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1316989455961542</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.05085962763565284</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1331746921263056</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.05023414269714173</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.134650438656457</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.04960090572635545</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1361261851866085</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.04896351880907564</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1376019317167599</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.04832558403108399</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1390776782469113</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.04769070347816215</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1405534247770627</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.04706247923609179</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1420291713072142</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.04644451339065456</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1435049178373656</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.04584040802763216</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.144980664367517</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.04525376523280622</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1464564108976684</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.04468818709195845</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1479321574278198</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.04414727569087044</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.04363463311532391</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1508836504881227</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.04315386145110052</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1523593970182741</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.04270856278398193</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1538351435484255</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.04230233919974978</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.155310890078577</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.04193879278418577</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1567866366087284</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.04162152562307155</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1582623831388798</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.04135137882911791</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1597381296690312</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.04109342959194966</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1612138761991827</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.04083691062222053</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1626896227293341</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.04058285307796633</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1641653692594855</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.04033228811722291</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1656411157896369</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.0400862468980261</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1671168623197884</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03984576057841172</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1685926088499398</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03961186031641559</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1700683553800912</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03938557727007352</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1715441019102426</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03916794259742136</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1730198484403941</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03895998745649494</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1744955949705455</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.0387627430053301</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1759713415006969</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03857724040196263</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1774470880308483</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03840451080442837</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1789228345609997</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03824558537076317</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1803985810911512</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03810149525900283</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1818743276213026</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03797327162718318</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.183350074151454</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03786194563334006</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.1848258206816054</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03776854843550928</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.1863015672117569</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03769411119172669</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.1877773137419083</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03763966506002808</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.1892530602720597</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03760624119844933</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.1907288068022111</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03759487076502623</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.1922045533323626</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1067.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1067.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08180650554854628</v>
+        <v>0.1009790332912777</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03180650554854628</v>
+        <v>0.05097903329127768</v>
       </c>
       <c r="B65" t="n">
-        <v>0.006135646847371595</v>
+        <v>0.009834131084229578</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.00452454684583678</v>
+        <v>0.009345938502636</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0004657136045189051</v>
+        <v>0.001631639897494874</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.015</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0009452364864864864</v>
+        <v>0.002025506756756756</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01816982309694209</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007595173876717022</v>
+        <v>0.0009464984844657737</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.03199999999999997</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0008230630630630624</v>
+        <v>0.0009832557071634735</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.008788643543769119</v>
+        <v>0.02427573013870366</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.0009314272090378101</v>
+        <v>0.003278043694743192</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01021442008457587</v>
+        <v>0.01901291539284412</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001528539924566311</v>
+        <v>0.003225514862186138</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02799999999999997</v>
+        <v>0.04871439264546593</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001247836945856746</v>
+        <v>0.002839495453397321</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.05201846027780122</v>
+        <v>0.07229460971242835</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.00151667668877093</v>
+        <v>0.00294976712149042</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01273524707233643</v>
+        <v>0.02349908653993671</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001397140813556715</v>
+        <v>0.004894919692484624</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01451354491052749</v>
+        <v>0.02290512682971087</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002292809886849467</v>
+        <v>0.004838272293279208</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.04155560975400321</v>
+        <v>0.05538038125183625</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002278552163015106</v>
+        <v>0.00478947292418062</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.06785798209800531</v>
+        <v>0.08197171030277423</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002275015033156395</v>
+        <v>0.004791135311136797</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01630731441007812</v>
+        <v>0.0366887160248064</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.00186285441807562</v>
+        <v>0.006526559589979498</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01909085661059992</v>
+        <v>0.02513417557850348</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003057079849132623</v>
+        <v>0.006076520270270269</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04871439264546593</v>
+        <v>0.06066740007148202</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003101409129489011</v>
+        <v>0.006385963898907493</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.07229460971242835</v>
+        <v>0.08937941993508614</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002656384951466962</v>
+        <v>0.006388180414849062</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.02427573013870366</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01944780253553359</v>
+        <v>0.04479686819733326</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.002328568022594525</v>
+        <v>0.008158199487474373</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02241847095711642</v>
+        <v>0.02794283405379487</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003821349811415778</v>
+        <v>0.008063787155465347</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.0497989123581461</v>
+        <v>0.06546422799723212</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003797586938358511</v>
+        <v>0.007982454873634366</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.07701379156318</v>
+        <v>0.09562516721707559</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003791691721927325</v>
+        <v>0.00798522551856133</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02209966842724224</v>
+        <v>0.05097903329127768</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00279428162711343</v>
+        <v>0.009834131084229578</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02513417557850348</v>
+        <v>0.02973936763841852</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004848518329501852</v>
+        <v>0.009676544586558415</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.05240571271333802</v>
+        <v>0.06943549558542381</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004557104326030213</v>
+        <v>0.009578945848361241</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.07957717749087156</v>
+        <v>0.101794475072179</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00455003006631279</v>
+        <v>0.009582270622273594</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02427573013870366</v>
+        <v>0.04630164230004193</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.003278043694743192</v>
+        <v>0.01142147928246412</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02554919996157295</v>
+        <v>0.03198995368624023</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.00534988973598209</v>
+        <v>0.01128930201765148</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.05405244303360768</v>
+        <v>0.07234583339239439</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005316621713701915</v>
+        <v>0.01117543682308811</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.08334413087025905</v>
+        <v>0.1071728664238325</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005308368410698256</v>
+        <v>0.01117931572598586</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02592108867641107</v>
+        <v>0.05158266120842311</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.003725708836151241</v>
+        <v>0.013053119179959</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02681620845746467</v>
+        <v>0.0336954917708172</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006114159698265245</v>
+        <v>0.01290205944874455</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05633986480543804</v>
+        <v>0.07555987197448108</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006076139101373617</v>
+        <v>0.01277192779781499</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.08591604301986</v>
+        <v>0.1102458641954723</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.00606670675508372</v>
+        <v>0.01277636082969812</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02746407983282864</v>
+        <v>0.06268277600318463</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.004191422440670146</v>
+        <v>0.01468475907745387</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02775572013714551</v>
+        <v>0.03545688146570661</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006878429660548402</v>
+        <v>0.01451481687983762</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05846873951531237</v>
+        <v>0.0775422418880212</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006835656489045319</v>
+        <v>0.01436841877254186</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.08929430525819221</v>
+        <v>0.1138989913105347</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006825045099469186</v>
+        <v>0.01437340593341039</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02882427209686932</v>
+        <v>0.06358536768483757</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.004657136045189051</v>
+        <v>0.01631639897494875</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02876797745093379</v>
+        <v>0.03757502234446568</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007642699622831556</v>
+        <v>0.01612757431093069</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05973982864971353</v>
+        <v>0.07965757368935183</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007595173876717021</v>
+        <v>0.01596490974726873</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.09098030890377334</v>
+        <v>0.1171177706924559</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007583383443854651</v>
+        <v>0.01597045103712266</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02999076242976932</v>
+        <v>0.06727381725389307</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.005122849649707955</v>
+        <v>0.01794803887244362</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02965322284914786</v>
+        <v>0.03855081398065162</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008406969585114712</v>
+        <v>0.01774033174202376</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.06235389369512487</v>
+        <v>0.08167049793481046</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008354691264388724</v>
+        <v>0.01756140072199561</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.09397544527512097</v>
+        <v>0.1210877252646721</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008341721788240115</v>
+        <v>0.01756749614083493</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.03095264779276494</v>
+        <v>0.06873150571086217</v>
       </c>
       <c r="G77" t="n">
-        <v>0.00558856325422686</v>
+        <v>0.01957967876993849</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03061169878210598</v>
+        <v>0.0402851559478216</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009171239547397868</v>
+        <v>0.01935308917311683</v>
       </c>
       <c r="L77" t="n">
-        <v>0.06371169613802927</v>
+        <v>0.08314564518073411</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009114208652060425</v>
+        <v>0.01915789169672248</v>
       </c>
       <c r="N77" t="n">
-        <v>0.09638110569075287</v>
+        <v>0.1229943779506195</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009100060132625581</v>
+        <v>0.01916454124454719</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.03180650554854628</v>
+        <v>0.07594181405625608</v>
       </c>
       <c r="G78" t="n">
-        <v>0.006135646847371595</v>
+        <v>0.02121131866743337</v>
       </c>
       <c r="J78" t="n">
-        <v>0.03154364770012649</v>
+        <v>0.04147894781953285</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009935509509681023</v>
+        <v>0.0209658466042099</v>
       </c>
       <c r="L78" t="n">
-        <v>0.06541399746490997</v>
+        <v>0.08374764598346018</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009873726039732128</v>
+        <v>0.02075438267144935</v>
       </c>
       <c r="N78" t="n">
-        <v>0.09989868146918673</v>
+        <v>0.1240232516737345</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009858398477011046</v>
+        <v>0.02076158634825945</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.03228900913620125</v>
+        <v>0.07588812329058579</v>
       </c>
       <c r="G79" t="n">
-        <v>0.006519990463264671</v>
+        <v>0.02284295856492824</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03224931205352771</v>
+        <v>0.04263308916934255</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01069977947196418</v>
+        <v>0.02257860403530297</v>
       </c>
       <c r="L79" t="n">
-        <v>0.06686155916224998</v>
+        <v>0.08554113089932588</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01063324342740383</v>
+        <v>0.02235087364617623</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1011295639289402</v>
+        <v>0.126959869357453</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01061673682139651</v>
+        <v>0.02235863145197172</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.03285064025543422</v>
+        <v>0.08055381441436252</v>
       </c>
       <c r="G80" t="n">
-        <v>0.006985704067783576</v>
+        <v>0.02447459846242312</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03312893429262795</v>
+        <v>0.04334847957080794</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01146404943424733</v>
+        <v>0.02419136146639603</v>
       </c>
       <c r="L80" t="n">
-        <v>0.06875514271653241</v>
+        <v>0.08659068082270627</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01139276081507553</v>
+        <v>0.0239473646209031</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1045751443885309</v>
+        <v>0.1289897539252116</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01137507516578198</v>
+        <v>0.02395567655568399</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.03338778819496217</v>
+        <v>0.07992226842809724</v>
       </c>
       <c r="G81" t="n">
-        <v>0.007451417672302481</v>
+        <v>0.02610623835991799</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03448275686774555</v>
+        <v>0.04402601859748619</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01222831939653049</v>
+        <v>0.0258041188974891</v>
       </c>
       <c r="L81" t="n">
-        <v>0.07009550961424041</v>
+        <v>0.08752418614723398</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01215227820274723</v>
+        <v>0.02554385559562997</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1056368141664765</v>
+        <v>0.1295751752695156</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01213341351016744</v>
+        <v>0.02555272165939625</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.03390124382487326</v>
+        <v>0.0879768663323012</v>
       </c>
       <c r="G82" t="n">
-        <v>0.007917131276821386</v>
+        <v>0.02773787825741287</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03521102222919878</v>
+        <v>0.0448688634496507</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01299258935881365</v>
+        <v>0.02741687632858218</v>
       </c>
       <c r="L82" t="n">
-        <v>0.07158342134185702</v>
+        <v>0.08922579031545752</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01291179559041894</v>
+        <v>0.02714034657035684</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1091159645812947</v>
+        <v>0.1320138896940027</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01289175185455291</v>
+        <v>0.02714976676310852</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.03439179801525569</v>
+        <v>0.08770098912748545</v>
       </c>
       <c r="G83" t="n">
-        <v>0.008382844881340291</v>
+        <v>0.02936951815490774</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03581397282730599</v>
+        <v>0.0453573806107941</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0137568593210968</v>
+        <v>0.02902963375967524</v>
       </c>
       <c r="L83" t="n">
-        <v>0.07341963938586527</v>
+        <v>0.08988842411786221</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01367131297809064</v>
+        <v>0.02873683754508372</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1102139869515033</v>
+        <v>0.1332953931685302</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01365009019893837</v>
+        <v>0.02874681186682079</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.03486024163619757</v>
+        <v>0.08107917798929674</v>
       </c>
       <c r="G84" t="n">
-        <v>0.008848558485859196</v>
+        <v>0.03100115805240261</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03679185111238549</v>
+        <v>0.04572852132239719</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01452112928337996</v>
+        <v>0.03064239119076831</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0750049252327484</v>
+        <v>0.09040501834493356</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01443083036576234</v>
+        <v>0.03033332851981059</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1124322725956198</v>
+        <v>0.1349091837026181</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01440842854332384</v>
+        <v>0.03034385697053305</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.03530736555778707</v>
+        <v>0.08629001271906864</v>
       </c>
       <c r="G85" t="n">
-        <v>0.009314272090378101</v>
+        <v>0.03263279794989749</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03764489953475558</v>
+        <v>0.04617852560080143</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01528539924566311</v>
+        <v>0.03225514862186139</v>
       </c>
       <c r="L85" t="n">
-        <v>0.07584004036898942</v>
+        <v>0.09206850378715684</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01519034775343404</v>
+        <v>0.03192981949453746</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1145722128321619</v>
+        <v>0.1360447593057861</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0151667668877093</v>
+        <v>0.03194090207424532</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.03573396065011238</v>
+        <v>0.09146552063525029</v>
       </c>
       <c r="G86" t="n">
-        <v>0.009779985694897006</v>
+        <v>0.03426443784739236</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03837336054473459</v>
+        <v>0.04680363346234834</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01604966920794627</v>
+        <v>0.03386790605295445</v>
       </c>
       <c r="L86" t="n">
-        <v>0.07742574628107146</v>
+        <v>0.09297181123501747</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01594986514110575</v>
+        <v>0.03352631046926434</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1165351989796474</v>
+        <v>0.1367916179875541</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01592510523209477</v>
+        <v>0.03353794717795758</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03614081778326161</v>
+        <v>0.08859780443663504</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01024569929941591</v>
+        <v>0.03589607774488724</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03887747659264082</v>
+        <v>0.04720008492337938</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01681393917022942</v>
+        <v>0.03548066348404752</v>
       </c>
       <c r="L87" t="n">
-        <v>0.07856280445547756</v>
+        <v>0.09400787147900075</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01670938252877745</v>
+        <v>0.03512280144399121</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1183226223565938</v>
+        <v>0.1380392577574421</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01668344357648023</v>
+        <v>0.03513499228166985</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03652872782732298</v>
+        <v>0.08767896682201631</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01071141290393482</v>
+        <v>0.03752771764238211</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03965749012879261</v>
+        <v>0.04816412000023605</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01757820913251258</v>
+        <v>0.03709342091514058</v>
       </c>
       <c r="L88" t="n">
-        <v>0.07935197637869082</v>
+        <v>0.09476961530959213</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01746889991644915</v>
+        <v>0.03671929241871809</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1192358742815189</v>
+        <v>0.1400771766249698</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0174417819208657</v>
+        <v>0.03673203738538211</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.0368984816523846</v>
+        <v>0.0887011104901875</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01117712650845372</v>
+        <v>0.03915935753987699</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04011364360350828</v>
+        <v>0.04819197870925987</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01834247909479574</v>
+        <v>0.03870617834623366</v>
       </c>
       <c r="L89" t="n">
-        <v>0.08109402353719439</v>
+        <v>0.09454997351727695</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01822841730412085</v>
+        <v>0.03831578339344496</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1221763460729403</v>
+        <v>0.1404948725996573</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01820012026525116</v>
+        <v>0.03832908248909438</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03725087012853465</v>
+        <v>0.08965633813994203</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01164284011297263</v>
+        <v>0.04079099743737186</v>
       </c>
       <c r="J90" t="n">
-        <v>0.04084617946710609</v>
+        <v>0.04867990106679229</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01910674905707889</v>
+        <v>0.04031893577732672</v>
       </c>
       <c r="L90" t="n">
-        <v>0.08218970741747136</v>
+        <v>0.09554187689254068</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01898793469179256</v>
+        <v>0.03991227436817183</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1228454290493757</v>
+        <v>0.1415818436910243</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01895845860963663</v>
+        <v>0.03992612759280664</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03758668412586129</v>
+        <v>0.09553675247007329</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01210855371749153</v>
+        <v>0.04242263733486674</v>
       </c>
       <c r="J91" t="n">
-        <v>0.04125534016990441</v>
+        <v>0.04912412708917481</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01987101901936205</v>
+        <v>0.04193169320841979</v>
       </c>
       <c r="L91" t="n">
-        <v>0.08323978950600477</v>
+        <v>0.0964382562258686</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01974745207946426</v>
+        <v>0.04150876534289871</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1242445145293429</v>
+        <v>0.1428275879085907</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01971679695402209</v>
+        <v>0.04152317269651891</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03790671451445266</v>
+        <v>0.09933445617937464</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01257426732201044</v>
+        <v>0.0440542772323616</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04204136816222152</v>
+        <v>0.04952089679274893</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0206352889816452</v>
+        <v>0.04354445063951286</v>
       </c>
       <c r="L92" t="n">
-        <v>0.08364503128927772</v>
+        <v>0.09643204230774607</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02050696946713596</v>
+        <v>0.04310525631762558</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1266749938313593</v>
+        <v>0.1435216032618765</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02047513529840756</v>
+        <v>0.04312021780023118</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03821175216439693</v>
+        <v>0.09804155196663955</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01303998092652934</v>
+        <v>0.04568591712985649</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04250450589437577</v>
+        <v>0.04986645019385615</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02139955894392836</v>
+        <v>0.04515720807060594</v>
       </c>
       <c r="L93" t="n">
-        <v>0.08470619425377338</v>
+        <v>0.09671616592865856</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02126648685480766</v>
+        <v>0.04470174729235245</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1267382582739429</v>
+        <v>0.1435533877604014</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02123347364279302</v>
+        <v>0.04471726290394344</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03850258794578226</v>
+        <v>0.09565014253066137</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01350569453104825</v>
+        <v>0.04731755702735135</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04294499581668546</v>
+        <v>0.04985702730883793</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02216382890621152</v>
+        <v>0.04676996550169901</v>
       </c>
       <c r="L94" t="n">
-        <v>0.08602403988597476</v>
+        <v>0.09742878529093185</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02202600424247936</v>
+        <v>0.04629823826707933</v>
       </c>
       <c r="N94" t="n">
-        <v>0.127935699175611</v>
+        <v>0.1445892194248567</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02199181198717849</v>
+        <v>0.0463143080076557</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03878001272869683</v>
+        <v>0.09915233057023351</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01397140813556715</v>
+        <v>0.04894919692484623</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04356308037946889</v>
+        <v>0.0497888681540358</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02292809886849467</v>
+        <v>0.04838272293279207</v>
       </c>
       <c r="L95" t="n">
-        <v>0.08619932967236496</v>
+        <v>0.09732798804724357</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02278552163015106</v>
+        <v>0.0478947292418062</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1305687078548817</v>
+        <v>0.144588749107415</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02275015033156395</v>
+        <v>0.04791135311136797</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03904481738322879</v>
+        <v>0.09554021878414937</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01443712174008606</v>
+        <v>0.0505808368223411</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04405900203304443</v>
+        <v>0.05026835115700695</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02369236883077783</v>
+        <v>0.04999548036388515</v>
       </c>
       <c r="L96" t="n">
-        <v>0.08703282509942711</v>
+        <v>0.09678706879756233</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02354503901782277</v>
+        <v>0.04949122021653307</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1316386756302723</v>
+        <v>0.1434333199315895</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02350848867594942</v>
+        <v>0.04950839821508023</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03929779277946627</v>
+        <v>0.09980590987120239</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01490283534460496</v>
+        <v>0.05221247671983598</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0443330032277303</v>
+        <v>0.05016495473008586</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02445663879306098</v>
+        <v>0.05160823779497821</v>
       </c>
       <c r="L97" t="n">
-        <v>0.08822528765364429</v>
+        <v>0.09688687191171025</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02430455640549447</v>
+        <v>0.05108771119125995</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1321469938203007</v>
+        <v>0.144189536049417</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02426682702033488</v>
+        <v>0.0511054433187925</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03953972978749745</v>
+        <v>0.1019580665825554</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01536854894912387</v>
+        <v>0.05384411661733086</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04488532641384491</v>
+        <v>0.0499340452509666</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02522090875534413</v>
+        <v>0.05322099522607129</v>
       </c>
       <c r="L98" t="n">
-        <v>0.08897747882149964</v>
+        <v>0.09713112306696625</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02506407379316617</v>
+        <v>0.05268420216598681</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1325950537434844</v>
+        <v>0.1435629323127415</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02502516536472035</v>
+        <v>0.05270248842250477</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03977141927741049</v>
+        <v>0.09194895846639223</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01583426255364277</v>
+        <v>0.05547575651482573</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0452162140417065</v>
+        <v>0.04997253052963882</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02598517871762729</v>
+        <v>0.05483375265716435</v>
       </c>
       <c r="L99" t="n">
-        <v>0.08979016008947618</v>
+        <v>0.09612354794060923</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02582359118083787</v>
+        <v>0.05428069314071369</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1341842467183413</v>
+        <v>0.1438590435734064</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02578350370910581</v>
+        <v>0.05429953352621703</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03999365211929357</v>
+        <v>0.09688074857518339</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01629997615816168</v>
+        <v>0.0571073964123206</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04562590856163345</v>
+        <v>0.04978239218592252</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02674944867991045</v>
+        <v>0.05644651008825742</v>
       </c>
       <c r="L100" t="n">
-        <v>0.09086409294405706</v>
+        <v>0.09616787220991804</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02658310856850957</v>
+        <v>0.05587718411544057</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1354159640633888</v>
+        <v>0.1426834046832555</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02654184205349128</v>
+        <v>0.0558965786299293</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0402072191832348</v>
+        <v>0.09174932924677548</v>
       </c>
       <c r="G101" t="n">
-        <v>0.01676568976268058</v>
+        <v>0.05873903630981549</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04631465242394402</v>
+        <v>0.04946561183963762</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02751371864219361</v>
+        <v>0.05805926751935048</v>
       </c>
       <c r="L101" t="n">
-        <v>0.09120003887172531</v>
+        <v>0.09626782155217162</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02734262595618128</v>
+        <v>0.05747367509016744</v>
       </c>
       <c r="N101" t="n">
-        <v>0.136491597097145</v>
+        <v>0.1428415504941324</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02730018039787675</v>
+        <v>0.05749362373364157</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04041291133932237</v>
+        <v>0.09155886258664994</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01723140336719949</v>
+        <v>0.06037067620731035</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04648268807895659</v>
+        <v>0.0495241711106041</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02827798860447676</v>
+        <v>0.05967202495044355</v>
       </c>
       <c r="L102" t="n">
-        <v>0.09139875935896413</v>
+        <v>0.09602712164464888</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02810214334385298</v>
+        <v>0.05907016606489432</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1375125371381271</v>
+        <v>0.1416390158578806</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02805851874226221</v>
+        <v>0.05909066883735383</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04061151945764445</v>
+        <v>0.09131351070028818</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01769711697171839</v>
+        <v>0.06200231610480523</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0471302579769894</v>
+        <v>0.04916005161864187</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02904225856675991</v>
+        <v>0.06128478238153662</v>
       </c>
       <c r="L103" t="n">
-        <v>0.09266101589225648</v>
+        <v>0.09544949816462869</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02886166073152468</v>
+        <v>0.06066665703962118</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1368801755048529</v>
+        <v>0.141281335626344</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02881685708664767</v>
+        <v>0.0606877139410661</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04080383440828916</v>
+        <v>0.09701743569317159</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0181628305762373</v>
+        <v>0.0636339560023001</v>
       </c>
       <c r="J104" t="n">
-        <v>0.04715760456836084</v>
+        <v>0.04927523498357092</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02980652852904307</v>
+        <v>0.06289753981262969</v>
       </c>
       <c r="L104" t="n">
-        <v>0.09228756995808554</v>
+        <v>0.09463867678939006</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02962117811919638</v>
+        <v>0.06226314801434805</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1379959035158403</v>
+        <v>0.1408740446513659</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02957519543103314</v>
+        <v>0.06228475904477836</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04099064706134473</v>
+        <v>0.09667479967078163</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0186285441807562</v>
+        <v>0.06526559589979498</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04776497030338914</v>
+        <v>0.04917170282521119</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03057079849132623</v>
+        <v>0.06451029724372277</v>
       </c>
       <c r="L105" t="n">
-        <v>0.09337918304293441</v>
+        <v>0.09459838319621175</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03038069550686808</v>
+        <v>0.06385963898907493</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1395611124896068</v>
+        <v>0.1397226777847904</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0303335337754186</v>
+        <v>0.06388180414849064</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04117274828689924</v>
+        <v>0.09228976473859968</v>
       </c>
       <c r="G106" t="n">
-        <v>0.01909425778527511</v>
+        <v>0.06689723579728986</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0476525976323927</v>
+        <v>0.04885143676338262</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03133506845360938</v>
+        <v>0.06612305467481583</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0938366166332861</v>
+        <v>0.09403234306237279</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03114021289453979</v>
+        <v>0.0654561299638018</v>
       </c>
       <c r="N106" t="n">
-        <v>0.13957719374467</v>
+        <v>0.1393327698784606</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03109187211980407</v>
+        <v>0.06547884925220289</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04135092895504089</v>
+        <v>0.0958664930021072</v>
       </c>
       <c r="G107" t="n">
-        <v>0.01955997138979401</v>
+        <v>0.06852887569478472</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04832072900568979</v>
+        <v>0.04871641841790518</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03209933841589254</v>
+        <v>0.0677358121059089</v>
       </c>
       <c r="L107" t="n">
-        <v>0.09376063221562389</v>
+        <v>0.09364428206515199</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03189973028221149</v>
+        <v>0.06705262093852868</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1401455385995478</v>
+        <v>0.1382098557842206</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03185021046418953</v>
+        <v>0.06707589435591516</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04152692673109738</v>
+        <v>0.09340914656678559</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02002568499431292</v>
+        <v>0.07016051559227959</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04846960687359873</v>
+        <v>0.04826862940859881</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03286360837817569</v>
+        <v>0.06934856953700197</v>
       </c>
       <c r="L108" t="n">
-        <v>0.09445199127643064</v>
+        <v>0.09303792588182833</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03265924766988319</v>
+        <v>0.06864911191325555</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1401675383727577</v>
+        <v>0.1376594703539137</v>
       </c>
       <c r="O108" t="n">
-        <v>0.032608548808575</v>
+        <v>0.06867293945962742</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04170220230526875</v>
+        <v>0.08892188753811622</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02049139859883182</v>
+        <v>0.07179215548977448</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04839947368643785</v>
+        <v>0.04791005135528345</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03362787834045885</v>
+        <v>0.07096132696809504</v>
       </c>
       <c r="L109" t="n">
-        <v>0.09491145530218958</v>
+        <v>0.09201700018968068</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03341876505755489</v>
+        <v>0.07024560288798243</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1408445843828174</v>
+        <v>0.1367871484393837</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03336688715296046</v>
+        <v>0.0702699845633397</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04187667454329527</v>
+        <v>0.0984088780215806</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02095711220335073</v>
+        <v>0.07342379538726936</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04871057189452543</v>
+        <v>0.04764266587777907</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03439214830274201</v>
+        <v>0.07257408439918811</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0947397857793838</v>
+        <v>0.0919852306659879</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0341782824452266</v>
+        <v>0.0718420938627093</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1408780679482446</v>
+        <v>0.1356984248924743</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03412522549734592</v>
+        <v>0.07186702966705195</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04205025702876644</v>
+        <v>0.08887428012266005</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02142282580786963</v>
+        <v>0.07505543528476422</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04890314394817985</v>
+        <v>0.04726845459590562</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03515641826502516</v>
+        <v>0.07418684183028117</v>
       </c>
       <c r="L111" t="n">
-        <v>0.09593774419449635</v>
+        <v>0.09124634298802903</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0349377998328983</v>
+        <v>0.07343858483743618</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1418693803875569</v>
+        <v>0.135198834565029</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03488356384173139</v>
+        <v>0.07346407477076422</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04222286334527177</v>
+        <v>0.09332225594683607</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02188853941238854</v>
+        <v>0.07668707518225909</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04907743229771935</v>
+        <v>0.04708939912948305</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03592068822730832</v>
+        <v>0.07579959926137425</v>
       </c>
       <c r="L112" t="n">
-        <v>0.09600609203401034</v>
+        <v>0.09100406283308282</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03569731722057</v>
+        <v>0.07503507581216305</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1419199130192721</v>
+        <v>0.1349939123088916</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03564190218611686</v>
+        <v>0.07506111987447649</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04239440707640077</v>
+        <v>0.09275696759959001</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02235425301690744</v>
+        <v>0.07831871507975398</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0491336793934623</v>
+        <v>0.04690748109833132</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03668495818959147</v>
+        <v>0.07741235669246732</v>
       </c>
       <c r="L113" t="n">
-        <v>0.09614559078440887</v>
+        <v>0.08976211587842828</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0364568346082417</v>
+        <v>0.07663156678688993</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1422310571619079</v>
+        <v>0.1334891929759056</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03640024053050232</v>
+        <v>0.07665816497818875</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04256480180574297</v>
+        <v>0.09418257718640335</v>
       </c>
       <c r="G114" t="n">
-        <v>0.02281996662142635</v>
+        <v>0.07995035497724885</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04967212768572697</v>
+        <v>0.04672468212227034</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03744922815187463</v>
+        <v>0.07902511412356039</v>
       </c>
       <c r="L114" t="n">
-        <v>0.09625700193217504</v>
+        <v>0.08962422780134432</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0372163519959134</v>
+        <v>0.0782280577616168</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1434042041339819</v>
+        <v>0.1337902114179146</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03715857887488779</v>
+        <v>0.07825521008190102</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04273396111688786</v>
+        <v>0.09360324681275747</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02328568022594525</v>
+        <v>0.08158199487474371</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04969301962483175</v>
+        <v>0.04634298382112011</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03821349811415778</v>
+        <v>0.08063787155465345</v>
       </c>
       <c r="L115" t="n">
-        <v>0.09664108696379198</v>
+        <v>0.08918448402973264</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03797586938358511</v>
+        <v>0.07982454873634366</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1433407452540116</v>
+        <v>0.1329913048001169</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03791691721927325</v>
+        <v>0.07985225518561329</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04290179859342495</v>
+        <v>0.0890231385841338</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02375139383046416</v>
+        <v>0.0832136347722386</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04999659766109486</v>
+        <v>0.04616436781470055</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03897776807644094</v>
+        <v>0.08225062898574652</v>
       </c>
       <c r="L116" t="n">
-        <v>0.0969986073657427</v>
+        <v>0.08877712265117993</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03873538677125681</v>
+        <v>0.08142103971107054</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1431420718405149</v>
+        <v>0.1310955424662412</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03867525556365872</v>
+        <v>0.08144930028932555</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04306822781894375</v>
+        <v>0.08544641460601374</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02421710743498306</v>
+        <v>0.08484527466973348</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0497831042448347</v>
+        <v>0.04606865820871643</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03974203803872409</v>
+        <v>0.08386338641683959</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09713032462451035</v>
+        <v>0.08759897530191765</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03949490415892851</v>
+        <v>0.08301753068579741</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1440095752120095</v>
+        <v>0.1301937312165187</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03943359390804418</v>
+        <v>0.08304634539303782</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04323316237703378</v>
+        <v>0.08787449968478672</v>
       </c>
       <c r="G118" t="n">
-        <v>0.02468282103950197</v>
+        <v>0.08647691456722835</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0499527818263695</v>
+        <v>0.04573259469663235</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04050630800100725</v>
+        <v>0.08547614384793266</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09663700022657801</v>
+        <v>0.08706218068387017</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04025442154660022</v>
+        <v>0.08461402166052429</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1436446466870129</v>
+        <v>0.1299039042598656</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04019193225242965</v>
+        <v>0.08464339049675008</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04339651585128453</v>
+        <v>0.09324191994910933</v>
       </c>
       <c r="G119" t="n">
-        <v>0.02514853464402087</v>
+        <v>0.08810855446472321</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04980587285601767</v>
+        <v>0.04536253617530295</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04127057796329041</v>
+        <v>0.08708890127902573</v>
       </c>
       <c r="L119" t="n">
-        <v>0.09731939565842879</v>
+        <v>0.08607887749896176</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04101393893427192</v>
+        <v>0.08621051263525116</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1434486775840429</v>
+        <v>0.1284440948051984</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04095027059681512</v>
+        <v>0.08624043560046235</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04355820182528554</v>
+        <v>0.08452941333524849</v>
       </c>
       <c r="G120" t="n">
-        <v>0.02561424824853978</v>
+        <v>0.0897401943622181</v>
       </c>
       <c r="J120" t="n">
-        <v>0.05024261978409747</v>
+        <v>0.04496493899897501</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04203484792557356</v>
+        <v>0.0887016587101188</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09687827240654578</v>
+        <v>0.08516120444911685</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04177345632194362</v>
+        <v>0.08780700360997803</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1438230592216171</v>
+        <v>0.1271323360614333</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04170860894120058</v>
+        <v>0.08783748070417462</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04371813388262627</v>
+        <v>0.09075054048038095</v>
       </c>
       <c r="G121" t="n">
-        <v>0.02607996185305868</v>
+        <v>0.09137183425971297</v>
       </c>
       <c r="J121" t="n">
-        <v>0.05026835115700695</v>
+        <v>0.0441462595218953</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04279911788785672</v>
+        <v>0.09031441614121187</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09742878529093185</v>
+        <v>0.08492130023625968</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04253297370961532</v>
+        <v>0.08940349458470491</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1445892194248567</v>
+        <v>0.1252866612374866</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04246694728558605</v>
+        <v>0.08943452580788688</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04387622560689629</v>
+        <v>0.08991886202168331</v>
       </c>
       <c r="G122" t="n">
-        <v>0.02654567545757759</v>
+        <v>0.09300347415720785</v>
       </c>
       <c r="J122" t="n">
-        <v>0.05016815913052282</v>
+        <v>0.04391295409831057</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04356338785013987</v>
+        <v>0.09192717357230494</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09682851579751067</v>
+        <v>0.08427130356231471</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04329249109728702</v>
+        <v>0.09099998555943178</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1433884399924689</v>
+        <v>0.1246251035422748</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04322528562997151</v>
+        <v>0.09103157091159915</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04403239058168507</v>
+        <v>0.08204793859633225</v>
       </c>
       <c r="G123" t="n">
-        <v>0.02701138906209649</v>
+        <v>0.09463511405470271</v>
       </c>
       <c r="J123" t="n">
-        <v>0.04996127653944987</v>
+        <v>0.04357147908246763</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04432765781242303</v>
+        <v>0.09353993100339801</v>
       </c>
       <c r="L123" t="n">
-        <v>0.09681135379396405</v>
+        <v>0.08272335312920623</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04405200848495873</v>
+        <v>0.09259647653415866</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1439771131883223</v>
+        <v>0.1224656961847141</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04398362397435698</v>
+        <v>0.0926286160153114</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.0441865423905821</v>
+        <v>0.0851513308415045</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0274771026666154</v>
+        <v>0.0962667539521976</v>
       </c>
       <c r="J124" t="n">
-        <v>0.05004478865422889</v>
+        <v>0.04292829082861326</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04509192777470619</v>
+        <v>0.09515268843449107</v>
       </c>
       <c r="L124" t="n">
-        <v>0.097046489534719</v>
+        <v>0.08188958763885856</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04481152587263043</v>
+        <v>0.09419296750888553</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1438241796213405</v>
+        <v>0.1216264723737209</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04474196231874245</v>
+        <v>0.09422566111902368</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04433859461717696</v>
+        <v>0.08324259939437667</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0279428162711343</v>
+        <v>0.09789839384969247</v>
       </c>
       <c r="J125" t="n">
-        <v>0.05001905847687463</v>
+        <v>0.04258984569099418</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04585619773698934</v>
+        <v>0.09676544586558414</v>
       </c>
       <c r="L125" t="n">
-        <v>0.09663586249686237</v>
+        <v>0.08128214579319609</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04557104326030213</v>
+        <v>0.09578945848361241</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1438304910435367</v>
+        <v>0.1211254653182114</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04550030066312791</v>
+        <v>0.09582270622273595</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04448846084505909</v>
+        <v>0.08733530489212549</v>
       </c>
       <c r="G126" t="n">
-        <v>0.02840852987565321</v>
+        <v>0.09953003374718734</v>
       </c>
       <c r="J126" t="n">
-        <v>0.05008444900940186</v>
+        <v>0.04196260002385722</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04662046769927249</v>
+        <v>0.09837820329667722</v>
       </c>
       <c r="L126" t="n">
-        <v>0.09708178138178966</v>
+        <v>0.08081244347292238</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04633056064797383</v>
+        <v>0.09738594945833928</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1433974579680068</v>
+        <v>0.1196804028579134</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04625863900751337</v>
+        <v>0.0974197513264482</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04463605465781802</v>
+        <v>0.08244300797192755</v>
       </c>
       <c r="G127" t="n">
-        <v>0.02887424348017211</v>
+        <v>0.1011616736446822</v>
       </c>
       <c r="J127" t="n">
-        <v>0.04984132325382531</v>
+        <v>0.04145301018144908</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04738473766155565</v>
+        <v>0.09999096072777029</v>
       </c>
       <c r="L127" t="n">
-        <v>0.09618655489089642</v>
+        <v>0.08011244688290753</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04709007803564554</v>
+        <v>0.09898244043306614</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1434264909078472</v>
+        <v>0.1184982798743151</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04701697735189883</v>
+        <v>0.09901679643016047</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04478128963904328</v>
+        <v>0.08457926927095957</v>
       </c>
       <c r="G128" t="n">
-        <v>0.02933995708469102</v>
+        <v>0.1027933135421771</v>
       </c>
       <c r="J128" t="n">
-        <v>0.04959004421215971</v>
+        <v>0.04144948178716246</v>
       </c>
       <c r="K128" t="n">
-        <v>0.0481490076238388</v>
+        <v>0.1016037181588633</v>
       </c>
       <c r="L128" t="n">
-        <v>0.09665249172557822</v>
+        <v>0.07904359334919359</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04784959542331724</v>
+        <v>0.100578931407793</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1430190003761537</v>
+        <v>0.1165126716763336</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0477753156962843</v>
+        <v>0.1006138415338727</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04492407937232436</v>
+        <v>0.07775642841230987</v>
       </c>
       <c r="G129" t="n">
-        <v>0.02980567068920992</v>
+        <v>0.104424953439672</v>
       </c>
       <c r="J129" t="n">
-        <v>0.0499309748864198</v>
+        <v>0.0408092287568774</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04891327758612196</v>
+        <v>0.1032164755899564</v>
       </c>
       <c r="L129" t="n">
-        <v>0.09558190058723046</v>
+        <v>0.07822325942714128</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04860911281098894</v>
+        <v>0.1021754223825199</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1434763968860228</v>
+        <v>0.1153493928078155</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04853365404066976</v>
+        <v>0.102210886637585</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04506433744125077</v>
+        <v>0.07689764024064574</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03027138429372883</v>
+        <v>0.1060565933371668</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04996447827862036</v>
+        <v>0.0403384349593236</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04967754754840512</v>
+        <v>0.1048292330210495</v>
       </c>
       <c r="L130" t="n">
-        <v>0.09527709017724875</v>
+        <v>0.07696882167211147</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04936863019866064</v>
+        <v>0.1037719133572468</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1427000909505504</v>
+        <v>0.1142342578126075</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04929199238505523</v>
+        <v>0.1038079317412973</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04520197742941202</v>
+        <v>0.0739645322967369</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03073709789824773</v>
+        <v>0.1076882332346617</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04949091739077607</v>
+        <v>0.04014634266749674</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05044181751068827</v>
+        <v>0.1064419904521426</v>
       </c>
       <c r="L131" t="n">
-        <v>0.09564036919702862</v>
+        <v>0.07609765663946483</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05012814758633234</v>
+        <v>0.1053684043319736</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1425914930828327</v>
+        <v>0.1122930812345562</v>
       </c>
       <c r="O131" t="n">
-        <v>0.0500503307294407</v>
+        <v>0.1054049768450095</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04533691292039764</v>
+        <v>0.08097651663667432</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03120281150276664</v>
+        <v>0.1093198731321566</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04931065522490172</v>
+        <v>0.03954219415439246</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05120608747297143</v>
+        <v>0.1080547478832356</v>
       </c>
       <c r="L132" t="n">
-        <v>0.09467404634796553</v>
+        <v>0.07502714088456211</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05088766497400404</v>
+        <v>0.1069648953067005</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1417520137959659</v>
+        <v>0.1116516776175081</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05080866907382616</v>
+        <v>0.1070020219487218</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04546905749779712</v>
+        <v>0.07695300531654901</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03166852510728554</v>
+        <v>0.1109515130296515</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04942405478301204</v>
+        <v>0.03883523169300643</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05197035743525458</v>
+        <v>0.1096675053143287</v>
       </c>
       <c r="L133" t="n">
-        <v>0.09478043033145506</v>
+        <v>0.07397465096276407</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05164718236167574</v>
+        <v>0.1085613862814274</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1416830636030459</v>
+        <v>0.1102358615053097</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05156700741821162</v>
+        <v>0.1085990670524341</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04559832474519995</v>
+        <v>0.07691341039245203</v>
       </c>
       <c r="G134" t="n">
-        <v>0.03213423871180445</v>
+        <v>0.1125831529271463</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04933147906712175</v>
+        <v>0.03823469755633425</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05273462739753774</v>
+        <v>0.1112802627454218</v>
       </c>
       <c r="L134" t="n">
-        <v>0.09386182984889274</v>
+        <v>0.07345756342943141</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05240669974934745</v>
+        <v>0.1101578772561543</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1408860530171692</v>
+        <v>0.1091714474418077</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05232534576259708</v>
+        <v>0.1101961121561463</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04572462824619568</v>
+        <v>0.07287714392047433</v>
       </c>
       <c r="G135" t="n">
-        <v>0.03259995231632335</v>
+        <v>0.1142147928246412</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0493332910792456</v>
+        <v>0.03784983401737163</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05349889735982089</v>
+        <v>0.1128930201765148</v>
       </c>
       <c r="L135" t="n">
-        <v>0.09352055360167408</v>
+        <v>0.07249325483992494</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05316621713701915</v>
+        <v>0.1117543682308811</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1406623925514316</v>
+        <v>0.1072842499708486</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05308368410698255</v>
+        <v>0.1117931572598586</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04584788158437379</v>
+        <v>0.07586361795670694</v>
       </c>
       <c r="G136" t="n">
-        <v>0.03306566592084226</v>
+        <v>0.1158464327221361</v>
       </c>
       <c r="J136" t="n">
-        <v>0.04892985382139836</v>
+        <v>0.03718988334911418</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05426316732210405</v>
+        <v>0.1145057776076079</v>
       </c>
       <c r="L136" t="n">
-        <v>0.09335891029119459</v>
+        <v>0.07139910174960537</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05392573452469085</v>
+        <v>0.113350859205608</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1404134927189295</v>
+        <v>0.1057000836362791</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05384202245136802</v>
+        <v>0.1133902023635708</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04596799834332382</v>
+        <v>0.06889224455724088</v>
       </c>
       <c r="G137" t="n">
-        <v>0.03353137952536116</v>
+        <v>0.117478072619631</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04932153029559476</v>
+        <v>0.03696408782455758</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05502743728438721</v>
+        <v>0.116118535038701</v>
       </c>
       <c r="L137" t="n">
-        <v>0.09247920861884978</v>
+        <v>0.07079248071383348</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05468525191236255</v>
+        <v>0.1149473501803349</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1403407640327589</v>
+        <v>0.1052447629819456</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05460036079575349</v>
+        <v>0.1149872474672831</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04608489210663523</v>
+        <v>0.06698243577816716</v>
       </c>
       <c r="G138" t="n">
-        <v>0.03399709312988006</v>
+        <v>0.1191097125171258</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04900868350384951</v>
+        <v>0.03668168971669743</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05579170724667035</v>
+        <v>0.1177312924697941</v>
       </c>
       <c r="L138" t="n">
-        <v>0.09208375728603524</v>
+        <v>0.07059076828797001</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05544476930003426</v>
+        <v>0.1165438411550618</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1397456170060158</v>
+        <v>0.1049441025516948</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05535869914013895</v>
+        <v>0.1165842925709954</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04619847645789758</v>
+        <v>0.06915360367557677</v>
       </c>
       <c r="G139" t="n">
-        <v>0.03446280673439897</v>
+        <v>0.1207413524146207</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0487916764481774</v>
+        <v>0.03645193129852944</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05655597720895351</v>
+        <v>0.1193440499008871</v>
       </c>
       <c r="L139" t="n">
-        <v>0.09207486499414641</v>
+        <v>0.07001134102737563</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05620428668770596</v>
+        <v>0.1181403321297886</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1395294621517966</v>
+        <v>0.1030239168893732</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05611703748452442</v>
+        <v>0.1181813376747077</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04630866498070034</v>
+        <v>0.06842516030556077</v>
       </c>
       <c r="G140" t="n">
-        <v>0.03492852033891788</v>
+        <v>0.1223729923121156</v>
       </c>
       <c r="J140" t="n">
-        <v>0.04877087213059313</v>
+        <v>0.03598405484304924</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05732024717123668</v>
+        <v>0.1209568073319802</v>
       </c>
       <c r="L140" t="n">
-        <v>0.09145484044457888</v>
+        <v>0.06897157548741117</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05696380407537766</v>
+        <v>0.1197368231045155</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1382937099831973</v>
+        <v>0.1023100205388275</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05687537582890988</v>
+        <v>0.1197783827784199</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04641537125863306</v>
+        <v>0.06481651772421013</v>
       </c>
       <c r="G141" t="n">
-        <v>0.03539423394343678</v>
+        <v>0.1240046322096105</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04854663355311148</v>
+        <v>0.03598730262325246</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05808451713351983</v>
+        <v>0.1225695647630732</v>
       </c>
       <c r="L141" t="n">
-        <v>0.09112599233872815</v>
+        <v>0.06898884822343737</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05772332146304936</v>
+        <v>0.1213333140792424</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1379397710133141</v>
+        <v>0.1025282280439042</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05763371417329535</v>
+        <v>0.1213754278821322</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04651850887528522</v>
+        <v>0.07334708798761586</v>
       </c>
       <c r="G142" t="n">
-        <v>0.03585994754795568</v>
+        <v>0.1256362721071053</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04851932371774716</v>
+        <v>0.03557091691213478</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05884878709580299</v>
+        <v>0.1241823221941663</v>
       </c>
       <c r="L142" t="n">
-        <v>0.09039062937798975</v>
+        <v>0.06916428721980195</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05848283885072107</v>
+        <v>0.1229298050539692</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1367690557552431</v>
+        <v>0.1029845905735104</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05839205251768081</v>
+        <v>0.1229724729858445</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04661799141424632</v>
+        <v>0.07103628315186897</v>
       </c>
       <c r="G143" t="n">
-        <v>0.03632566115247459</v>
+        <v>0.1272679120046002</v>
       </c>
       <c r="J143" t="n">
-        <v>0.04818930562651492</v>
+        <v>0.03564219853711073</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05961305705808614</v>
+        <v>0.1257950796252594</v>
       </c>
       <c r="L143" t="n">
-        <v>0.08945106026375921</v>
+        <v>0.06948916091169491</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05924235623839277</v>
+        <v>0.1245262960286961</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1361829747220804</v>
+        <v>0.1023199120516964</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05915039086206628</v>
+        <v>0.1245695180895567</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04671373245910589</v>
+        <v>0.06690351527306047</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0367913747569935</v>
+        <v>0.1288995519020951</v>
       </c>
       <c r="J144" t="n">
-        <v>0.0483569422814295</v>
+        <v>0.03555210478188449</v>
       </c>
       <c r="K144" t="n">
-        <v>0.0603773270203693</v>
+        <v>0.1274078370563524</v>
       </c>
       <c r="L144" t="n">
-        <v>0.08890959369743201</v>
+        <v>0.06883900698324619</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06000187362606447</v>
+        <v>0.126122787003423</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1359829384269221</v>
+        <v>0.1030923991650548</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05990872920645174</v>
+        <v>0.126166563193269</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04680564559345345</v>
+        <v>0.06690957824766632</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0372570883615124</v>
+        <v>0.13053119179959</v>
       </c>
       <c r="J145" t="n">
-        <v>0.04792259668450567</v>
+        <v>0.03587530910406637</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06114159698265245</v>
+        <v>0.1290205944874455</v>
       </c>
       <c r="L145" t="n">
-        <v>0.08876853838040372</v>
+        <v>0.06921254861149764</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06076139101373617</v>
+        <v>0.1277192779781499</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1349703573828645</v>
+        <v>0.102300155070307</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06066706755083721</v>
+        <v>0.1277636082969813</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04689364440087847</v>
+        <v>0.0719467861391628</v>
       </c>
       <c r="G146" t="n">
-        <v>0.03772280196603131</v>
+        <v>0.1321628316970848</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04798663183775813</v>
+        <v>0.03571113238480336</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06190586694493561</v>
+        <v>0.1306333519185386</v>
       </c>
       <c r="L146" t="n">
-        <v>0.08833020301406985</v>
+        <v>0.06920850897349101</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06152090840140787</v>
+        <v>0.1293157689528767</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1355466421030036</v>
+        <v>0.1030412829241747</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06142540589522268</v>
+        <v>0.1293606534006935</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04697764246497049</v>
+        <v>0.07101072956358605</v>
       </c>
       <c r="G147" t="n">
-        <v>0.03818851557055022</v>
+        <v>0.1337944715945797</v>
       </c>
       <c r="J147" t="n">
-        <v>0.04774941074320165</v>
+        <v>0.03605889550524236</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06267013690721876</v>
+        <v>0.1322461093496317</v>
       </c>
       <c r="L147" t="n">
-        <v>0.08789689629982594</v>
+        <v>0.06932561124626818</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06228042578907958</v>
+        <v>0.1309122599276036</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1339132031004355</v>
+        <v>0.1030138858833794</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06218374423960813</v>
+        <v>0.1309576985044058</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04705755336931902</v>
+        <v>0.06409998213012567</v>
       </c>
       <c r="G148" t="n">
-        <v>0.03865422917506912</v>
+        <v>0.1354261114920746</v>
       </c>
       <c r="J148" t="n">
-        <v>0.04781129640285095</v>
+        <v>0.03601791934653031</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06343440686950191</v>
+        <v>0.1338588667807247</v>
       </c>
       <c r="L148" t="n">
-        <v>0.08707092693906751</v>
+        <v>0.06946257860687094</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06303994317675128</v>
+        <v>0.1325087509023305</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1328714508882565</v>
+        <v>0.1038160671046426</v>
       </c>
       <c r="O148" t="n">
-        <v>0.0629420825839936</v>
+        <v>0.1325547436081181</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04713329069751357</v>
+        <v>0.0672131174479713</v>
       </c>
       <c r="G149" t="n">
-        <v>0.03911994277958802</v>
+        <v>0.1370577513895694</v>
       </c>
       <c r="J149" t="n">
-        <v>0.04747265181872079</v>
+        <v>0.0361875247898142</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06419867683178508</v>
+        <v>0.1354716242118178</v>
       </c>
       <c r="L149" t="n">
-        <v>0.08685460363319006</v>
+        <v>0.07011813423234112</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06379946056442298</v>
+        <v>0.1341052418770574</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1334227959795627</v>
+        <v>0.1041459297446861</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06370042092837906</v>
+        <v>0.1341517887118303</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04720476803314362</v>
+        <v>0.06934870912631255</v>
       </c>
       <c r="G150" t="n">
-        <v>0.03958565638410693</v>
+        <v>0.1386893912870643</v>
       </c>
       <c r="J150" t="n">
-        <v>0.04733383999282592</v>
+        <v>0.03626703271624095</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06496294679406824</v>
+        <v>0.1370843816429109</v>
       </c>
       <c r="L150" t="n">
-        <v>0.08615023508358913</v>
+        <v>0.07039100129972051</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06455897795209468</v>
+        <v>0.1357017328517842</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1324686488874501</v>
+        <v>0.1038015769602312</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06445875927276452</v>
+        <v>0.1357488338155426</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04727189895979871</v>
+        <v>0.07350533077433906</v>
       </c>
       <c r="G151" t="n">
-        <v>0.04005136998862584</v>
+        <v>0.1403210311845592</v>
       </c>
       <c r="J151" t="n">
-        <v>0.04699522392718104</v>
+        <v>0.03635576400695749</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06572721675635139</v>
+        <v>0.1386971390740039</v>
       </c>
       <c r="L151" t="n">
-        <v>0.08506012999166024</v>
+        <v>0.0698799029860509</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06531849533976639</v>
+        <v>0.1372982238265111</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1318104201250149</v>
+        <v>0.1039811119079997</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06521709761715</v>
+        <v>0.1373458789192548</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.04733459706106835</v>
+        <v>0.07368155600124045</v>
       </c>
       <c r="G152" t="n">
-        <v>0.04051708359314474</v>
+        <v>0.1419526710820541</v>
       </c>
       <c r="J152" t="n">
-        <v>0.04715716662380091</v>
+        <v>0.03635303954311078</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06649148671863454</v>
+        <v>0.140309896505097</v>
       </c>
       <c r="L152" t="n">
-        <v>0.0850865970587989</v>
+        <v>0.07068356246837418</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06607801272743809</v>
+        <v>0.138894714801238</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1307495202053532</v>
+        <v>0.104782637744713</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06597543596153546</v>
+        <v>0.1389429240229671</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04739277592054203</v>
+        <v>0.07287595841620634</v>
       </c>
       <c r="G153" t="n">
-        <v>0.04098279719766364</v>
+        <v>0.143584310979549</v>
       </c>
       <c r="J153" t="n">
-        <v>0.04702003108470031</v>
+        <v>0.03645818020584776</v>
       </c>
       <c r="K153" t="n">
-        <v>0.0672557566809177</v>
+        <v>0.1419226539361901</v>
       </c>
       <c r="L153" t="n">
-        <v>0.08433194498640068</v>
+        <v>0.07090070292373213</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06683753011510979</v>
+        <v>0.1404912057759649</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1296873596415613</v>
+        <v>0.1051042576270927</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06673377430592092</v>
+        <v>0.1405399691266794</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04744634912180926</v>
+        <v>0.06908711162842636</v>
       </c>
       <c r="G154" t="n">
-        <v>0.04144851080218255</v>
+        <v>0.1452159508770438</v>
       </c>
       <c r="J154" t="n">
-        <v>0.04708418031189396</v>
+        <v>0.03647050687631538</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06802002664320085</v>
+        <v>0.1435354113672831</v>
       </c>
       <c r="L154" t="n">
-        <v>0.08359848247586105</v>
+        <v>0.07103216474541282</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06759704750278149</v>
+        <v>0.1420876967506917</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1293253489467352</v>
+        <v>0.1045456955502495</v>
       </c>
       <c r="O154" t="n">
-        <v>0.0674921126503064</v>
+        <v>0.1421370142303917</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.04749523024845957</v>
+        <v>0.06731358924709013</v>
       </c>
       <c r="G155" t="n">
-        <v>0.04191422440670146</v>
+        <v>0.1468475907745387</v>
       </c>
       <c r="J155" t="n">
-        <v>0.04684997730739657</v>
+        <v>0.03648937672618981</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06878429660548402</v>
+        <v>0.1451481687983762</v>
       </c>
       <c r="L155" t="n">
-        <v>0.08328851822857558</v>
+        <v>0.07091168042479906</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06835656489045321</v>
+        <v>0.1436841877254186</v>
       </c>
       <c r="N155" t="n">
-        <v>0.129664898633971</v>
+        <v>0.1056966480477746</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06825045099469185</v>
+        <v>0.1437340593341039</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04753933288408246</v>
+        <v>0.0745539648813873</v>
       </c>
       <c r="G156" t="n">
-        <v>0.04237993801122036</v>
+        <v>0.1484792306720336</v>
       </c>
       <c r="J156" t="n">
-        <v>0.04681778507322293</v>
+        <v>0.03697495033800213</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06954856656776716</v>
+        <v>0.1467609262294693</v>
       </c>
       <c r="L156" t="n">
-        <v>0.08310436094593979</v>
+        <v>0.0718920527310602</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06911608227812489</v>
+        <v>0.1452806787001455</v>
       </c>
       <c r="N156" t="n">
-        <v>0.128107419216365</v>
+        <v>0.1068480544535259</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06900878933907732</v>
+        <v>0.1453311044378162</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04757857061226742</v>
+        <v>0.07487795599522382</v>
       </c>
       <c r="G157" t="n">
-        <v>0.04284565161573926</v>
+        <v>0.1501108705695284</v>
       </c>
       <c r="J157" t="n">
-        <v>0.04658796661138773</v>
+        <v>0.03686831592667449</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07031283653005031</v>
+        <v>0.1483736836605623</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08314831932934916</v>
+        <v>0.07253473746081074</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06987559966579659</v>
+        <v>0.1468771696748724</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1283543212070132</v>
+        <v>0.1082426536471219</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06976712768346278</v>
+        <v>0.1469281495415284</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.04761285701660398</v>
+        <v>0.06842920190977995</v>
       </c>
       <c r="G158" t="n">
-        <v>0.04331136522025817</v>
+        <v>0.1517425104670233</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04645917251005106</v>
+        <v>0.03764897253314491</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07107710649233348</v>
+        <v>0.1499864410916554</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08301600576063556</v>
+        <v>0.07390119041066531</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0706351170534683</v>
+        <v>0.1484736606495992</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1272768925473102</v>
+        <v>0.1087231845081813</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07052546602784825</v>
+        <v>0.1485251946452407</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04764210568068165</v>
+        <v>0.07317192829072387</v>
       </c>
       <c r="G159" t="n">
-        <v>0.04377707882477708</v>
+        <v>0.1533741503645182</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04602854931518868</v>
+        <v>0.03769641919835146</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07184137645461663</v>
+        <v>0.1515991985227485</v>
       </c>
       <c r="L159" t="n">
-        <v>0.08269660174004187</v>
+        <v>0.0748528673772384</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07139463444114</v>
+        <v>0.1500701516243261</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1269251278116342</v>
+        <v>0.1110323859163226</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07128380437223372</v>
+        <v>0.150122239748953</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04766623018808995</v>
+        <v>0.07406307584220727</v>
       </c>
       <c r="G160" t="n">
-        <v>0.04424279242929598</v>
+        <v>0.1550057902620131</v>
       </c>
       <c r="J160" t="n">
-        <v>0.04629598460459509</v>
+        <v>0.03819015496323216</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07260564641689977</v>
+        <v>0.1532119559538415</v>
       </c>
       <c r="L160" t="n">
-        <v>0.08148901121309068</v>
+        <v>0.07575122415714453</v>
       </c>
       <c r="M160" t="n">
-        <v>0.0721541518288117</v>
+        <v>0.151666642599053</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1252027895544223</v>
+        <v>0.1124129967511646</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07204214271661918</v>
+        <v>0.1517192848526653</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04768514412241834</v>
+        <v>0.06805958526838191</v>
       </c>
       <c r="G161" t="n">
-        <v>0.04470850603381488</v>
+        <v>0.156637430159508</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04596141771844747</v>
+        <v>0.03870967886872512</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07336991637918294</v>
+        <v>0.1548247133849346</v>
       </c>
       <c r="L161" t="n">
-        <v>0.0815923070705849</v>
+        <v>0.07595771654699821</v>
       </c>
       <c r="M161" t="n">
-        <v>0.0729136692164834</v>
+        <v>0.1532631335737799</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1240146758494015</v>
+        <v>0.1139077558923257</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07280048106100465</v>
+        <v>0.1533163299563775</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04769876106725639</v>
+        <v>0.0771183972733995</v>
       </c>
       <c r="G162" t="n">
-        <v>0.04517421963833379</v>
+        <v>0.1582690700570028</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04592478799692298</v>
+        <v>0.03913448995576832</v>
       </c>
       <c r="K162" t="n">
-        <v>0.0741341863414661</v>
+        <v>0.1564374708160277</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08160556220332729</v>
+        <v>0.07713380034341405</v>
       </c>
       <c r="M162" t="n">
-        <v>0.0736731866041551</v>
+        <v>0.1548596245485067</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1237655847702989</v>
+        <v>0.1143594022194246</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07355881940539011</v>
+        <v>0.1549133750600898</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.04770699460619358</v>
+        <v>0.07019645256141181</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0456399332428527</v>
+        <v>0.1599007099544977</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04558603478019886</v>
+        <v>0.04004408726529987</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07489845630374925</v>
+        <v>0.1580502282471208</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08082784950212077</v>
+        <v>0.0782409313430065</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0744327039918268</v>
+        <v>0.1564561155232336</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1231603143908419</v>
+        <v>0.11551067461208</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07431715774977558</v>
+        <v>0.156510420163802</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04770975832281941</v>
+        <v>0.07625069183657059</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0461056468473716</v>
+        <v>0.1615323498519926</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04524509740845228</v>
+        <v>0.0406179698382578</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07566272626603242</v>
+        <v>0.1596629856782138</v>
       </c>
       <c r="L164" t="n">
-        <v>0.08125824185776812</v>
+        <v>0.07914056534239014</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07519222137949852</v>
+        <v>0.1580526064979605</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1211036627847574</v>
+        <v>0.1178043119499104</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07507549609416105</v>
+        <v>0.1581074652675143</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04770975832281941</v>
+        <v>0.07223805580302756</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0461056468473716</v>
+        <v>0.1631639897494874</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04560191522186044</v>
+        <v>0.04073563671558018</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07642699622831556</v>
+        <v>0.1612757431093069</v>
       </c>
       <c r="L165" t="n">
-        <v>0.08049581216107221</v>
+        <v>0.07994970827048267</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07595173876717022</v>
+        <v>0.1596490974726873</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1209004280257726</v>
+        <v>0.1185589283993959</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07583383443854651</v>
+        <v>0.1597045103712266</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04688867421622689</v>
+        <v>0.07411548516493449</v>
       </c>
       <c r="G166" t="n">
-        <v>0.04610537831890758</v>
+        <v>0.1647956296469823</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04505642756060053</v>
+        <v>0.04130534924087294</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07719126619059873</v>
+        <v>0.1628885005404</v>
       </c>
       <c r="L166" t="n">
-        <v>0.08013963330283588</v>
+        <v>0.08054055032961799</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07671125615484192</v>
+        <v>0.1612455884474142</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1187554081876147</v>
+        <v>0.1194853786019157</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07659217278293197</v>
+        <v>0.1613015554749388</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04607688076077911</v>
+        <v>0.07888097447890553</v>
       </c>
       <c r="G167" t="n">
-        <v>0.04610510979044356</v>
+        <v>0.1664272695444772</v>
       </c>
       <c r="J167" t="n">
-        <v>0.04480857376484976</v>
+        <v>0.0413653638703715</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07795553615288188</v>
+        <v>0.164501257971493</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07988877817386195</v>
+        <v>0.0809152791391686</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07747077354251362</v>
+        <v>0.1628420794221411</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1181734013440106</v>
+        <v>0.1202878375618776</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07735051112731743</v>
+        <v>0.1628986005786511</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04527483648023588</v>
+        <v>0.07962209036573434</v>
       </c>
       <c r="G168" t="n">
-        <v>0.04610484126197955</v>
+        <v>0.1680589094419721</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04465829317478529</v>
+        <v>0.04181690211622088</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07871980611516503</v>
+        <v>0.1661140154025861</v>
       </c>
       <c r="L168" t="n">
-        <v>0.08024231966495327</v>
+        <v>0.08197511743727554</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07823029093018533</v>
+        <v>0.164438570396868</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1171592055686877</v>
+        <v>0.1219681217743638</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07810884947170291</v>
+        <v>0.1644956456823634</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04448299989828683</v>
+        <v>0.07534544146834911</v>
       </c>
       <c r="G169" t="n">
-        <v>0.04610457273351553</v>
+        <v>0.169690549339467</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04470552513058433</v>
+        <v>0.04246061433054593</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07948407607744819</v>
+        <v>0.1677267728336792</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0796993306669127</v>
+        <v>0.08262128796207996</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07898980831785703</v>
+        <v>0.1660350613715948</v>
       </c>
       <c r="N169" t="n">
-        <v>0.116117618935373</v>
+        <v>0.1225280477344562</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07886718781608837</v>
+        <v>0.1660926907860756</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04370182953869094</v>
+        <v>0.08505239375721335</v>
       </c>
       <c r="G170" t="n">
-        <v>0.04610430420505152</v>
+        <v>0.1713221892369618</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04475020897242409</v>
+        <v>0.0427971508654716</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08024834603973134</v>
+        <v>0.1693395302647722</v>
       </c>
       <c r="L170" t="n">
-        <v>0.079458884070543</v>
+        <v>0.08265501345172291</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07974932570552873</v>
+        <v>0.1676315523463217</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1138534395177938</v>
+        <v>0.1234694319372371</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07962552616047383</v>
+        <v>0.1676897358897879</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04293178392513868</v>
+        <v>0.07974431320279052</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0461040356765875</v>
+        <v>0.1729538291344567</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04419228404048174</v>
+        <v>0.04302716207312275</v>
       </c>
       <c r="K171" t="n">
-        <v>0.0810126160020145</v>
+        <v>0.1709522876958653</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07892005276664713</v>
+        <v>0.08327751664434552</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08050884309320043</v>
+        <v>0.1692280433210486</v>
       </c>
       <c r="N171" t="n">
-        <v>0.113571465389677</v>
+        <v>0.1244940908777883</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08038386450485931</v>
+        <v>0.1692867809935002</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.0421733215813881</v>
+        <v>0.08342256577554411</v>
       </c>
       <c r="G172" t="n">
-        <v>0.04610376714812348</v>
+        <v>0.1745854690319516</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04453168967493448</v>
+        <v>0.04315129830562429</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08177688596429766</v>
+        <v>0.1725650451269584</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07918190964602786</v>
+        <v>0.08419002027808889</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08126836048087213</v>
+        <v>0.1708245342957755</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1113764946247498</v>
+        <v>0.1249038410511921</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08114220284924475</v>
+        <v>0.1708838260972124</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0414269010311307</v>
+        <v>0.08508851744593757</v>
       </c>
       <c r="G173" t="n">
-        <v>0.04610349861965946</v>
+        <v>0.1762171089294464</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04426836521595952</v>
+        <v>0.04367020991510112</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08254115592658082</v>
+        <v>0.1741778025580515</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07854352759948804</v>
+        <v>0.08529374709109411</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08202787786854383</v>
+        <v>0.1724210252705023</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1106733252967394</v>
+        <v>0.1267004989525305</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08190054119363023</v>
+        <v>0.1724808712009247</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04069298079812349</v>
+        <v>0.08474353418443439</v>
       </c>
       <c r="G174" t="n">
-        <v>0.04610323009119545</v>
+        <v>0.1778487488269413</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04400225000373402</v>
+        <v>0.04358454725367814</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08330542588886396</v>
+        <v>0.1757905599891445</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07870397951783051</v>
+        <v>0.08548991982150225</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08278739525621553</v>
+        <v>0.1740175162452292</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1090667554793729</v>
+        <v>0.1268858810768856</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08265887953801569</v>
+        <v>0.174077916304637</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03997201940605899</v>
+        <v>0.08038898196149803</v>
       </c>
       <c r="G175" t="n">
-        <v>0.04610296156273143</v>
+        <v>0.1794803887244362</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04383328337843521</v>
+        <v>0.04399496067348024</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08406969585114712</v>
+        <v>0.1774033174202376</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07796233829185809</v>
+        <v>0.08647976120745446</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08354691264388724</v>
+        <v>0.1756140072199561</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1077615832463776</v>
+        <v>0.1274618039193395</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08341721788240115</v>
+        <v>0.1756749614083492</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03926447537869313</v>
+        <v>0.083026226747592</v>
       </c>
       <c r="G176" t="n">
-        <v>0.04610269303426742</v>
+        <v>0.1811120286219311</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04336140468024029</v>
+        <v>0.0447021005266323</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08483396581343028</v>
+        <v>0.1790160748513307</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07761767681237364</v>
+        <v>0.08626733213157797</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08430643003155894</v>
+        <v>0.1772104981946829</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1061626066714804</v>
+        <v>0.1287335570370566</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08417555622678663</v>
+        <v>0.1772720065120615</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0385708072397196</v>
+        <v>0.09065663451317965</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0461024245058034</v>
+        <v>0.1827436685194259</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0432865532493264</v>
+        <v>0.04490923994266911</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08559823577571343</v>
+        <v>0.1806288322824237</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07766906797018003</v>
+        <v>0.08748590720748406</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08506594741923064</v>
+        <v>0.1788069891694098</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1046746238284084</v>
+        <v>0.1295503068397229</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08493389457117209</v>
+        <v>0.1788690516157738</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03789147351289311</v>
+        <v>0.0852867283110543</v>
       </c>
       <c r="G178" t="n">
-        <v>0.04610215597733937</v>
+        <v>0.1843753084169208</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04350866842587078</v>
+        <v>0.04533368525146708</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08636250573799659</v>
+        <v>0.1822415897135168</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07691558465608009</v>
+        <v>0.08782835974227399</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08582546480690234</v>
+        <v>0.1804034801441367</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1044024327908888</v>
+        <v>0.1298034585410751</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08569223291555755</v>
+        <v>0.180466096719486</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03722693272190859</v>
+        <v>0.08795243884743489</v>
       </c>
       <c r="G179" t="n">
-        <v>0.04610188744887535</v>
+        <v>0.1860069483144157</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04322768955005059</v>
+        <v>0.04556933380411507</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08712677570027974</v>
+        <v>0.1838543471446099</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07685629976087663</v>
+        <v>0.08837368525126149</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08658498219457404</v>
+        <v>0.1819999711188636</v>
       </c>
       <c r="N179" t="n">
-        <v>0.102750831632649</v>
+        <v>0.1309618079594072</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08645057125994302</v>
+        <v>0.1820631418231983</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0365776433905195</v>
+        <v>0.08664129643803237</v>
       </c>
       <c r="G180" t="n">
-        <v>0.04610161892041134</v>
+        <v>0.1876385882119106</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04304355596204305</v>
+        <v>0.04570501369815179</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08789104566256289</v>
+        <v>0.185467104575703</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07729028617537248</v>
+        <v>0.08940087924976034</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08734449958224574</v>
+        <v>0.1835964620935904</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1020246184274157</v>
+        <v>0.1319941509130125</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08720890960432849</v>
+        <v>0.1836601869269106</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03594406404242205</v>
+        <v>0.08632983611948505</v>
       </c>
       <c r="G181" t="n">
-        <v>0.04610135039194732</v>
+        <v>0.1892702281094054</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04245620700202536</v>
+        <v>0.04592955303111591</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08865531562484606</v>
+        <v>0.187079862006796</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07611661679037049</v>
+        <v>0.08938893725308425</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08810401696991746</v>
+        <v>0.1851929530683173</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1003285912489164</v>
+        <v>0.1329692832201848</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08796724794871395</v>
+        <v>0.1852572320306228</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03532665320136837</v>
+        <v>0.09099459292843126</v>
       </c>
       <c r="G182" t="n">
-        <v>0.04610108186348331</v>
+        <v>0.1909018680069003</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04226558201017469</v>
+        <v>0.04653177990054622</v>
       </c>
       <c r="K182" t="n">
-        <v>0.0894195855871292</v>
+        <v>0.1886926194378891</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07663436449667355</v>
+        <v>0.0906168547765471</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08886353435758916</v>
+        <v>0.1867894440430442</v>
       </c>
       <c r="N182" t="n">
-        <v>0.09906754817087798</v>
+        <v>0.1344560006992175</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08872558629309941</v>
+        <v>0.1868542771343351</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03472586939106893</v>
+        <v>0.09061210190150926</v>
       </c>
       <c r="G183" t="n">
-        <v>0.04610081333501929</v>
+        <v>0.1925335079043952</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04237162032666822</v>
+        <v>0.04640052240398142</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09018385554941237</v>
+        <v>0.1903053768689821</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07624260218508444</v>
+        <v>0.09066362733546257</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08962305174526086</v>
+        <v>0.1883859350177711</v>
       </c>
       <c r="N183" t="n">
-        <v>0.0984462872670277</v>
+        <v>0.1349230991684046</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08948392463748489</v>
+        <v>0.1884513222380474</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03414217113523577</v>
+        <v>0.0851588980753574</v>
       </c>
       <c r="G184" t="n">
-        <v>0.04610054480655527</v>
+        <v>0.1941651478018901</v>
       </c>
       <c r="J184" t="n">
-        <v>0.04207426129168322</v>
+        <v>0.04672460863896023</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09094812551169552</v>
+        <v>0.1919181343000752</v>
       </c>
       <c r="L184" t="n">
-        <v>0.075240402746406</v>
+        <v>0.09070825044514438</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09038256913293256</v>
+        <v>0.1899824259924979</v>
       </c>
       <c r="N184" t="n">
-        <v>0.0966696066110927</v>
+        <v>0.1351393744460392</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09024226298187034</v>
+        <v>0.1900483673417596</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03357601695761876</v>
+        <v>0.09461151648661409</v>
       </c>
       <c r="G185" t="n">
-        <v>0.04610027627809126</v>
+        <v>0.1957967876993849</v>
       </c>
       <c r="J185" t="n">
-        <v>0.0418734442453968</v>
+        <v>0.0468928667030214</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09171239547397868</v>
+        <v>0.1935308917311683</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07532683907144117</v>
+        <v>0.09135427188950943</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09114208652060425</v>
+        <v>0.1915789169672248</v>
       </c>
       <c r="N185" t="n">
-        <v>0.0965423042768</v>
+        <v>0.1355068237297228</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09100060132625581</v>
+        <v>0.1916454124454719</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03302786538191781</v>
+        <v>0.0919464921719175</v>
       </c>
       <c r="G186" t="n">
-        <v>0.04610000774962724</v>
+        <v>0.1974284275968798</v>
       </c>
       <c r="J186" t="n">
-        <v>0.04186910852798616</v>
+        <v>0.0470169436928974</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09247666543626183</v>
+        <v>0.1951436491622613</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07500098405099265</v>
+        <v>0.09128609668854432</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09190160390827595</v>
+        <v>0.1931754079419517</v>
       </c>
       <c r="N186" t="n">
-        <v>0.09546917833787699</v>
+        <v>0.135851183920628</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09175893967064126</v>
+        <v>0.1932424575491841</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03249817493188123</v>
+        <v>0.08919888582143429</v>
       </c>
       <c r="G187" t="n">
-        <v>0.04609973922116323</v>
+        <v>0.1990600674943747</v>
       </c>
       <c r="J187" t="n">
-        <v>0.04136119347962854</v>
+        <v>0.04703722613553846</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09324093539854499</v>
+        <v>0.1967564065933544</v>
       </c>
       <c r="L187" t="n">
-        <v>0.0743619105758633</v>
+        <v>0.09151290978508253</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09266112129594765</v>
+        <v>0.1947718989166786</v>
       </c>
       <c r="N187" t="n">
-        <v>0.09375502686805043</v>
+        <v>0.1363881044367833</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09251727801502674</v>
+        <v>0.1948395026528964</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03198740413121051</v>
+        <v>0.09044514524846564</v>
       </c>
       <c r="G188" t="n">
-        <v>0.04609947069269921</v>
+        <v>0.2006917073918696</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04104963844050112</v>
+        <v>0.04725486106193075</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09400520536082814</v>
+        <v>0.1983691640244475</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07390869153685603</v>
+        <v>0.09233463387977825</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09342063868361936</v>
+        <v>0.1963683898914054</v>
       </c>
       <c r="N188" t="n">
-        <v>0.09310464794104772</v>
+        <v>0.1362174704425778</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09327561635941221</v>
+        <v>0.1964365477566087</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03149601150365237</v>
+        <v>0.0956858988993364</v>
       </c>
       <c r="G189" t="n">
-        <v>0.04609920216423519</v>
+        <v>0.2023233472893644</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04113438275078106</v>
+        <v>0.04726980735796145</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09476947532311131</v>
+        <v>0.1999819214555406</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07414039982477372</v>
+        <v>0.09245119167328555</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09418015607129107</v>
+        <v>0.1979648808661323</v>
       </c>
       <c r="N189" t="n">
-        <v>0.09262283963059592</v>
+        <v>0.1373391671024</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09403395470379766</v>
+        <v>0.1980335928603209</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03102258326770144</v>
+        <v>0.09192106041980619</v>
       </c>
       <c r="G190" t="n">
-        <v>0.04609893363577117</v>
+        <v>0.2039549871868593</v>
       </c>
       <c r="J190" t="n">
-        <v>0.04111536575064559</v>
+        <v>0.04768202390951778</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09553374528539446</v>
+        <v>0.2015946788866336</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07355610833041909</v>
+        <v>0.09266250586625846</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09493967345896277</v>
+        <v>0.1995613718408592</v>
       </c>
       <c r="N190" t="n">
-        <v>0.09191440001042223</v>
+        <v>0.1365530795806391</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09479229304818314</v>
+        <v>0.1996306379640332</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03055634411585251</v>
+        <v>0.09115054345563453</v>
       </c>
       <c r="G191" t="n">
-        <v>0.04609866510730715</v>
+        <v>0.2055866270843542</v>
       </c>
       <c r="J191" t="n">
-        <v>0.0404925267802719</v>
+        <v>0.04759146960248693</v>
       </c>
       <c r="K191" t="n">
-        <v>0.0962980152476776</v>
+        <v>0.2032074363177267</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07305488994459505</v>
+        <v>0.09246849915935113</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09569919084663447</v>
+        <v>0.201157862815586</v>
       </c>
       <c r="N191" t="n">
-        <v>0.09138412715425359</v>
+        <v>0.1381590930416837</v>
       </c>
       <c r="O191" t="n">
-        <v>0.0955506313925686</v>
+        <v>0.2012276830677455</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03009588026660145</v>
+        <v>0.08837426165258117</v>
       </c>
       <c r="G192" t="n">
-        <v>0.04609839657884313</v>
+        <v>0.2072182669818491</v>
       </c>
       <c r="J192" t="n">
-        <v>0.04066580517983716</v>
+        <v>0.04799810332275607</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09706228520996077</v>
+        <v>0.2048201937488198</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07313581755810436</v>
+        <v>0.09246909425321764</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09645870823430618</v>
+        <v>0.2027543537903129</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08983681913581748</v>
+        <v>0.1380570926499228</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09630896973695406</v>
+        <v>0.2028247281714577</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02964165024369281</v>
+        <v>0.0935921286564057</v>
       </c>
       <c r="G193" t="n">
-        <v>0.04609812805037912</v>
+        <v>0.2088499068793439</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04042460391618059</v>
+        <v>0.04790188395621243</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09782655517224392</v>
+        <v>0.2064329511799128</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07226775091162541</v>
+        <v>0.09316421384851206</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09721822562197788</v>
+        <v>0.2043508447650398</v>
       </c>
       <c r="N193" t="n">
-        <v>0.09014943098158129</v>
+        <v>0.1379469635697453</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09706730808133952</v>
+        <v>0.20442177327517</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02919411257083132</v>
+        <v>0.09280405811286774</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0460978595219151</v>
+        <v>0.2104815467768388</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03975684807996811</v>
+        <v>0.04820277038874318</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09859082513452708</v>
+        <v>0.2080457086110059</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07191411140521772</v>
+        <v>0.09295378064588847</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09797774300964958</v>
+        <v>0.2059473357397667</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08968648638565729</v>
+        <v>0.1381285909655401</v>
       </c>
       <c r="O194" t="n">
-        <v>0.097825646425725</v>
+        <v>0.2060188183788823</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02875372577176095</v>
+        <v>0.08900996366772687</v>
       </c>
       <c r="G195" t="n">
-        <v>0.04609759099345109</v>
+        <v>0.2121131866743337</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03956424898295127</v>
+        <v>0.04790072150623552</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09935509509681024</v>
+        <v>0.209658466042099</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07078011823803407</v>
+        <v>0.09333771734600102</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09873726039732128</v>
+        <v>0.2075438267144935</v>
       </c>
       <c r="N195" t="n">
-        <v>0.08954654436544435</v>
+        <v>0.1380018600016958</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09858398477011046</v>
+        <v>0.2076158634825945</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02832094837018707</v>
+        <v>0.09720975896674272</v>
       </c>
       <c r="G196" t="n">
-        <v>0.04609732246498707</v>
+        <v>0.2137448265718286</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03924855836626187</v>
+        <v>0.04839569619457662</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1001193650590934</v>
+        <v>0.211271223473192</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07087117052272651</v>
+        <v>0.09391594664950373</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09949677778499298</v>
+        <v>0.2091403176892204</v>
       </c>
       <c r="N196" t="n">
-        <v>0.0885283209069519</v>
+        <v>0.1390666558426016</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09934232311449592</v>
+        <v>0.2092129085863068</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02789623888985303</v>
+        <v>0.09340335765567495</v>
       </c>
       <c r="G197" t="n">
-        <v>0.04609705393652305</v>
+        <v>0.2153764664693234</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03891152797103167</v>
+        <v>0.04838765333965371</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1008836350213765</v>
+        <v>0.2128839809042851</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06949266737194704</v>
+        <v>0.09348839125705072</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1002562951726647</v>
+        <v>0.2107368086639473</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08823053199618935</v>
+        <v>0.1389228636526462</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1001006614588814</v>
+        <v>0.2108099536900191</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02748005585447377</v>
+        <v>0.08859067338028315</v>
       </c>
       <c r="G198" t="n">
-        <v>0.04609678540805904</v>
+        <v>0.2170081063668183</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03835490953839245</v>
+        <v>0.04827655182735398</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1016479049836597</v>
+        <v>0.2144967383353782</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06915000789834766</v>
+        <v>0.09385497386929612</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1010158125603364</v>
+        <v>0.2123332996386742</v>
       </c>
       <c r="N198" t="n">
-        <v>0.08805189361916638</v>
+        <v>0.1398703685962183</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1008589998032668</v>
+        <v>0.2124069987937313</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02707285778776507</v>
+        <v>0.09177161978632695</v>
       </c>
       <c r="G199" t="n">
-        <v>0.04609651687959502</v>
+        <v>0.2186397462643132</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03828045480947592</v>
+        <v>0.04826235054356461</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1024121749459429</v>
+        <v>0.2161094957664712</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06804859121458051</v>
+        <v>0.09401561718689394</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1017753299480081</v>
+        <v>0.213929790613401</v>
       </c>
       <c r="N199" t="n">
-        <v>0.0881911217618922</v>
+        <v>0.1391090558377071</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1016173381476523</v>
+        <v>0.2140040438974436</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02667510321346912</v>
+        <v>0.08894611051956594</v>
       </c>
       <c r="G200" t="n">
-        <v>0.046096248351131</v>
+        <v>0.220271386161808</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03788991552541392</v>
+        <v>0.0483450083741728</v>
       </c>
       <c r="K200" t="n">
-        <v>0.103176444908226</v>
+        <v>0.2177222531975643</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06729381643329754</v>
+        <v>0.09477024391049832</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1025348473356798</v>
+        <v>0.2155262815881279</v>
       </c>
       <c r="N200" t="n">
-        <v>0.08684693241037644</v>
+        <v>0.1392388105415012</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1023756764920378</v>
+        <v>0.2156010890011559</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02628725065529315</v>
+        <v>0.09111405922575974</v>
       </c>
       <c r="G201" t="n">
-        <v>0.04609597982266698</v>
+        <v>0.2219030260593029</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03768504342733817</v>
+        <v>0.04852448420506573</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1039407148705092</v>
+        <v>0.2193350106286574</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06599108266715076</v>
+        <v>0.09411877674076335</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1032943647233515</v>
+        <v>0.2171227725628548</v>
       </c>
       <c r="N201" t="n">
-        <v>0.08731804155062844</v>
+        <v>0.1398595178719897</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1031340148364232</v>
+        <v>0.2171981341048681</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02590975863697854</v>
+        <v>0.09127537955066803</v>
       </c>
       <c r="G202" t="n">
-        <v>0.04609571129420297</v>
+        <v>0.2235346659567978</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03676759025638045</v>
+        <v>0.04900073692213061</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1047049848327923</v>
+        <v>0.2209477680597505</v>
       </c>
       <c r="L202" t="n">
-        <v>0.0652457890287923</v>
+        <v>0.09486113837834309</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1040538821110232</v>
+        <v>0.2187192635375817</v>
       </c>
       <c r="N202" t="n">
-        <v>0.08640316516865787</v>
+        <v>0.1401710629935612</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1038923531808087</v>
+        <v>0.2187951792085804</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02554308568223336</v>
+        <v>0.09542998514005044</v>
       </c>
       <c r="G203" t="n">
-        <v>0.04609544276573894</v>
+        <v>0.2251663058542927</v>
       </c>
       <c r="J203" t="n">
-        <v>0.0368393077536725</v>
+        <v>0.04907372541125463</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1054692547950755</v>
+        <v>0.2225605254908435</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06346333463087409</v>
+        <v>0.09499725152389171</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1048133994986949</v>
+        <v>0.2203157545123085</v>
       </c>
       <c r="N203" t="n">
-        <v>0.08600101925047404</v>
+        <v>0.1398733310706048</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1046506915251942</v>
+        <v>0.2203922243122927</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02518769031479808</v>
+        <v>0.09757778963966648</v>
       </c>
       <c r="G204" t="n">
-        <v>0.04609517423727493</v>
+        <v>0.2267979457517875</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03590194766034611</v>
+        <v>0.04874340855832499</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1062335247573586</v>
+        <v>0.2241732829219366</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06264911858604816</v>
+        <v>0.09492703887806322</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1055729168863666</v>
+        <v>0.2219122454870354</v>
       </c>
       <c r="N204" t="n">
-        <v>0.08621031978208649</v>
+        <v>0.1400662072675091</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1054090298695797</v>
+        <v>0.2219892694160049</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02484403105838173</v>
+        <v>0.09171870669527585</v>
       </c>
       <c r="G205" t="n">
-        <v>0.04609490570881091</v>
+        <v>0.2284295856492824</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03595726171753306</v>
+        <v>0.04910974524922886</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1069977947196418</v>
+        <v>0.2257860403530297</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06200854000696659</v>
+        <v>0.09455042314151171</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1063324342740383</v>
+        <v>0.2235087364617623</v>
       </c>
       <c r="N205" t="n">
-        <v>0.08532978274950453</v>
+        <v>0.1407495767486632</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1061673682139651</v>
+        <v>0.2235863145197172</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02451256643672378</v>
+        <v>0.0948526499526382</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0460946371803469</v>
+        <v>0.2300612255467773</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03520700166636508</v>
+        <v>0.04907269436985347</v>
       </c>
       <c r="K206" t="n">
-        <v>0.107762064681925</v>
+        <v>0.2273987977841227</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06004699800628144</v>
+        <v>0.09536732701489131</v>
       </c>
       <c r="M206" t="n">
-        <v>0.10709195166171</v>
+        <v>0.2251052274364891</v>
       </c>
       <c r="N206" t="n">
-        <v>0.08515812413873786</v>
+        <v>0.1417233246784559</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1069257065583506</v>
+        <v>0.2251833596234294</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02419375497353433</v>
+        <v>0.09597953305751303</v>
       </c>
       <c r="G207" t="n">
-        <v>0.04609436865188288</v>
+        <v>0.2316928654442721</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03475291924797397</v>
+        <v>0.04903221480608599</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1085263346442081</v>
+        <v>0.2290115552152158</v>
       </c>
       <c r="L207" t="n">
-        <v>0.05936989169664469</v>
+        <v>0.0947776731988561</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1078514690493817</v>
+        <v>0.226701718411216</v>
       </c>
       <c r="N207" t="n">
-        <v>0.08459405993579583</v>
+        <v>0.141187336221276</v>
       </c>
       <c r="O207" t="n">
-        <v>0.107684044902736</v>
+        <v>0.2267804047271417</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02388805519255174</v>
+        <v>0.09709926965566007</v>
       </c>
       <c r="G208" t="n">
-        <v>0.04609410012341886</v>
+        <v>0.233324505341767</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03439676620349146</v>
+        <v>0.04928826544381361</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1092906046064912</v>
+        <v>0.2306243126463089</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05808262019070834</v>
+        <v>0.09558138439406014</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1086109864370534</v>
+        <v>0.2282982093859429</v>
       </c>
       <c r="N208" t="n">
-        <v>0.08483630612668797</v>
+        <v>0.1421414965415124</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1084423832471215</v>
+        <v>0.228377449830854</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02359592561748722</v>
+        <v>0.09721177339283893</v>
       </c>
       <c r="G209" t="n">
-        <v>0.04609383159495484</v>
+        <v>0.2349561452392619</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03394029427404931</v>
+        <v>0.04914080516892355</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1100548745687744</v>
+        <v>0.2322370700774019</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05639058260112448</v>
+        <v>0.09537838330115758</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1093705038247251</v>
+        <v>0.2298947003606698</v>
       </c>
       <c r="N209" t="n">
-        <v>0.08418357869742371</v>
+        <v>0.141385690803554</v>
       </c>
       <c r="O209" t="n">
-        <v>0.109200721591507</v>
+        <v>0.2299744949345663</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02331782477207801</v>
+        <v>0.09331695791480915</v>
       </c>
       <c r="G210" t="n">
-        <v>0.04609356306649083</v>
+        <v>0.2365877851367568</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03318525520077935</v>
+        <v>0.04898979286730297</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1108191445310576</v>
+        <v>0.233849827508495</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05519917804054508</v>
+        <v>0.09576859262080245</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1101300212123968</v>
+        <v>0.2314911913353966</v>
       </c>
       <c r="N210" t="n">
-        <v>0.08453459363401244</v>
+        <v>0.1416198041717897</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1099590599358924</v>
+        <v>0.2315715400382785</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02305421118003649</v>
+        <v>0.09441473686733043</v>
       </c>
       <c r="G211" t="n">
-        <v>0.04609329453802681</v>
+        <v>0.2382194250342517</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03323340072481329</v>
+        <v>0.04923518742483909</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1115834144933407</v>
+        <v>0.2354625849395881</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05441380562162224</v>
+        <v>0.09545193505364885</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1108895386000685</v>
+        <v>0.2330876823101235</v>
       </c>
       <c r="N211" t="n">
-        <v>0.08478806692246377</v>
+        <v>0.1412437218106081</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1107173982802779</v>
+        <v>0.2331685851419908</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02280554336509863</v>
+        <v>0.1005050238961624</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0460930260095628</v>
+        <v>0.2398510649317465</v>
       </c>
       <c r="J212" t="n">
-        <v>0.0325864825872829</v>
+        <v>0.04957694772741909</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1123476844556239</v>
+        <v>0.2370753423706811</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05303986445700795</v>
+        <v>0.09602833330035096</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1116490559877402</v>
+        <v>0.2346841732848504</v>
       </c>
       <c r="N212" t="n">
-        <v>0.08374271454878707</v>
+        <v>0.1421573288843984</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1114757366246634</v>
+        <v>0.2347656302457031</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02257227985097815</v>
+        <v>0.09858773264706458</v>
       </c>
       <c r="G213" t="n">
-        <v>0.04609275748109878</v>
+        <v>0.2414827048292414</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03194625252931997</v>
+        <v>0.04921503266093018</v>
       </c>
       <c r="K213" t="n">
-        <v>0.113111954417907</v>
+        <v>0.2386880998017742</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05228275365935425</v>
+        <v>0.09589771006156272</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1124085733754119</v>
+        <v>0.2362806642595773</v>
       </c>
       <c r="N213" t="n">
-        <v>0.08439725249899188</v>
+        <v>0.1424605105575493</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1122340749690488</v>
+        <v>0.2363626753494153</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.0223548791614097</v>
+        <v>0.09766277676579671</v>
       </c>
       <c r="G214" t="n">
-        <v>0.04609248895263476</v>
+        <v>0.2431143447267363</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03141446229205623</v>
+        <v>0.04914940111125951</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1138762243801902</v>
+        <v>0.2403008572328673</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05124787234131317</v>
+        <v>0.0955599880379383</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1131680907630836</v>
+        <v>0.2378771552343041</v>
       </c>
       <c r="N214" t="n">
-        <v>0.0840503967590876</v>
+        <v>0.1420531519944497</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1129924133134343</v>
+        <v>0.2379597204531276</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.0223548791614097</v>
+        <v>0.09473006989811833</v>
       </c>
       <c r="G215" t="n">
-        <v>0.04609248895263476</v>
+        <v>0.2447459846242312</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03139286361662347</v>
+        <v>0.04918001196429433</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1146404943424734</v>
+        <v>0.2419136146639604</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05024061961553677</v>
+        <v>0.09611508993013182</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1139276081507553</v>
+        <v>0.239473646209031</v>
       </c>
       <c r="N215" t="n">
-        <v>0.08280086331508374</v>
+        <v>0.1417351383594884</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1137507516578198</v>
+        <v>0.2395567655568399</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02178289089264764</v>
+        <v>0.0947895256897891</v>
       </c>
       <c r="G216" t="n">
-        <v>0.04607235973451899</v>
+        <v>0.2463776245217261</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03068320824415346</v>
+        <v>0.04950682410592182</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1154047643047565</v>
+        <v>0.2435263720950534</v>
       </c>
       <c r="L216" t="n">
-        <v>0.04916639459467703</v>
+        <v>0.0954629384387973</v>
       </c>
       <c r="M216" t="n">
-        <v>0.114687125538427</v>
+        <v>0.2410701371837579</v>
       </c>
       <c r="N216" t="n">
-        <v>0.08334736815298971</v>
+        <v>0.1422063548170543</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1145090900022052</v>
+        <v>0.2411538106605521</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02121745277869419</v>
+        <v>0.09384105778656859</v>
       </c>
       <c r="G217" t="n">
-        <v>0.04605223051640321</v>
+        <v>0.2480092644192209</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03018724791577793</v>
+        <v>0.04972979642202915</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1161690342670397</v>
+        <v>0.2451391295261465</v>
       </c>
       <c r="L217" t="n">
-        <v>0.04803059639138596</v>
+        <v>0.09610345626458894</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1154466429260987</v>
+        <v>0.2426666281584847</v>
       </c>
       <c r="N217" t="n">
-        <v>0.08218862725881515</v>
+        <v>0.1418666865315364</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1152674283465907</v>
+        <v>0.2427508557642644</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02065890931985844</v>
+        <v>0.09388457983421647</v>
       </c>
       <c r="G218" t="n">
-        <v>0.04603210129828744</v>
+        <v>0.2496409043167158</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03020673437262869</v>
+        <v>0.04964888779850352</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1169333042293228</v>
+        <v>0.2467518869572396</v>
       </c>
       <c r="L218" t="n">
-        <v>0.04723862411831564</v>
+        <v>0.09633656610816069</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1162061603137704</v>
+        <v>0.2442631191332116</v>
       </c>
       <c r="N218" t="n">
-        <v>0.08302335661856936</v>
+        <v>0.1425160186673234</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1160257666909762</v>
+        <v>0.2443479008679766</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02010760501644877</v>
+        <v>0.09792000547849233</v>
       </c>
       <c r="G219" t="n">
-        <v>0.04601197208017166</v>
+        <v>0.2512725442142106</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02994341935583748</v>
+        <v>0.04976405712123215</v>
       </c>
       <c r="K219" t="n">
-        <v>0.117697574191606</v>
+        <v>0.2483646443883326</v>
       </c>
       <c r="L219" t="n">
-        <v>0.04589587688811811</v>
+        <v>0.09606219067016669</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1169656777014421</v>
+        <v>0.2458596101079385</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0828502722182618</v>
+        <v>0.1419542363888042</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1167841050353616</v>
+        <v>0.2459449459716889</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01956388436877421</v>
+        <v>0.1009472483651558</v>
       </c>
       <c r="G220" t="n">
-        <v>0.04599184286205589</v>
+        <v>0.2529041841117056</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02949905460653608</v>
+        <v>0.04977526327610221</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1184618441538891</v>
+        <v>0.2499774018194257</v>
       </c>
       <c r="L220" t="n">
-        <v>0.04540775381344542</v>
+        <v>0.09598025265126106</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1177251950891138</v>
+        <v>0.2474561010826654</v>
       </c>
       <c r="N220" t="n">
-        <v>0.08136809004390205</v>
+        <v>0.1431812248603676</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1175424433797471</v>
+        <v>0.2475419910754012</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01902809187714316</v>
+        <v>0.09596622213996658</v>
       </c>
       <c r="G221" t="n">
-        <v>0.04597171364394011</v>
+        <v>0.2545358240092004</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02877539186585625</v>
+        <v>0.04968246514900089</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1192261141161723</v>
+        <v>0.2515901592505188</v>
       </c>
       <c r="L221" t="n">
-        <v>0.04407965400694952</v>
+        <v>0.09609067475209793</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1184847124767855</v>
+        <v>0.2490525920573922</v>
       </c>
       <c r="N221" t="n">
-        <v>0.08137552608149951</v>
+        <v>0.1425968692464026</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1183007817241326</v>
+        <v>0.2491390361791134</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01850057204186465</v>
+        <v>0.1009768404486842</v>
       </c>
       <c r="G222" t="n">
-        <v>0.04595158442582434</v>
+        <v>0.2561674639066953</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02867418287492975</v>
+        <v>0.04928562162581542</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1199903840784554</v>
+        <v>0.2532029166816119</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0438169765812825</v>
+        <v>0.09629065911107312</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1192442298644572</v>
+        <v>0.2506490830321191</v>
       </c>
       <c r="N222" t="n">
-        <v>0.08167129631706371</v>
+        <v>0.142097755562733</v>
       </c>
       <c r="O222" t="n">
-        <v>0.119059120068518</v>
+        <v>0.2507360812828257</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0179816693632471</v>
+        <v>0.09397135941128718</v>
       </c>
       <c r="G223" t="n">
-        <v>0.04593145520770856</v>
+        <v>0.2577991038041901</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02819717937488835</v>
+        <v>0.04945239276400727</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1207546540407386</v>
+        <v>0.2548156741127049</v>
       </c>
       <c r="L223" t="n">
-        <v>0.04242512064909637</v>
+        <v>0.09593633951281827</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1200037472521289</v>
+        <v>0.252245574006846</v>
       </c>
       <c r="N223" t="n">
-        <v>0.0812541167366041</v>
+        <v>0.1416735936505139</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1198174584129035</v>
+        <v>0.252333126386538</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01747172834159953</v>
+        <v>0.09777979139742854</v>
       </c>
       <c r="G224" t="n">
-        <v>0.04591132598959279</v>
+        <v>0.259430743701685</v>
       </c>
       <c r="J224" t="n">
-        <v>0.0280461331068638</v>
+        <v>0.04950354808442244</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1215189240030217</v>
+        <v>0.256428431543798</v>
       </c>
       <c r="L224" t="n">
-        <v>0.04240948532304317</v>
+        <v>0.09556348286847965</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1207632646398006</v>
+        <v>0.2538420649815729</v>
       </c>
       <c r="N224" t="n">
-        <v>0.08002270332613004</v>
+        <v>0.1420243773158399</v>
       </c>
       <c r="O224" t="n">
-        <v>0.120575796757289</v>
+        <v>0.2539301714902503</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01697109347723048</v>
+        <v>0.09135248959451986</v>
       </c>
       <c r="G225" t="n">
-        <v>0.04589119677147702</v>
+        <v>0.2610623835991799</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02812279581198786</v>
+        <v>0.04934715671045309</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1222831939653049</v>
+        <v>0.2580411889748911</v>
       </c>
       <c r="L225" t="n">
-        <v>0.04157546971577483</v>
+        <v>0.09449618673761681</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1215227820274723</v>
+        <v>0.2554385559562997</v>
       </c>
       <c r="N225" t="n">
-        <v>0.08007577207165112</v>
+        <v>0.141485905800559</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1213341351016744</v>
+        <v>0.2555272165939625</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01648010927044856</v>
+        <v>0.09771637436555117</v>
       </c>
       <c r="G226" t="n">
-        <v>0.04587106755336125</v>
+        <v>0.2626940234966748</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02792891923139235</v>
+        <v>0.04869603569469422</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1230474639275881</v>
+        <v>0.2596539464059841</v>
       </c>
       <c r="L226" t="n">
-        <v>0.04062847293994357</v>
+        <v>0.09425854867978925</v>
       </c>
       <c r="M226" t="n">
-        <v>0.122282299415144</v>
+        <v>0.2570350469310266</v>
       </c>
       <c r="N226" t="n">
-        <v>0.07931203895917677</v>
+        <v>0.1400939783465192</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1220924734460599</v>
+        <v>0.2571242616976748</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01599912022156275</v>
+        <v>0.09489836607351218</v>
       </c>
       <c r="G227" t="n">
-        <v>0.04585093833524547</v>
+        <v>0.2643256633941697</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02766625510620897</v>
+        <v>0.04826300208974071</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1238117338898712</v>
+        <v>0.2612667038370772</v>
       </c>
       <c r="L227" t="n">
-        <v>0.04107389410820131</v>
+        <v>0.09307466625455643</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1230418168028157</v>
+        <v>0.2586315379057535</v>
       </c>
       <c r="N227" t="n">
-        <v>0.07923021997471652</v>
+        <v>0.1388843941955684</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1228508117904454</v>
+        <v>0.2587213068013871</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01552847083088149</v>
+        <v>0.09492538508139295</v>
       </c>
       <c r="G228" t="n">
-        <v>0.04583080911712969</v>
+        <v>0.2659573032916645</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02743655517756954</v>
+        <v>0.04806087294818756</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1245760038521544</v>
+        <v>0.2628794612681702</v>
       </c>
       <c r="L228" t="n">
-        <v>0.04091713233320005</v>
+        <v>0.09256863702147786</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1238013341904875</v>
+        <v>0.2602280288804804</v>
       </c>
       <c r="N228" t="n">
-        <v>0.07892903110427973</v>
+        <v>0.1375929525895546</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1236091501348308</v>
+        <v>0.2603183519050993</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01506850559871378</v>
+        <v>0.09482435175218326</v>
       </c>
       <c r="G229" t="n">
-        <v>0.04581067989901393</v>
+        <v>0.2675889431891594</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02724157118660578</v>
+        <v>0.04710246532262971</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1253402738144375</v>
+        <v>0.2644922186992633</v>
       </c>
       <c r="L229" t="n">
-        <v>0.04006358672759189</v>
+        <v>0.09076455854011301</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1245608515781592</v>
+        <v>0.2618245198552072</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07810718833387587</v>
+        <v>0.1355554527703257</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1243674884792163</v>
+        <v>0.2619153970088116</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01461956902536807</v>
+        <v>0.0866221864488731</v>
       </c>
       <c r="G230" t="n">
-        <v>0.04579055068089815</v>
+        <v>0.2692205830866543</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02738283045348028</v>
+        <v>0.04660059626566213</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1261045437767207</v>
+        <v>0.2661049761303564</v>
       </c>
       <c r="L230" t="n">
-        <v>0.04061810780112929</v>
+        <v>0.08978652837002143</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1253203689658309</v>
+        <v>0.2634210108299341</v>
       </c>
       <c r="N230" t="n">
-        <v>0.07806341120922072</v>
+        <v>0.1334076939797298</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1251258268236017</v>
+        <v>0.2635124421125238</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01418200561115333</v>
+        <v>0.09034580953445231</v>
       </c>
       <c r="G231" t="n">
-        <v>0.04577042146278237</v>
+        <v>0.2708522229841492</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02743952952381323</v>
+        <v>0.04576808282987974</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1268688137390038</v>
+        <v>0.2677177335614495</v>
       </c>
       <c r="L231" t="n">
-        <v>0.04051824576796917</v>
+        <v>0.08845864407076257</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1260798863535026</v>
+        <v>0.265017501804661</v>
       </c>
       <c r="N231" t="n">
-        <v>0.07769719476600528</v>
+        <v>0.1311854754596148</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1258841651679872</v>
+        <v>0.2651094872162361</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01375615985637803</v>
+        <v>0.08602214137191083</v>
       </c>
       <c r="G232" t="n">
-        <v>0.0457502922446666</v>
+        <v>0.2724838628816441</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02699720853158412</v>
+        <v>0.04551774206787751</v>
       </c>
       <c r="K232" t="n">
-        <v>0.127633083701287</v>
+        <v>0.2693304909925425</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04011907052891023</v>
+        <v>0.08800500320189597</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1268394037411743</v>
+        <v>0.2666139927793879</v>
       </c>
       <c r="N232" t="n">
-        <v>0.07730906545396066</v>
+        <v>0.1301245964518289</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1266425035123727</v>
+        <v>0.2667065323199484</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01334237626135113</v>
+        <v>0.08467810232423859</v>
       </c>
       <c r="G233" t="n">
-        <v>0.04573016302655083</v>
+        <v>0.2741155027791389</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02695588671688876</v>
+        <v>0.0448623910322504</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1283973536635702</v>
+        <v>0.2709432484236356</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04012120743125397</v>
+        <v>0.08644970332298105</v>
       </c>
       <c r="M233" t="n">
-        <v>0.127598921128846</v>
+        <v>0.2682104837541147</v>
       </c>
       <c r="N233" t="n">
-        <v>0.07699949410724788</v>
+        <v>0.1282608561982198</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1274008418567581</v>
+        <v>0.2683035774236606</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.0129409993263811</v>
+        <v>0.0813406127544254</v>
       </c>
       <c r="G234" t="n">
-        <v>0.04571003380843505</v>
+        <v>0.2757471426766338</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02741558331982298</v>
+        <v>0.04431484677559337</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1291616236258533</v>
+        <v>0.2725560058547287</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04052528182230186</v>
+        <v>0.08461684199357739</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1283584385165177</v>
+        <v>0.2698069747288416</v>
       </c>
       <c r="N234" t="n">
-        <v>0.07566895156002834</v>
+        <v>0.1262300539406355</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1281591802011436</v>
+        <v>0.2699006225273729</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01255237355177691</v>
+        <v>0.08503659302546127</v>
       </c>
       <c r="G235" t="n">
-        <v>0.04568990459031928</v>
+        <v>0.2773787825741286</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0268763175804826</v>
+        <v>0.04328792635050134</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1299258935881365</v>
+        <v>0.2741687632858217</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04053191904935541</v>
+        <v>0.08353051677324441</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1291179559041894</v>
+        <v>0.2714034657035685</v>
       </c>
       <c r="N235" t="n">
-        <v>0.07531790864646326</v>
+        <v>0.1240679889209241</v>
       </c>
       <c r="O235" t="n">
-        <v>0.128917518545529</v>
+        <v>0.2714976676310852</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01217684343784715</v>
+        <v>0.08679296350033594</v>
       </c>
       <c r="G236" t="n">
-        <v>0.04566977537220351</v>
+        <v>0.2790104224716236</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02723810873896347</v>
+        <v>0.04259444680956927</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1306901635504196</v>
+        <v>0.2757815207169148</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04024174445971615</v>
+        <v>0.08261482522154168</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1298774732918611</v>
+        <v>0.2729999566782954</v>
       </c>
       <c r="N236" t="n">
-        <v>0.07494683620071368</v>
+        <v>0.1231104603809335</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1296758568899145</v>
+        <v>0.2730947127347974</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01181475348490042</v>
+        <v>0.07863664454203947</v>
       </c>
       <c r="G237" t="n">
-        <v>0.04564964615408773</v>
+        <v>0.2806420623691184</v>
       </c>
       <c r="J237" t="n">
-        <v>0.0273009760353614</v>
+        <v>0.04244722520539215</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1314544335127028</v>
+        <v>0.2773942781480079</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04005538340068551</v>
+        <v>0.08129219929208931</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1306369906795328</v>
+        <v>0.2745964476530222</v>
       </c>
       <c r="N237" t="n">
-        <v>0.07505620505694105</v>
+        <v>0.1215910670646553</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1304341952343</v>
+        <v>0.2746917578385097</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01146644819324567</v>
+        <v>0.07957178685643018</v>
       </c>
       <c r="G238" t="n">
-        <v>0.04562951693597196</v>
+        <v>0.2822737022666133</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02716493870977224</v>
+        <v>0.04203271164691345</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1322187034749859</v>
+        <v>0.2790070355791009</v>
       </c>
       <c r="L238" t="n">
-        <v>0.03987346121956506</v>
+        <v>0.08090474728193284</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1313965080672045</v>
+        <v>0.2761929386277491</v>
       </c>
       <c r="N238" t="n">
-        <v>0.0746464860493064</v>
+        <v>0.1201251794107526</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1311925335786855</v>
+        <v>0.276288802942222</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01113227206319141</v>
+        <v>0.08051397438138094</v>
       </c>
       <c r="G239" t="n">
-        <v>0.04560938771785619</v>
+        <v>0.2839053421641082</v>
       </c>
       <c r="J239" t="n">
-        <v>0.0271300160022918</v>
+        <v>0.04101663965609564</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1329829734372691</v>
+        <v>0.280619793010194</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04069660326365629</v>
+        <v>0.07961364486189842</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1321560254548762</v>
+        <v>0.277789429602476</v>
       </c>
       <c r="N239" t="n">
-        <v>0.07321815001197113</v>
+        <v>0.1190538713686964</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1319508719230709</v>
+        <v>0.2778858480459342</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.0108111628854526</v>
+        <v>0.08145214367905235</v>
       </c>
       <c r="G240" t="n">
-        <v>0.04558925849974041</v>
+        <v>0.285536982061603</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02669622715301595</v>
+        <v>0.04099862326045059</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1337472433995522</v>
+        <v>0.2822325504412871</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04082543488026066</v>
+        <v>0.07861883494397398</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1329155428425479</v>
+        <v>0.2793859205772029</v>
       </c>
       <c r="N240" t="n">
-        <v>0.07207166777909635</v>
+        <v>0.1168770581287551</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1327092102674564</v>
+        <v>0.2794828931496465</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01049502490277422</v>
+        <v>0.07738623097410613</v>
       </c>
       <c r="G241" t="n">
-        <v>0.04556912928162463</v>
+        <v>0.2871686219590979</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02696359140204044</v>
+        <v>0.0404786320959054</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1345115133618354</v>
+        <v>0.2838453078723802</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04066058141667966</v>
+        <v>0.07742026044014721</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1336750602302196</v>
+        <v>0.2809824115519297</v>
       </c>
       <c r="N241" t="n">
-        <v>0.07140751018484326</v>
+        <v>0.1160946548811972</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1334675486118418</v>
+        <v>0.2810799382533588</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01018279590587123</v>
+        <v>0.07631617249120415</v>
       </c>
       <c r="G242" t="n">
-        <v>0.04554900006350886</v>
+        <v>0.2888002618565927</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02673212798946119</v>
+        <v>0.03985663579838709</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1352757833241185</v>
+        <v>0.2854580653034732</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04070266822021484</v>
+        <v>0.07651786426240595</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1344345776178913</v>
+        <v>0.2825789025266566</v>
       </c>
       <c r="N242" t="n">
-        <v>0.07132614806337317</v>
+        <v>0.1140065768162911</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1342258869562273</v>
+        <v>0.282676983357071</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.009874820395052178</v>
+        <v>0.07924190445500812</v>
       </c>
       <c r="G243" t="n">
-        <v>0.04552887084539309</v>
+        <v>0.2904319017540877</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02690185615537397</v>
+        <v>0.03933260400382287</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1360400532864017</v>
+        <v>0.2870708227345663</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04065232063816768</v>
+        <v>0.07541158932273795</v>
       </c>
       <c r="M243" t="n">
-        <v>0.135194095005563</v>
+        <v>0.2841753935013834</v>
       </c>
       <c r="N243" t="n">
-        <v>0.07012805224884722</v>
+        <v>0.1123127391243054</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1349842253006128</v>
+        <v>0.2842740284607833</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.009571442870625953</v>
+        <v>0.07216336309017986</v>
       </c>
       <c r="G244" t="n">
-        <v>0.04550874162727731</v>
+        <v>0.2920635416515825</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02667279513987462</v>
+        <v>0.03850650634813978</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1368043232486849</v>
+        <v>0.2886835801656594</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04051016401783966</v>
+        <v>0.07500137853313099</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1359536123932347</v>
+        <v>0.2857718844761103</v>
       </c>
       <c r="N244" t="n">
-        <v>0.07011369357542663</v>
+        <v>0.1109130569955089</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1357425636449983</v>
+        <v>0.2858710735644956</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.009273007832901171</v>
+        <v>0.07608048462138109</v>
       </c>
       <c r="G245" t="n">
-        <v>0.04548861240916154</v>
+        <v>0.2936951815490774</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02664496418305902</v>
+        <v>0.03797831246726494</v>
       </c>
       <c r="K245" t="n">
-        <v>0.137568593210968</v>
+        <v>0.2902963375967524</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04057682370653229</v>
+        <v>0.07358717480557286</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1367131297809064</v>
+        <v>0.2873683754508372</v>
       </c>
       <c r="N245" t="n">
-        <v>0.06878354287727273</v>
+        <v>0.1093074456201695</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1365009019893837</v>
+        <v>0.2874681186682078</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.008979859782186482</v>
+        <v>0.0689932052732736</v>
       </c>
       <c r="G246" t="n">
-        <v>0.04546848319104577</v>
+        <v>0.2953268214465723</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02691838252502292</v>
+        <v>0.03754799199712543</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1383328631732512</v>
+        <v>0.2919090950278455</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04045292505154707</v>
+        <v>0.0724689210520513</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1374726471685781</v>
+        <v>0.2889648664255641</v>
       </c>
       <c r="N246" t="n">
-        <v>0.06883807098854661</v>
+        <v>0.1073958201885561</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1372592403337692</v>
+        <v>0.2890651637719201</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.008692343218790761</v>
+        <v>0.06990146127051924</v>
       </c>
       <c r="G247" t="n">
-        <v>0.04544835397292999</v>
+        <v>0.2969584613440672</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02679306940586219</v>
+        <v>0.03681551457364837</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1390971331355343</v>
+        <v>0.2935218524589386</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04083909340018549</v>
+        <v>0.07174656018455422</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1382321645562498</v>
+        <v>0.2905613574002909</v>
       </c>
       <c r="N247" t="n">
-        <v>0.06737774874340957</v>
+        <v>0.1069780958909372</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1380175786781546</v>
+        <v>0.2906622088756324</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.008410802643022568</v>
+        <v>0.07480518883777972</v>
       </c>
       <c r="G248" t="n">
-        <v>0.04542822475481421</v>
+        <v>0.298590101241562</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02676904406567265</v>
+        <v>0.03648084983276088</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1398614030978175</v>
+        <v>0.2951346098900317</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04083595409974908</v>
+        <v>0.07112003511506923</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1389916819439215</v>
+        <v>0.2921578483750178</v>
       </c>
       <c r="N248" t="n">
-        <v>0.06710304697602276</v>
+        <v>0.1049541879175812</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1387759170225401</v>
+        <v>0.2922592539793446</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.008135582555190778</v>
+        <v>0.06670432419971684</v>
       </c>
       <c r="G249" t="n">
-        <v>0.04540809553669845</v>
+        <v>0.3002217411390569</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02654632574455017</v>
+        <v>0.03614396741039004</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1406256730601006</v>
+        <v>0.2967473673211247</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04084413249753929</v>
+        <v>0.06998928875558427</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1397511993315932</v>
+        <v>0.2937543393497447</v>
       </c>
       <c r="N249" t="n">
-        <v>0.06631443652054747</v>
+        <v>0.1038240114587565</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1395342553669256</v>
+        <v>0.2938562990830569</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.007867027455603956</v>
+        <v>0.07259880358099233</v>
       </c>
       <c r="G250" t="n">
-        <v>0.04538796631858267</v>
+        <v>0.3018533810365518</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02682493368259051</v>
+        <v>0.03560483694246291</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1413899430223838</v>
+        <v>0.2983601247522178</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04096425394085765</v>
+        <v>0.06875426401808701</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1405107167192649</v>
+        <v>0.2953508303244716</v>
       </c>
       <c r="N250" t="n">
-        <v>0.06471238821114489</v>
+        <v>0.1024874817047318</v>
       </c>
       <c r="O250" t="n">
-        <v>0.140292593711311</v>
+        <v>0.2954533441867692</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.007605481844570959</v>
+        <v>0.06348856320626803</v>
       </c>
       <c r="G251" t="n">
-        <v>0.0453678371004669</v>
+        <v>0.3034850209340466</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02660488711988958</v>
+        <v>0.0350634280649067</v>
       </c>
       <c r="K251" t="n">
-        <v>0.142154212984667</v>
+        <v>0.2999728821833109</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04149694377700563</v>
+        <v>0.06761490381456528</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1412702341069366</v>
+        <v>0.2969473212991984</v>
       </c>
       <c r="N251" t="n">
-        <v>0.06509737288197626</v>
+        <v>0.1006445138457754</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1410509320556965</v>
+        <v>0.2970503892904814</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.007351290222400365</v>
+        <v>0.06037353930020566</v>
       </c>
       <c r="G252" t="n">
-        <v>0.04534770788235112</v>
+        <v>0.3051166608315415</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02648620529654314</v>
+        <v>0.03461971041364839</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1429184829469501</v>
+        <v>0.3015856396144039</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04154282735328479</v>
+        <v>0.06687115105700692</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1420297514946083</v>
+        <v>0.2985438122739253</v>
       </c>
       <c r="N252" t="n">
-        <v>0.06436986136720274</v>
+        <v>0.0982950230721561</v>
       </c>
       <c r="O252" t="n">
-        <v>0.141809270400082</v>
+        <v>0.2986474343941937</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007104797089401045</v>
+        <v>0.06525366808746705</v>
       </c>
       <c r="G253" t="n">
-        <v>0.04532757866423535</v>
+        <v>0.3067483007290364</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02676890745264704</v>
+        <v>0.03397365362461516</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1436827529092333</v>
+        <v>0.303198397045497</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04130253001699655</v>
+        <v>0.06542294865739953</v>
       </c>
       <c r="M253" t="n">
-        <v>0.14278926888228</v>
+        <v>0.3001403032486522</v>
       </c>
       <c r="N253" t="n">
-        <v>0.06243032450098568</v>
+        <v>0.09753892457414215</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1425676087444674</v>
+        <v>0.3002444794979059</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.006866346945881563</v>
+        <v>0.06512888579271392</v>
       </c>
       <c r="G254" t="n">
-        <v>0.04530744944611957</v>
+        <v>0.3083799406265313</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02685301282829712</v>
+        <v>0.03342522733373411</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1444470228715164</v>
+        <v>0.3048111544765901</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04197667711544248</v>
+        <v>0.06467023952773107</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1435487862699517</v>
+        <v>0.3017367942233791</v>
       </c>
       <c r="N254" t="n">
-        <v>0.06127923311748612</v>
+        <v>0.09617613354200211</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1433259470888529</v>
+        <v>0.3018415246016182</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.006636284292150768</v>
+        <v>0.06099912864060808</v>
       </c>
       <c r="G255" t="n">
-        <v>0.0452873202280038</v>
+        <v>0.3100115805240262</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02663854066358921</v>
+        <v>0.0328744011769323</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1452112928337995</v>
+        <v>0.3064239119076831</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04166589399592402</v>
+        <v>0.06311296657998927</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1443083036576234</v>
+        <v>0.3033332851981059</v>
       </c>
       <c r="N255" t="n">
-        <v>0.06041705805086534</v>
+        <v>0.09420656516600445</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1440842854332384</v>
+        <v>0.3034385697053305</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006414953628517323</v>
+        <v>0.05686433285581133</v>
       </c>
       <c r="G256" t="n">
-        <v>0.04526719100988803</v>
+        <v>0.311643220421521</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02632551019861915</v>
+        <v>0.03222114479013685</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1459755627960827</v>
+        <v>0.3080366693387762</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04187080600574269</v>
+        <v>0.06225107272616187</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1450678210452951</v>
+        <v>0.3049297761728328</v>
       </c>
       <c r="N256" t="n">
-        <v>0.06014427013528473</v>
+        <v>0.09263013463641784</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1448426237776238</v>
+        <v>0.3050356148090428</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006202699455289874</v>
+        <v>0.06072443466298537</v>
       </c>
       <c r="G257" t="n">
-        <v>0.04524706179177225</v>
+        <v>0.3132748603190159</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02631394067348274</v>
+        <v>0.03166542780927487</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1467398327583659</v>
+        <v>0.3096494267698693</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04259203849220003</v>
+        <v>0.06098450087823667</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1458273384329668</v>
+        <v>0.3065262671475597</v>
       </c>
       <c r="N257" t="n">
-        <v>0.05866134020490527</v>
+        <v>0.09104675714351057</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1456009621220093</v>
+        <v>0.306632659912755</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.005999866272777266</v>
+        <v>0.05557937028679208</v>
       </c>
       <c r="G258" t="n">
-        <v>0.04522693257365648</v>
+        <v>0.3149065002165107</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02640385132827583</v>
+        <v>0.03120721987027346</v>
       </c>
       <c r="K258" t="n">
-        <v>0.147504102720649</v>
+        <v>0.3112621842009624</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04243021680259748</v>
+        <v>0.05971319394820152</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1465868558206385</v>
+        <v>0.3081227581222866</v>
       </c>
       <c r="N258" t="n">
-        <v>0.05846873909388839</v>
+        <v>0.08905634787755123</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1463593004663948</v>
+        <v>0.3082297050164673</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.005806798581288103</v>
+        <v>0.05942907595189315</v>
       </c>
       <c r="G259" t="n">
-        <v>0.0452068033555407</v>
+        <v>0.3165381401140057</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02679526140309424</v>
+        <v>0.03024649060905972</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1482683726829322</v>
+        <v>0.3128749416320554</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04248596628423656</v>
+        <v>0.05873709484804415</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1473463732083102</v>
+        <v>0.3097192490970134</v>
       </c>
       <c r="N259" t="n">
-        <v>0.0575669376363952</v>
+        <v>0.08765882202880843</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1471176388107802</v>
+        <v>0.3098267501201796</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005623840881131201</v>
+        <v>0.06127348788295038</v>
       </c>
       <c r="G260" t="n">
-        <v>0.04518667413742493</v>
+        <v>0.3181697800115005</v>
       </c>
       <c r="J260" t="n">
-        <v>0.0265881901380338</v>
+        <v>0.02988320966156073</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1490326426452153</v>
+        <v>0.3144876990631485</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04275991228441875</v>
+        <v>0.05805614648975232</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1481058905959819</v>
+        <v>0.3113157400717403</v>
       </c>
       <c r="N260" t="n">
-        <v>0.05705640666658685</v>
+        <v>0.08635409478755041</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1478759771551657</v>
+        <v>0.3114237952238918</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005451337672615193</v>
+        <v>0.05711254230462555</v>
       </c>
       <c r="G261" t="n">
-        <v>0.04516654491930915</v>
+        <v>0.3198014199089954</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02678265677319036</v>
+        <v>0.02951734666370363</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1497969126074985</v>
+        <v>0.3161004564942416</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04335268015044558</v>
+        <v>0.0568702917853138</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1488654079836536</v>
+        <v>0.3129122310464672</v>
       </c>
       <c r="N261" t="n">
-        <v>0.05623761701862467</v>
+        <v>0.08474208134404587</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1486343154995512</v>
+        <v>0.3130208403276041</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005289633456048867</v>
+        <v>0.04994617544158043</v>
       </c>
       <c r="G262" t="n">
-        <v>0.04514641570119338</v>
+        <v>0.3214330598064903</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02677868054865973</v>
+        <v>0.02864887125141551</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1505611825697817</v>
+        <v>0.3177132139253346</v>
       </c>
       <c r="L262" t="n">
-        <v>0.04416489522961856</v>
+        <v>0.05567947364671649</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1496249253713253</v>
+        <v>0.3145087220211941</v>
       </c>
       <c r="N262" t="n">
-        <v>0.05431103952666988</v>
+        <v>0.08302269688856329</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1493926538439366</v>
+        <v>0.3146178854313164</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005139072731740871</v>
+        <v>0.05077432351847684</v>
       </c>
       <c r="G263" t="n">
-        <v>0.04512628648307761</v>
+        <v>0.3230646997039852</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02627628070453773</v>
+        <v>0.02827775306062344</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1513254525320648</v>
+        <v>0.3193259713564277</v>
       </c>
       <c r="L263" t="n">
-        <v>0.04379718286923912</v>
+        <v>0.05438363498594806</v>
       </c>
       <c r="M263" t="n">
-        <v>0.150384442758997</v>
+        <v>0.3161052129959209</v>
       </c>
       <c r="N263" t="n">
-        <v>0.05457714502488364</v>
+        <v>0.08109585661137114</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1501509921883221</v>
+        <v>0.3162149305350286</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.04759692275997647</v>
       </c>
       <c r="G264" t="n">
-        <v>0.04510615726496183</v>
+        <v>0.32469633960148</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02627547648092024</v>
+        <v>0.02780396172725456</v>
       </c>
       <c r="K264" t="n">
-        <v>0.152089722494348</v>
+        <v>0.3209387287875208</v>
       </c>
       <c r="L264" t="n">
-        <v>0.04415016841660882</v>
+        <v>0.05368271871499625</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1511439601466687</v>
+        <v>0.3177017039706478</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05323640434742721</v>
+        <v>0.07886147570273799</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1509093305327076</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.04509299937022499</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005610597368501301</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.045093267898689</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006217632371766417</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.04509353642715302</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.006821061500025566</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.04509380495561705</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007420841243561613</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.04509407348408107</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008016928092605069</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.04509434201254508</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.008609278537438508</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.0450946105410091</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009197849068292775</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.04509487906947311</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.009782596175450076</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.04509514759793713</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01036347634914159</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.04509541612640115</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01094044607964924</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.04509568465486517</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.0115134618572045</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.04509595318332918</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01208248017208895</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.0450962217117932</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01264745751453442</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.04509649024025721</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01320835037482215</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.04509675876872123</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01376511524318432</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.04509702729718525</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01431770860990179</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.04509729582564927</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01486608696520713</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.04509756435411329</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01541020679936904</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.0450978328825773</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01595002460265581</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.04509810141104132</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01648549686530058</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.04509836993950533</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01701658007758328</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.04509863846796935</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01754323072973741</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.04509890699643337</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.0180654053120425</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.04509917552489739</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.01858306031473246</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.0450994440533614</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.01909632989287189</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.04509971258182542</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.01960623652540794</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.04509998111028943</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02011291436740486</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.04510024963875345</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02061631990909726</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.04510051816721748</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02111640964076364</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.0451007866956815</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02161314005263886</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.04510105522414551</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02210646763500117</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.04510132375260953</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02259634887808572</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.04510159228107354</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02308274027215987</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.04510186080953756</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02356559830749072</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.04510212933800158</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02404487947431388</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.04510239786646559</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02452054026290686</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.04510266639492961</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02499253716350554</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.04510293492339362</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02546082666638706</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.04510320345185764</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02592536526178769</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.04510347198032166</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02638610943998426</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.04510374050878568</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02684301569121336</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.0451040090372497</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02729604050575142</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.04510427756571372</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.02774514037383542</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.04510454609417773</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.02819027178574149</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.04510481462264175</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.0286313912317069</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.04510508315110576</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.0290684552020074</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.04510535167956978</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.02950142018688066</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.0451056202080338</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.02993024267660212</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.04510588873649782</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03035487916140969</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.04510615726496183</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03035487916140971</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.04509299937022499</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03079429166172923</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.0451136656452688</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03122941211255166</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.04513433192031261</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03166010955168895</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.04515499819535642</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03208625301695346</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.04517566447040023</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03250771154615718</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.04519633074544403</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03292435417711241</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.04521699702048784</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03333604994763142</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.04523766329553165</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03374266789552616</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.04525832957057546</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.0341440770586089</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.04527899584561926</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03454014647469197</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.04529966212066307</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03493074518158729</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.04532032839570688</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.03531574221710725</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.04534099467075069</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.03569500661906384</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.0453616609457945</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03606840742526933</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.04538232722083831</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.03643581367353602</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.04540299349588212</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.03679709440167583</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.04542365977092593</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.03715211864750119</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.04544432604596974</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.03750075544882404</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.04546499232101354</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.03784287384345668</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.04548565859605735</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.03817834286921136</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.04550632487110116</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.03850703156390008</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.04552699114614497</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.03882880896533521</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.04554765742118878</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.03914354411132873</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.04556832369623259</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.0394511060396929</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.04558898997127639</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.03975189855050697</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.04560965624632021</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04004899925518456</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.04563032252136401</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04034281195380496</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.04565098879640781</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04063320568418037</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.04567165507145163</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04092004948412283</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.04569232134649543</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04120321239144464</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.04571298762153925</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04148256344395787</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.04573365389658305</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04175797167947476</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.04575432017162686</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04202930613580753</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.04577498644667067</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04229643585076825</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.04579565272171447</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.04255922986216921</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.04581631899675829</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.04281755720782246</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.04583698527180209</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.04307128692554023</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.0458576515468459</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.04332028805313479</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.04587831782188971</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04356442962841815</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.04589898409693351</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.04380358068920256</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.04591965037197732</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.0440376102733003</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.04594031664702113</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.04426638741852339</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.04596098292206494</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.04448978116268411</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.04598164919710875</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.04470766054359453</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.04600231547215256</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.04491989459906691</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.04602298174719636</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.04512635236691344</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.04604364802224017</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.04532690288494623</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.04606431429728398</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.04552141519097753</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.04608498057232779</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.0457097583228194</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.0461056468473716</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.04570975832281941</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.0461056468473716</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.04687004980318732</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.04758139337752303</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.04799502414397189</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.04905713990767444</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.04908429641516568</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.05053288643782587</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05013748168676119</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.05200863296797729</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.05115419502875093</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.05348437949812872</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.05213405151112742</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.05496012602828014</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.05307666620388317</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.05643587255843157</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.0539816541770107</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.05791161908858299</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.05484863050050251</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.05938736561873441</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.05567721024435114</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.06086311214888583</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.0564670084785491</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.06233885867903726</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.05721764027308889</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.06381460520918869</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.057928720697963</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.06529035173934011</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.05859986482316398</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.06676609826949154</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.05923068771868435</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.06824184479964296</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05982080445451661</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.06971759132979438</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.06036983010065328</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.0711933378599458</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.06087737972708687</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.07266908439009723</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.06134306840380989</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.07414483092024865</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.06176651120081486</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.07562057745040007</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.06214732318809428</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.0770963239805515</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.06248511943564068</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.07857207051070292</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.0627795150134466</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.08004781704085434</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.06303012499150451</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.08152356357100576</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.06323656443980694</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.0829993101011572</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.06339844842834641</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.08447505663130862</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.06351539202711541</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.08595080316146005</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.06361301109709255</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.08742654969161147</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.06361291833531214</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.08890229622176289</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.06358615172425514</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.09037804275191433</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.06350051190268759</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.09185378928206574</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.06335970610054867</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.09332953581221716</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.06316747449258482</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.09480528234236858</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.06292755725354254</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.09628102887252001</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.06264369455816828</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.09775677540267143</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.0623196265812085</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.09923252193282285</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.0619590934974097</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1007082684629743</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.06156583548151832</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1021840149931257</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.06114359270828083</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1036597615232771</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.06069610535244371</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1051355080534286</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.06022711358875343</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.10661125458358</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.05974035759195642</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1080870011137314</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.05923957753679922</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1095627476438828</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.05872851359802822</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1110384941740343</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.05821090595038994</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1125142407041857</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.05769049476863081</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1139899872343371</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.05717102022749734</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1154657337644885</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.05665622250173596</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1169414802946399</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.05614984176609317</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1184172268247914</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.05565561819531539</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1198929733549428</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.05517729196414914</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1213687198850942</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.05471839009586581</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1228444664152456</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.05424802778516755</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1243202129453971</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.05374469884172245</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1257959594755485</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.05321200535131221</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1272717060056999</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.05265354939971846</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1287474525358513</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.05207293307272286</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1302231990660028</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.0514737584561071</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1316989455961542</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.05085962763565284</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1331746921263056</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.05023414269714173</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.134650438656457</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.04960090572635545</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1361261851866085</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.04896351880907564</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1376019317167599</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.04832558403108399</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1390776782469113</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.04769070347816215</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1405534247770627</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.04706247923609179</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1420291713072142</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.04644451339065456</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1435049178373656</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.04584040802763216</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.144980664367517</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.04525376523280622</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1464564108976684</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.04468818709195845</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1479321574278198</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.04414727569087044</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.04363463311532391</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1508836504881227</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.04315386145110052</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1523593970182741</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.04270856278398193</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1538351435484255</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.04230233919974978</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.155310890078577</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.04193879278418577</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1567866366087284</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.04162152562307155</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.1582623831388798</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.04135137882911791</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1597381296690312</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.04109342959194966</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.1612138761991827</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.04083691062222053</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.1626896227293341</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.04058285307796633</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.1641653692594855</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.04033228811722291</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.1656411157896369</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.0400862468980261</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.1671168623197884</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03984576057841172</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.1685926088499398</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03961186031641559</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.1700683553800912</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03938557727007352</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.1715441019102426</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03916794259742136</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.1730198484403941</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03895998745649494</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.1744955949705455</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.0387627430053301</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.1759713415006969</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03857724040196263</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.1774470880308483</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03840451080442837</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.1789228345609997</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03824558537076317</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.1803985810911512</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03810149525900283</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.1818743276213026</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03797327162718318</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.183350074151454</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03786194563334006</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.1848258206816054</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03776854843550928</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.1863015672117569</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03769411119172669</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.1877773137419083</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03763966506002808</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.1892530602720597</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03760624119844933</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.1907288068022111</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.03759487076502623</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.1922045533323626</v>
-      </c>
-    </row>
+        <v>0.3178119756387409</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
